--- a/xlsx/krasnodar.xlsx
+++ b/xlsx/krasnodar.xlsx
@@ -11598,7 +11598,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -11608,40 +11608,40 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>587000</v>
+        <v>541610</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-4x4</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-296668873651-lada-novii-largus-furgon</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>587000</t>
+          <t>541610</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lada/niva/</t>
-        </is>
-      </c>
-      <c r="J233" t="n">
-        <v>587000</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-4x4</t>
+          <t>https://krd93-auto.ru/auto/lada/largus_furgon/</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>541610</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-296668873651-lada-novii-largus-furgon</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -11651,54 +11651,40 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>451710</v>
+        <v>587000</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-392526322201-lada-niva-legend-3-dv</t>
-        </is>
-      </c>
-      <c r="H234" t="n">
-        <v>949900</v>
-      </c>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/lada/niva_legend_3d/</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-4x4</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>587000</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>618900</v>
+        <v>587000</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-legend-3d</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>539000</v>
-      </c>
-      <c r="M234" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/lada/niva-legend/suv</t>
-        </is>
-      </c>
-      <c r="N234" t="n">
-        <v>451710</v>
-      </c>
-      <c r="O234" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-392526322201-lada-niva-legend-3-dv</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-4x4</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -11708,46 +11694,54 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>579000</v>
+        <v>451710</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/niva-legend/cuv</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-392526322201-lada-niva-legend-3-dv</t>
         </is>
       </c>
       <c r="H235" t="n">
-        <v>994900</v>
+        <v>949900</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/niva_legend_5d/</t>
+          <t>https://car-krasnodar.ru/cars/lada/niva_legend_3d/</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>688900</v>
+        <v>618900</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-legend-5d</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-legend-3d</t>
         </is>
       </c>
       <c r="L235" t="n">
-        <v>579000</v>
+        <v>539000</v>
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/niva-legend/cuv</t>
+          <t>https://ac-pegas.ru/auto/lada/niva-legend/suv</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
+        <v>451710</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-392526322201-lada-niva-legend-3-dv</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -11757,38 +11751,54 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Niva Legend Bronto</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>689900</v>
+        <v>490410</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/niva-legend/suv_3d</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-971159127651-lada-niva-legend-5-dv</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>994900</v>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/lada/niva_legend_5d/</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>917900</v>
+        <v>688900</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-legend_bronto-3d-1gen-rest</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-legend-5d</t>
         </is>
       </c>
       <c r="L236" t="n">
-        <v>689900</v>
+        <v>579000</v>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/niva-legend/suv_3d</t>
+          <t>https://ac-pegas.ru/auto/lada/niva-legend/cuv</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
+        <v>490410</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-971159127651-lada-niva-legend-5-dv</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -11798,30 +11808,38 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend Bronto</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>669000</v>
+        <v>689900</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-offroad</t>
+          <t>https://ac-pegas.ru/auto/lada/niva-legend/suv_3d</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>669000</v>
+        <v>917900</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-offroad</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-legend_bronto-3d-1gen-rest</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>689900</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/lada/niva-legend/suv_3d</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -11831,64 +11849,30 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>549000</v>
+        <v>669000</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/niva-travel/suv</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>549000</t>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/lada/niva_travel/</t>
-        </is>
-      </c>
-      <c r="H238" t="n">
-        <v>1097900</v>
-      </c>
-      <c r="I238" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/lada/niva-travel/</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-offroad</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>557000</v>
+        <v>669000</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-travel</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>549000</v>
-      </c>
-      <c r="M238" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/lada/niva-travel/suv</t>
-        </is>
-      </c>
-      <c r="N238" t="n">
-        <v>617100</v>
-      </c>
-      <c r="O238" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-806839628991-lada-niva-travel</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-offroad</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -11898,30 +11882,64 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Niva Urban 3 двери</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>515000</v>
+        <v>549000</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-urban-3d</t>
+          <t>https://ac-pegas.ru/auto/lada/niva-travel/suv</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>549000</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/lada/niva_travel/</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>1097900</v>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/lada/niva-travel/</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>515000</v>
+        <v>557000</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-urban-3d</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-travel</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>549000</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/lada/niva-travel/suv</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
+        <v>617100</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-806839628991-lada-niva-travel</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -11931,30 +11949,30 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Niva Urban 5 дверей</t>
+          <t>Niva Urban 3 двери</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>553000</v>
+        <v>515000</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-urban-5d</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-urban-3d</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>553000</v>
+        <v>515000</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-urban-5d</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-urban-3d</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -11964,57 +11982,23 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Vesta CNG</t>
+          <t>Niva Urban 5 дверей</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>639900</v>
+        <v>553000</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-811977189801-lada-vesta-cng</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>639900</t>
-        </is>
-      </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/lada/vesta_cng/</t>
-        </is>
-      </c>
-      <c r="H241" t="n">
-        <v>1253900</v>
-      </c>
-      <c r="I241" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/lada/vesta_cng/</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-urban-5d</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>1166900</v>
+        <v>553000</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-cng</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>809000</v>
-      </c>
-      <c r="M241" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/lada/vesta/cng</t>
-        </is>
-      </c>
-      <c r="N241" t="n">
-        <v>639900</v>
-      </c>
-      <c r="O241" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-811977189801-lada-vesta-cng</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-urban-5d</t>
         </is>
       </c>
     </row>
@@ -12434,7 +12418,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -12444,48 +12428,64 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>569000</v>
+        <v>639900</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lada/vesta/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-811977189801-lada-vesta-cng</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>639900</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lada/vesta/</t>
+          <t>https://krd93-auto.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="H249" t="n">
-        <v>1240900</v>
+        <v>1253900</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/vesta_new/</t>
+          <t>https://car-krasnodar.ru/cars/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>899900</v>
+        <v>1166900</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/Vesta-new_SEDAN</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-cng</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>809000</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/lada/vesta/cng</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
+        <v>639900</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-811977189801-lada-vesta-cng</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -12495,54 +12495,48 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>839000</v>
+        <v>569000</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/vesta/sport</t>
+          <t>https://krd93-auto.ru/auto/lada/vesta/</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>569000</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="H250" t="n">
-        <v>1459900</v>
+        <v>1240900</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/vesta-sport/</t>
+          <t>https://car-krasnodar.ru/cars/lada/vesta_new/</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>1297900</v>
+        <v>899900</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-sport</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>839000</v>
-      </c>
-      <c r="M250" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/lada/vesta/sport</t>
-        </is>
-      </c>
-      <c r="N250" t="n">
-        <v>855810</v>
-      </c>
-      <c r="O250" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-696241181211-lada-vesta-sport</t>
+          <t>https://avangard-yug.ru/auto/lada/Vesta-new_SEDAN</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -12552,46 +12546,54 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Vesta Sportline</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>1269900</v>
+        <v>839000</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
+          <t>https://ac-pegas.ru/auto/lada/vesta/sport</t>
         </is>
       </c>
       <c r="H251" t="n">
-        <v>1952900</v>
+        <v>1459900</v>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/vesta_sportline/</t>
+          <t>https://car-krasnodar.ru/cars/lada/vesta-sport/</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>1375900</v>
+        <v>1297900</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-sportline</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-sport</t>
         </is>
       </c>
       <c r="L251" t="n">
-        <v>1269900</v>
+        <v>839000</v>
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
+          <t>https://ac-pegas.ru/auto/lada/vesta/sport</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
+        <v>855810</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-696241181211-lada-vesta-sport</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -12601,64 +12603,46 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sportline</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>499000</v>
+        <v>1269900</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/xray/suv</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>499000</t>
-        </is>
-      </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/lada/xray/</t>
+          <t>https://ac-pegas.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
         </is>
       </c>
       <c r="H252" t="n">
-        <v>1029900</v>
+        <v>1952900</v>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/xray/</t>
+          <t>https://car-krasnodar.ru/cars/lada/vesta_sportline/</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>506900</v>
+        <v>1375900</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/xray</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-sportline</t>
         </is>
       </c>
       <c r="L252" t="n">
-        <v>499000</v>
+        <v>1269900</v>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/xray/suv</t>
-        </is>
-      </c>
-      <c r="N252" t="n">
-        <v>545900</v>
-      </c>
-      <c r="O252" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-723135507441-lada-xray</t>
+          <t>https://ac-pegas.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -12668,64 +12652,64 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>591900</v>
+        <v>499000</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-598041051631-lada-xray-cross</t>
+          <t>https://ac-pegas.ru/auto/lada/xray/suv</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>591900</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lada/xray_cross/</t>
+          <t>https://krd93-auto.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="H253" t="n">
-        <v>1111900</v>
+        <v>1029900</v>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/xray_cross/</t>
+          <t>https://car-krasnodar.ru/cars/lada/xray/</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>624000</v>
+        <v>506900</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/xray-cross</t>
+          <t>https://avangard-yug.ru/auto/lada/xray</t>
         </is>
       </c>
       <c r="L253" t="n">
-        <v>619000</v>
+        <v>499000</v>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/xray/xray-cross</t>
+          <t>https://ac-pegas.ru/auto/lada/xray/suv</t>
         </is>
       </c>
       <c r="N253" t="n">
-        <v>591900</v>
+        <v>545900</v>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-598041051631-lada-xray-cross</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-723135507441-lada-xray</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -12735,33 +12719,57 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Фургон New</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>541610</v>
+        <v>591900</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-296668873651-lada-novii-largus-furgon</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-598041051631-lada-xray-cross</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>541610</t>
+          <t>591900</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lada/largus_furgon/</t>
+          <t>https://krd93-auto.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+      <c r="H254" t="n">
+        <v>1111900</v>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/lada/xray_cross/</t>
+        </is>
+      </c>
+      <c r="J254" t="n">
+        <v>624000</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/lada/xray-cross</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>619000</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/lada/xray/xray-cross</t>
         </is>
       </c>
       <c r="N254" t="n">
-        <v>541610</v>
+        <v>591900</v>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-296668873651-lada-novii-largus-furgon</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-598041051631-lada-xray-cross</t>
         </is>
       </c>
     </row>

--- a/xlsx/krasnodar.xlsx
+++ b/xlsx/krasnodar.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q374"/>
+  <dimension ref="A1:Q375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10613,21 +10613,11 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>419000</v>
+        <v>422500</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/granta-drive-active/granta-drive-active</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>419000</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/lada/granta_drive_active/</t>
+          <t>https://avangard-yug.ru/auto/lada/granta-drive-active</t>
         </is>
       </c>
       <c r="J212" t="n">
@@ -10638,22 +10628,6 @@
           <t>https://avangard-yug.ru/auto/lada/granta-drive-active</t>
         </is>
       </c>
-      <c r="L212" t="n">
-        <v>419000</v>
-      </c>
-      <c r="M212" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/lada/granta-drive-active/granta-drive-active</t>
-        </is>
-      </c>
-      <c r="N212" t="n">
-        <v>520900</v>
-      </c>
-      <c r="O212" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-663237493071-lada-granta-drive-active</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -10934,7 +10908,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -10944,38 +10918,48 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Granta Sedan New</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>372500</v>
+        <v>419000</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta</t>
-        </is>
-      </c>
-      <c r="H219" t="n">
-        <v>849900</v>
-      </c>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/lada/granta_sd/</t>
-        </is>
-      </c>
-      <c r="J219" t="n">
-        <v>372500</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/lada/granta</t>
+          <t>https://ac-pegas.ru/auto/lada/granta-drive-active/granta-drive-active</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>419000</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/lada/granta_drive_active/</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>419000</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/lada/granta-drive-active/granta-drive-active</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>520900</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-663237493071-lada-granta-drive-active</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -10985,30 +10969,38 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Granta Sport Drive Active Liftback</t>
+          <t>Granta Sedan New</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>609900</v>
+        <v>372500</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/granta-sport/drive-active-liftback-1gen-rest</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>609900</v>
-      </c>
-      <c r="M220" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/lada/granta-sport/drive-active-liftback-1gen-rest</t>
+          <t>https://avangard-yug.ru/auto/lada/granta</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>849900</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/lada/granta_sd/</t>
+        </is>
+      </c>
+      <c r="J220" t="n">
+        <v>372500</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/lada/granta</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -11018,30 +11010,30 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Granta Sport Liftback</t>
+          <t>Granta Sport Drive Active Liftback</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>583900</v>
+        <v>609900</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/granta-sport/liftback-1gen-rest</t>
+          <t>https://ac-pegas.ru/auto/lada/granta-sport/drive-active-liftback-1gen-rest</t>
         </is>
       </c>
       <c r="L221" t="n">
-        <v>583900</v>
+        <v>609900</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/granta-sport/liftback-1gen-rest</t>
+          <t>https://ac-pegas.ru/auto/lada/granta-sport/drive-active-liftback-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -11051,30 +11043,30 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Granta Sport Sedan</t>
+          <t>Granta Sport Liftback</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>569900</v>
+        <v>583900</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/granta-sport/sedan-1gen-rest</t>
+          <t>https://ac-pegas.ru/auto/lada/granta-sport/liftback-1gen-rest</t>
         </is>
       </c>
       <c r="L222" t="n">
-        <v>569900</v>
+        <v>583900</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/granta-sport/sedan-1gen-rest</t>
+          <t>https://ac-pegas.ru/auto/lada/granta-sport/liftback-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -11084,56 +11076,30 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sport Sedan</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>376800</v>
+        <v>569900</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/new-granta/wagon</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>376800</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/lada/granta_universal/</t>
-        </is>
-      </c>
-      <c r="H223" t="n">
-        <v>878900</v>
-      </c>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/lada/granta_sw/</t>
+          <t>https://ac-pegas.ru/auto/lada/granta-sport/sedan-1gen-rest</t>
         </is>
       </c>
       <c r="L223" t="n">
-        <v>376800</v>
+        <v>569900</v>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/new-granta/wagon</t>
-        </is>
-      </c>
-      <c r="N223" t="n">
-        <v>382810</v>
-      </c>
-      <c r="O223" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-651754559111-lada-granta-universal</t>
+          <t>https://ac-pegas.ru/auto/lada/granta-sport/sedan-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -11143,30 +11109,56 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Granta Universal New</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>384300</v>
+        <v>376800</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-universal</t>
-        </is>
-      </c>
-      <c r="J224" t="n">
-        <v>384300</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-universal</t>
+          <t>https://ac-pegas.ru/auto/lada/new-granta/wagon</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>376800</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>878900</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/lada/granta_sw/</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>376800</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/lada/new-granta/wagon</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>382810</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-651754559111-lada-granta-universal</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -11176,38 +11168,30 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Universal New</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>501000</v>
+        <v>384300</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/largus/wa</t>
+          <t>https://avangard-yug.ru/auto/lada/granta-universal</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>504000</v>
+        <v>384300</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/largus_wagon-5</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>501000</v>
-      </c>
-      <c r="M225" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/lada/largus/wa</t>
+          <t>https://avangard-yug.ru/auto/lada/granta-universal</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -11217,30 +11201,38 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Largus 7 мест</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>580000</v>
+        <v>501000</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/largus_wagon-7</t>
+          <t>https://ac-pegas.ru/auto/lada/largus/wa</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>580000</v>
+        <v>504000</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/largus_wagon-7</t>
+          <t>https://avangard-yug.ru/auto/lada/largus_wagon-5</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>501000</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/lada/largus/wa</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -11250,38 +11242,30 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Largus 7 мест</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>629000</v>
+        <v>580000</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/largus/wag%20rest1</t>
+          <t>https://avangard-yug.ru/auto/lada/largus_wagon-7</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>727000</v>
+        <v>580000</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/largus-cross</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>629000</v>
-      </c>
-      <c r="M227" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/lada/largus/wag%20rest1</t>
+          <t>https://avangard-yug.ru/auto/lada/largus_wagon-7</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -11291,30 +11275,38 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Largus Cross 7 мест</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>767000</v>
+        <v>629000</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/largus-cross7</t>
+          <t>https://ac-pegas.ru/auto/lada/largus/wag%20rest1</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>767000</v>
+        <v>727000</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/largus-cross7</t>
+          <t>https://avangard-yug.ru/auto/lada/largus-cross</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>629000</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/lada/largus/wag%20rest1</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -11324,48 +11316,30 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Largus Cross 7 мест</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>629000</v>
+        <v>767000</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lada/largus_cross/</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>629000</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/lada/largus_cross/</t>
-        </is>
-      </c>
-      <c r="H229" t="n">
-        <v>1314900</v>
-      </c>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/lada/largus_cross_new_5/</t>
-        </is>
-      </c>
-      <c r="N229" t="n">
-        <v>699310</v>
-      </c>
-      <c r="O229" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-261449813031-lada-novii-largus-cross</t>
+          <t>https://avangard-yug.ru/auto/lada/largus-cross7</t>
+        </is>
+      </c>
+      <c r="J229" t="n">
+        <v>767000</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/lada/largus-cross7</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -11375,30 +11349,48 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Largus Cross New 7 мест</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>1341900</v>
+        <v>629000</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/largus_cross_new_7/</t>
+          <t>https://krd93-auto.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>629000</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="H230" t="n">
-        <v>1341900</v>
+        <v>1314900</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/largus_cross_new_7/</t>
+          <t>https://car-krasnodar.ru/cars/lada/largus_cross_new_5/</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>699310</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-261449813031-lada-novii-largus-cross</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -11408,48 +11400,30 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Cross New 7 мест</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>501000</v>
+        <v>1341900</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lada/largus/</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>501000</t>
-        </is>
-      </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/lada/largus/</t>
+          <t>https://car-krasnodar.ru/cars/lada/largus_cross_new_7/</t>
         </is>
       </c>
       <c r="H231" t="n">
-        <v>1174900</v>
+        <v>1341900</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/largus_new_5/</t>
-        </is>
-      </c>
-      <c r="N231" t="n">
-        <v>540310</v>
-      </c>
-      <c r="O231" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-921337215121-lada-novii-largus</t>
+          <t>https://car-krasnodar.ru/cars/lada/largus_cross_new_7/</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -11459,30 +11433,48 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Largus New 7 мест</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1201900</v>
+        <v>501000</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/largus_new_7/</t>
+          <t>https://krd93-auto.ru/auto/lada/largus/</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>501000</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="H232" t="n">
-        <v>1201900</v>
+        <v>1174900</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/largus_new_7/</t>
+          <t>https://car-krasnodar.ru/cars/lada/largus_new_5/</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
+        <v>540310</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-921337215121-lada-novii-largus</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -11492,46 +11484,30 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Largus New 7 мест</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>729000</v>
+        <v>1201900</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/largus/van%20rest</t>
+          <t>https://car-krasnodar.ru/cars/lada/largus_new_7/</t>
         </is>
       </c>
       <c r="H233" t="n">
-        <v>1063900</v>
+        <v>1201900</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/largus_furgon/</t>
-        </is>
-      </c>
-      <c r="J233" t="n">
-        <v>790000</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/lada/largus-furgon</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>729000</v>
-      </c>
-      <c r="M233" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/lada/largus/van%20rest</t>
+          <t>https://car-krasnodar.ru/cars/lada/largus_new_7/</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -11541,40 +11517,46 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>541610</v>
+        <v>729000</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-296668873651-lada-novii-largus-furgon</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>541610</t>
-        </is>
-      </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/lada/largus_furgon/</t>
-        </is>
-      </c>
-      <c r="N234" t="n">
-        <v>541610</v>
-      </c>
-      <c r="O234" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-296668873651-lada-novii-largus-furgon</t>
+          <t>https://ac-pegas.ru/auto/lada/largus/van%20rest</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>1063900</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/lada/largus_furgon/</t>
+        </is>
+      </c>
+      <c r="J234" t="n">
+        <v>790000</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/lada/largus-furgon</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>729000</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/lada/largus/van%20rest</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -11584,30 +11566,40 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>587000</v>
+        <v>541610</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-4x4</t>
-        </is>
-      </c>
-      <c r="J235" t="n">
-        <v>587000</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-4x4</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-296668873651-lada-novii-largus-furgon</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>541610</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/lada/largus_furgon/</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
+        <v>541610</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-296668873651-lada-novii-largus-furgon</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -11617,54 +11609,30 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>451710</v>
+        <v>587000</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-392526322201-lada-niva-legend-3-dv</t>
-        </is>
-      </c>
-      <c r="H236" t="n">
-        <v>949900</v>
-      </c>
-      <c r="I236" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/lada/niva_legend_3d/</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-4x4</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>618900</v>
+        <v>587000</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-legend-3d</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>539000</v>
-      </c>
-      <c r="M236" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/lada/niva-legend/suv</t>
-        </is>
-      </c>
-      <c r="N236" t="n">
-        <v>451710</v>
-      </c>
-      <c r="O236" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-392526322201-lada-niva-legend-3-dv</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-4x4</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -11674,54 +11642,54 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>490410</v>
+        <v>451710</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-971159127651-lada-niva-legend-5-dv</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-392526322201-lada-niva-legend-3-dv</t>
         </is>
       </c>
       <c r="H237" t="n">
-        <v>994900</v>
+        <v>949900</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/niva_legend_5d/</t>
+          <t>https://car-krasnodar.ru/cars/lada/niva_legend_3d/</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>688900</v>
+        <v>618900</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-legend-5d</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-legend-3d</t>
         </is>
       </c>
       <c r="L237" t="n">
-        <v>579000</v>
+        <v>539000</v>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/niva-legend/cuv</t>
+          <t>https://ac-pegas.ru/auto/lada/niva-legend/suv</t>
         </is>
       </c>
       <c r="N237" t="n">
-        <v>490410</v>
+        <v>451710</v>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-971159127651-lada-niva-legend-5-dv</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-392526322201-lada-niva-legend-3-dv</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -11731,38 +11699,54 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Niva Legend Bronto</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>689900</v>
+        <v>490410</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/niva-legend/suv_3d</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-971159127651-lada-niva-legend-5-dv</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>994900</v>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/lada/niva_legend_5d/</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>917900</v>
+        <v>688900</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-legend_bronto-3d-1gen-rest</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-legend-5d</t>
         </is>
       </c>
       <c r="L238" t="n">
-        <v>689900</v>
+        <v>579000</v>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/niva-legend/suv_3d</t>
+          <t>https://ac-pegas.ru/auto/lada/niva-legend/cuv</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>490410</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-971159127651-lada-niva-legend-5-dv</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -11772,30 +11756,38 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend Bronto</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>669000</v>
+        <v>689900</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-offroad</t>
+          <t>https://ac-pegas.ru/auto/lada/niva-legend/suv_3d</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>669000</v>
+        <v>917900</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-offroad</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-legend_bronto-3d-1gen-rest</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>689900</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/lada/niva-legend/suv_3d</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -11805,64 +11797,30 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>549000</v>
+        <v>669000</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/niva-travel/suv</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>549000</t>
-        </is>
-      </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/lada/niva_travel/</t>
-        </is>
-      </c>
-      <c r="H240" t="n">
-        <v>1097900</v>
-      </c>
-      <c r="I240" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/lada/niva-travel/</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-offroad</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>557000</v>
+        <v>669000</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-travel</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>549000</v>
-      </c>
-      <c r="M240" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/lada/niva-travel/suv</t>
-        </is>
-      </c>
-      <c r="N240" t="n">
-        <v>617100</v>
-      </c>
-      <c r="O240" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-806839628991-lada-niva-travel</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-offroad</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -11872,30 +11830,64 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Niva Urban 3 двери</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>515000</v>
+        <v>549000</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-urban-3d</t>
+          <t>https://ac-pegas.ru/auto/lada/niva-travel/suv</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>549000</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/lada/niva_travel/</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>1097900</v>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/lada/niva-travel/</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>515000</v>
+        <v>557000</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-urban-3d</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-travel</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>549000</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/lada/niva-travel/suv</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
+        <v>617100</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-806839628991-lada-niva-travel</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -11905,30 +11897,30 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Niva Urban 5 дверей</t>
+          <t>Niva Urban 3 двери</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>553000</v>
+        <v>515000</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-urban-5d</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-urban-3d</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>553000</v>
+        <v>515000</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-urban-5d</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-urban-3d</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -11938,56 +11930,30 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Urban 5 дверей</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>569000</v>
+        <v>553000</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/vesta/cross</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>569000</t>
-        </is>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/lada/vesta_cross_1/</t>
-        </is>
-      </c>
-      <c r="H243" t="n">
-        <v>1162900</v>
-      </c>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/lada/vesta_cross/</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-urban-5d</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>869900</v>
+        <v>553000</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-cross</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>569000</v>
-      </c>
-      <c r="M243" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/lada/vesta/cross</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-urban-5d</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -11997,48 +11963,56 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>619000</v>
+        <v>569000</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lada/vesta_cross/</t>
+          <t>https://ac-pegas.ru/auto/lada/vesta/cross</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lada/vesta_cross/</t>
+          <t>https://krd93-auto.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="H244" t="n">
-        <v>1704900</v>
+        <v>1162900</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/vesta_cross_new/</t>
+          <t>https://car-krasnodar.ru/cars/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>1039900</v>
+        <v>869900</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/Vesta-new_cross</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-cross</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>569000</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/lada/vesta/cross</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -12048,64 +12022,48 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>559000</v>
+        <v>619000</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/vesta/sw</t>
+          <t>https://krd93-auto.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>559000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://krd93-auto.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="H245" t="n">
-        <v>1140900</v>
+        <v>1704900</v>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/vesta_sw/</t>
+          <t>https://car-krasnodar.ru/cars/lada/vesta_cross_new/</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>813900</v>
+        <v>1039900</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-sw</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>559000</v>
-      </c>
-      <c r="M245" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/lada/vesta/sw</t>
-        </is>
-      </c>
-      <c r="N245" t="n">
-        <v>597010</v>
-      </c>
-      <c r="O245" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-825520861011-lada-vesta-sw</t>
+          <t>https://avangard-yug.ru/auto/lada/Vesta-new_cross</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -12115,64 +12073,64 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>619000</v>
+        <v>559000</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/vesta/sw-cross</t>
+          <t>https://ac-pegas.ru/auto/lada/vesta/sw</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>559000</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://krd93-auto.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="H246" t="n">
-        <v>1255900</v>
+        <v>1140900</v>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/vesta_sw_cross/</t>
+          <t>https://car-krasnodar.ru/cars/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>928900</v>
+        <v>813900</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-sw-cross</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-sw</t>
         </is>
       </c>
       <c r="L246" t="n">
-        <v>619000</v>
+        <v>559000</v>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/vesta/sw-cross</t>
+          <t>https://ac-pegas.ru/auto/lada/vesta/sw</t>
         </is>
       </c>
       <c r="N246" t="n">
-        <v>693310</v>
+        <v>597010</v>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-361210199191-lada-vesta-sw-cross</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-825520861011-lada-vesta-sw</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -12182,48 +12140,64 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>669000</v>
+        <v>619000</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://ac-pegas.ru/auto/lada/vesta/sw-cross</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>669000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://krd93-auto.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="H247" t="n">
-        <v>1404900</v>
+        <v>1255900</v>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/vesta_sw_cross_new/</t>
+          <t>https://car-krasnodar.ru/cars/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>1069900</v>
+        <v>928900</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vestaswcrossnew_vestaswcrossnew</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-sw-cross</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>619000</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/lada/vesta/sw-cross</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
+        <v>693310</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-361210199191-lada-vesta-sw-cross</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -12233,48 +12207,48 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>609000</v>
+        <v>669000</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lada/vesta_sw/</t>
+          <t>https://krd93-auto.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>609000</t>
+          <t>669000</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lada/vesta_sw/</t>
+          <t>https://krd93-auto.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="H248" t="n">
-        <v>1317900</v>
+        <v>1404900</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/vesta_sw_new/</t>
+          <t>https://car-krasnodar.ru/cars/lada/vesta_sw_cross_new/</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>999900</v>
+        <v>1069900</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vestaswnew_vestaswnew</t>
+          <t>https://avangard-yug.ru/auto/lada/vestaswcrossnew_vestaswcrossnew</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -12284,64 +12258,48 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>519000</v>
+        <v>609000</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/vesta/sedan</t>
+          <t>https://krd93-auto.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>519000</t>
+          <t>609000</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lada/vesta_1/</t>
+          <t>https://krd93-auto.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="H249" t="n">
-        <v>1053900</v>
+        <v>1317900</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/vesta/</t>
+          <t>https://car-krasnodar.ru/cars/lada/vesta_sw_new/</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>721900</v>
+        <v>999900</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>519000</v>
-      </c>
-      <c r="M249" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/lada/vesta/sedan</t>
-        </is>
-      </c>
-      <c r="N249" t="n">
-        <v>524110</v>
-      </c>
-      <c r="O249" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-958313462721-lada-vesta</t>
+          <t>https://avangard-yug.ru/auto/lada/vestaswnew_vestaswnew</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -12351,64 +12309,64 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>639900</v>
+        <v>519000</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-811977189801-lada-vesta-cng</t>
+          <t>https://ac-pegas.ru/auto/lada/vesta/sedan</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>639900</t>
+          <t>519000</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lada/vesta_cng/</t>
+          <t>https://krd93-auto.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="H250" t="n">
-        <v>1253900</v>
+        <v>1053900</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/vesta_cng/</t>
+          <t>https://car-krasnodar.ru/cars/lada/vesta/</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>1166900</v>
+        <v>721900</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-cng</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta</t>
         </is>
       </c>
       <c r="L250" t="n">
-        <v>809000</v>
+        <v>519000</v>
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/vesta/cng</t>
+          <t>https://ac-pegas.ru/auto/lada/vesta/sedan</t>
         </is>
       </c>
       <c r="N250" t="n">
-        <v>639900</v>
+        <v>524110</v>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-811977189801-lada-vesta-cng</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-958313462721-lada-vesta</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -12418,48 +12376,64 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>569000</v>
+        <v>639900</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lada/vesta/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-811977189801-lada-vesta-cng</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>639900</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lada/vesta/</t>
+          <t>https://krd93-auto.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="H251" t="n">
-        <v>1240900</v>
+        <v>1253900</v>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/vesta_new/</t>
+          <t>https://car-krasnodar.ru/cars/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>899900</v>
+        <v>1166900</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/Vesta-new_SEDAN</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-cng</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>809000</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/lada/vesta/cng</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
+        <v>639900</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-811977189801-lada-vesta-cng</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -12469,54 +12443,48 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>839000</v>
+        <v>569000</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/vesta/sport</t>
+          <t>https://krd93-auto.ru/auto/lada/vesta/</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>569000</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="H252" t="n">
-        <v>1459900</v>
+        <v>1240900</v>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/vesta-sport/</t>
+          <t>https://car-krasnodar.ru/cars/lada/vesta_new/</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>1297900</v>
+        <v>899900</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-sport</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>839000</v>
-      </c>
-      <c r="M252" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/lada/vesta/sport</t>
-        </is>
-      </c>
-      <c r="N252" t="n">
-        <v>855810</v>
-      </c>
-      <c r="O252" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-696241181211-lada-vesta-sport</t>
+          <t>https://avangard-yug.ru/auto/lada/Vesta-new_SEDAN</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -12526,46 +12494,54 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Vesta Sportline</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>1269900</v>
+        <v>839000</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
+          <t>https://ac-pegas.ru/auto/lada/vesta/sport</t>
         </is>
       </c>
       <c r="H253" t="n">
-        <v>1952900</v>
+        <v>1459900</v>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/vesta_sportline/</t>
+          <t>https://car-krasnodar.ru/cars/lada/vesta-sport/</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>1375900</v>
+        <v>1297900</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-sportline</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-sport</t>
         </is>
       </c>
       <c r="L253" t="n">
-        <v>1269900</v>
+        <v>839000</v>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
+          <t>https://ac-pegas.ru/auto/lada/vesta/sport</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
+        <v>855810</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-696241181211-lada-vesta-sport</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -12575,64 +12551,46 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sportline</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>499000</v>
+        <v>1269900</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/xray/suv</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>499000</t>
-        </is>
-      </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/lada/xray/</t>
+          <t>https://ac-pegas.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
         </is>
       </c>
       <c r="H254" t="n">
-        <v>1029900</v>
+        <v>1952900</v>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/xray/</t>
+          <t>https://car-krasnodar.ru/cars/lada/vesta_sportline/</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>506900</v>
+        <v>1375900</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/xray</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-sportline</t>
         </is>
       </c>
       <c r="L254" t="n">
-        <v>499000</v>
+        <v>1269900</v>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/xray/suv</t>
-        </is>
-      </c>
-      <c r="N254" t="n">
-        <v>545900</v>
-      </c>
-      <c r="O254" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-723135507441-lada-xray</t>
+          <t>https://ac-pegas.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -12642,115 +12600,131 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>591900</v>
+        <v>499000</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-598041051631-lada-xray-cross</t>
+          <t>https://ac-pegas.ru/auto/lada/xray/suv</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>591900</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lada/xray_cross/</t>
+          <t>https://krd93-auto.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="H255" t="n">
-        <v>1111900</v>
+        <v>1029900</v>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/lada/xray_cross/</t>
+          <t>https://car-krasnodar.ru/cars/lada/xray/</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>624000</v>
+        <v>506900</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/xray-cross</t>
+          <t>https://avangard-yug.ru/auto/lada/xray</t>
         </is>
       </c>
       <c r="L255" t="n">
-        <v>619000</v>
+        <v>499000</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lada/xray/xray-cross</t>
+          <t>https://ac-pegas.ru/auto/lada/xray/suv</t>
         </is>
       </c>
       <c r="N255" t="n">
-        <v>591900</v>
+        <v>545900</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-598041051631-lada-xray-cross</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-723135507441-lada-xray</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>430000</v>
+        <v>591900</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lifan/murman/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-598041051631-lada-xray-cross</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>430000</t>
+          <t>591900</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lifan/murman/</t>
+          <t>https://krd93-auto.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+      <c r="H256" t="n">
+        <v>1111900</v>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/lada/xray_cross/</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>622000</v>
+        <v>624000</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/murman</t>
+          <t>https://avangard-yug.ru/auto/lada/xray-cross</t>
         </is>
       </c>
       <c r="L256" t="n">
-        <v>729900</v>
+        <v>619000</v>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lifan/murman/sedan</t>
+          <t>https://ac-pegas.ru/auto/lada/xray/xray-cross</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
+        <v>591900</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-598041051631-lada-xray-cross</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -12760,48 +12734,48 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>685000</v>
+        <v>430000</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/myway</t>
+          <t>https://krd93-auto.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>430000</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lifan/myway/</t>
+          <t>https://krd93-auto.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>685000</v>
+        <v>622000</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/myway</t>
+          <t>https://avangard-yug.ru/auto/lifan/murman</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>789900</v>
+        <v>729900</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lifan/myway/wagon</t>
+          <t>https://ac-pegas.ru/auto/lifan/murman/sedan</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -12811,48 +12785,48 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>439900</v>
+        <v>685000</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lifan/solano-2/sedan</t>
+          <t>https://avangard-yug.ru/auto/lifan/myway</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>439900</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lifan/solano_ii/</t>
+          <t>https://krd93-auto.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>496000</v>
+        <v>685000</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/solano</t>
+          <t>https://avangard-yug.ru/auto/lifan/myway</t>
         </is>
       </c>
       <c r="L258" t="n">
-        <v>439900</v>
+        <v>789900</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lifan/solano-2/sedan</t>
+          <t>https://ac-pegas.ru/auto/lifan/myway/wagon</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -12862,48 +12836,48 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>368000</v>
+        <v>439900</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lifan/x50/</t>
+          <t>https://ac-pegas.ru/auto/lifan/solano-2/sedan</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>368000</t>
+          <t>439900</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lifan/x50/</t>
+          <t>https://krd93-auto.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>464000</v>
+        <v>496000</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/x50</t>
+          <t>https://avangard-yug.ru/auto/lifan/solano</t>
         </is>
       </c>
       <c r="L259" t="n">
-        <v>459900</v>
+        <v>439900</v>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lifan/x50/cuv</t>
+          <t>https://ac-pegas.ru/auto/lifan/solano-2/sedan</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -12913,48 +12887,48 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>479900</v>
+        <v>368000</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lifan/x60/wagon</t>
+          <t>https://krd93-auto.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>479900</t>
+          <t>368000</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lifan/x60/</t>
+          <t>https://krd93-auto.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>654000</v>
+        <v>464000</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/x60</t>
+          <t>https://avangard-yug.ru/auto/lifan/x50</t>
         </is>
       </c>
       <c r="L260" t="n">
-        <v>479900</v>
+        <v>459900</v>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lifan/x60/wagon</t>
+          <t>https://ac-pegas.ru/auto/lifan/x50/cuv</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -12964,107 +12938,99 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>737000</v>
+        <v>479900</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/x70</t>
+          <t>https://ac-pegas.ru/auto/lifan/x60/wagon</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>737000</t>
+          <t>479900</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/lifan/x70/</t>
+          <t>https://krd93-auto.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>737000</v>
+        <v>654000</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/x70</t>
+          <t>https://avangard-yug.ru/auto/lifan/x60</t>
         </is>
       </c>
       <c r="L261" t="n">
-        <v>869000</v>
+        <v>479900</v>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/lifan/x70/cuv</t>
+          <t>https://ac-pegas.ru/auto/lifan/x60/wagon</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>1749900</v>
+        <v>737000</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/livan/s6pro_sedan-1gen</t>
+          <t>https://avangard-yug.ru/auto/lifan/x70</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>1749900</t>
+          <t>737000</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/livan/s6pro/</t>
-        </is>
-      </c>
-      <c r="H262" t="n">
-        <v>2211900</v>
-      </c>
-      <c r="I262" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/livan/s6_pro/</t>
+          <t>https://krd93-auto.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>1749900</v>
+        <v>737000</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/livan/s6pro_sedan-1gen</t>
+          <t>https://avangard-yug.ru/auto/lifan/x70</t>
         </is>
       </c>
       <c r="L262" t="n">
-        <v>2059900</v>
+        <v>869000</v>
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/livan/s6pro/sedan-1gen</t>
+          <t>https://ac-pegas.ru/auto/lifan/x70/cuv</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -13074,64 +13040,56 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>1186930</v>
+        <v>1749900</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-964446905451-livan-x3-pro</t>
+          <t>https://avangard-yug.ru/auto/livan/s6pro_sedan-1gen</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>1279900</t>
+          <t>1749900</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/livan/x3pro/</t>
+          <t>https://krd93-auto.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="H263" t="n">
-        <v>1759000</v>
+        <v>2211900</v>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/livan/x3_pro/</t>
+          <t>https://car-krasnodar.ru/cars/livan/s6_pro/</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>1279900</v>
+        <v>1749900</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/livan/x3pro</t>
+          <t>https://avangard-yug.ru/auto/livan/s6pro_sedan-1gen</t>
         </is>
       </c>
       <c r="L263" t="n">
-        <v>1389900</v>
+        <v>2059900</v>
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/livan/x3pro/suv</t>
-        </is>
-      </c>
-      <c r="N263" t="n">
-        <v>1186930</v>
-      </c>
-      <c r="O263" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-964446905451-livan-x3-pro</t>
+          <t>https://ac-pegas.ru/auto/livan/s6pro/sedan-1gen</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -13141,105 +13099,123 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>1829900</v>
+        <v>1186930</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/livan/x6pro_suv-1gen</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-964446905451-livan-x3-pro</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>1829900</t>
+          <t>1279900</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/livan/x6pro/</t>
+          <t>https://krd93-auto.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="H264" t="n">
-        <v>2272900</v>
+        <v>1759000</v>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/livan/x6_pro/</t>
+          <t>https://car-krasnodar.ru/cars/livan/x3_pro/</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>1829900</v>
+        <v>1279900</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/livan/x6pro_suv-1gen</t>
+          <t>https://avangard-yug.ru/auto/livan/x3pro</t>
         </is>
       </c>
       <c r="L264" t="n">
-        <v>2139900</v>
+        <v>1389900</v>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/livan/x6pro/suv-1gen</t>
+          <t>https://ac-pegas.ru/auto/livan/x3pro/suv</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
+        <v>1186930</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-964446905451-livan-x3-pro</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1679000</v>
+        <v>1829900</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mg/5/sedan</t>
+          <t>https://avangard-yug.ru/auto/livan/x6pro_suv-1gen</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>1829900</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="H265" t="n">
-        <v>1869000</v>
+        <v>2272900</v>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/mg/5/</t>
+          <t>https://car-krasnodar.ru/cars/livan/x6_pro/</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>1930000</v>
+        <v>1829900</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/mg/5_sedan-2gen</t>
+          <t>https://avangard-yug.ru/auto/livan/x6pro_suv-1gen</t>
         </is>
       </c>
       <c r="L265" t="n">
-        <v>1679000</v>
+        <v>2139900</v>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mg/5/sedan</t>
+          <t>https://ac-pegas.ru/auto/livan/x6pro/suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -13249,46 +13225,46 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>889000</v>
+        <v>1679000</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mg/6/liftback</t>
+          <t>https://ac-pegas.ru/auto/mg/5/sedan</t>
         </is>
       </c>
       <c r="H266" t="n">
-        <v>2099000</v>
+        <v>1869000</v>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/mg/6/</t>
+          <t>https://car-krasnodar.ru/cars/mg/5/</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>1070000</v>
+        <v>1930000</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/mg/6_liftback-2gen-rest</t>
+          <t>https://avangard-yug.ru/auto/mg/5_sedan-2gen</t>
         </is>
       </c>
       <c r="L266" t="n">
-        <v>889000</v>
+        <v>1679000</v>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mg/6/liftback</t>
+          <t>https://ac-pegas.ru/auto/mg/5/sedan</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -13298,46 +13274,46 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>2309000</v>
+        <v>889000</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/mg/hs/</t>
+          <t>https://ac-pegas.ru/auto/mg/6/liftback</t>
         </is>
       </c>
       <c r="H267" t="n">
-        <v>2309000</v>
+        <v>2099000</v>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/mg/hs/</t>
+          <t>https://car-krasnodar.ru/cars/mg/6/</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>2850000</v>
+        <v>1070000</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/mg/hs_suv_5d-1gen</t>
+          <t>https://avangard-yug.ru/auto/mg/6_liftback-2gen-rest</t>
         </is>
       </c>
       <c r="L267" t="n">
-        <v>2319000</v>
+        <v>889000</v>
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mg/hs/suv_5d</t>
+          <t>https://ac-pegas.ru/auto/mg/6/liftback</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -13347,79 +13323,95 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1790000</v>
+        <v>2309000</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mg/zs/cuv-2gen-rest</t>
+          <t>https://car-krasnodar.ru/cars/mg/hs/</t>
         </is>
       </c>
       <c r="H268" t="n">
-        <v>1889000</v>
+        <v>2309000</v>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/mg/zs/</t>
+          <t>https://car-krasnodar.ru/cars/mg/hs/</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>1980000</v>
+        <v>2850000</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/mg/zs_cuv-2gen-rest</t>
+          <t>https://avangard-yug.ru/auto/mg/hs_suv_5d-1gen</t>
         </is>
       </c>
       <c r="L268" t="n">
-        <v>1790000</v>
+        <v>2319000</v>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mg/zs/cuv-2gen-rest</t>
+          <t>https://ac-pegas.ru/auto/mg/hs/suv_5d</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>1828000</v>
+        <v>1790000</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/mazda/6/</t>
+          <t>https://ac-pegas.ru/auto/mg/zs/cuv-2gen-rest</t>
         </is>
       </c>
       <c r="H269" t="n">
-        <v>1828000</v>
+        <v>1889000</v>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/mazda/6/</t>
+          <t>https://car-krasnodar.ru/cars/mg/zs/</t>
+        </is>
+      </c>
+      <c r="J269" t="n">
+        <v>1980000</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/mg/zs_cuv-2gen-rest</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1790000</v>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/mg/zs/cuv-2gen-rest</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -13429,30 +13421,30 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>6 New</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>1536000</v>
+        <v>1828000</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mazda/new-6/2019</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1536000</v>
-      </c>
-      <c r="M270" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/mazda/new-6/2019</t>
+          <t>https://car-krasnodar.ru/cars/mazda/6/</t>
+        </is>
+      </c>
+      <c r="H270" t="n">
+        <v>1828000</v>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/mazda/6/</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>482</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -13462,30 +13454,30 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>CX-30</t>
+          <t>6 New</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>1650000</v>
+        <v>1536000</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mazda/cx-30/cuv</t>
+          <t>https://ac-pegas.ru/auto/mazda/new-6/2019</t>
         </is>
       </c>
       <c r="L271" t="n">
-        <v>1650000</v>
+        <v>1536000</v>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mazda/cx-30/cuv</t>
+          <t>https://ac-pegas.ru/auto/mazda/new-6/2019</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -13495,38 +13487,30 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>CX-5</t>
+          <t>CX-30</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>1588000</v>
+        <v>1650000</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mazda/cx5/cuv</t>
-        </is>
-      </c>
-      <c r="H272" t="n">
-        <v>1904000</v>
-      </c>
-      <c r="I272" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/mazda/cx-5/</t>
+          <t>https://ac-pegas.ru/auto/mazda/cx-30/cuv</t>
         </is>
       </c>
       <c r="L272" t="n">
-        <v>1588000</v>
+        <v>1650000</v>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mazda/cx5/cuv</t>
+          <t>https://ac-pegas.ru/auto/mazda/cx-30/cuv</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -13536,71 +13520,79 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>CX-9</t>
+          <t>CX-5</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>2528000</v>
+        <v>1588000</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mazda/cx9/cuv</t>
+          <t>https://ac-pegas.ru/auto/mazda/cx5/cuv</t>
         </is>
       </c>
       <c r="H273" t="n">
-        <v>3273000</v>
+        <v>1904000</v>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/mazda/cx-9/</t>
+          <t>https://car-krasnodar.ru/cars/mazda/cx-5/</t>
         </is>
       </c>
       <c r="L273" t="n">
-        <v>2528000</v>
+        <v>1588000</v>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mazda/cx9/cuv</t>
+          <t>https://ac-pegas.ru/auto/mazda/cx5/cuv</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>ASX New</t>
+          <t>CX-9</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>1422000</v>
+        <v>2528000</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mitsubishi/asx-new-2020/cuv</t>
+          <t>https://ac-pegas.ru/auto/mazda/cx9/cuv</t>
+        </is>
+      </c>
+      <c r="H274" t="n">
+        <v>3273000</v>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/mazda/cx-9/</t>
         </is>
       </c>
       <c r="L274" t="n">
-        <v>1422000</v>
+        <v>2528000</v>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mitsubishi/asx-new-2020/cuv</t>
+          <t>https://ac-pegas.ru/auto/mazda/cx9/cuv</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -13610,30 +13602,30 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>L200 New</t>
+          <t>ASX New</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>1989000</v>
+        <v>1422000</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mitsubishi/new-l200/2019</t>
+          <t>https://ac-pegas.ru/auto/mitsubishi/asx-new-2020/cuv</t>
         </is>
       </c>
       <c r="L275" t="n">
-        <v>1989000</v>
+        <v>1422000</v>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mitsubishi/new-l200/2019</t>
+          <t>https://ac-pegas.ru/auto/mitsubishi/asx-new-2020/cuv</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>501</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -13643,30 +13635,30 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>L200 New</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>1949000</v>
+        <v>1989000</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mitsubishi/outlander/outlander-7</t>
+          <t>https://ac-pegas.ru/auto/mitsubishi/new-l200/2019</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>1949000</v>
+        <v>1989000</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mitsubishi/outlander/outlander-7</t>
+          <t>https://ac-pegas.ru/auto/mitsubishi/new-l200/2019</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -13676,30 +13668,30 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Outlander New</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>2054000</v>
+        <v>1949000</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mitsubishi/outlander-new/suv</t>
+          <t>https://ac-pegas.ru/auto/mitsubishi/outlander/outlander-7</t>
         </is>
       </c>
       <c r="L277" t="n">
-        <v>2054000</v>
+        <v>1949000</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mitsubishi/outlander-new/suv</t>
+          <t>https://ac-pegas.ru/auto/mitsubishi/outlander/outlander-7</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -13709,89 +13701,63 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Pajero Sport New</t>
+          <t>Outlander New</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>2779000</v>
+        <v>2054000</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mitsubishi/pajero-sport-new/suv</t>
+          <t>https://ac-pegas.ru/auto/mitsubishi/outlander-new/suv</t>
         </is>
       </c>
       <c r="L278" t="n">
-        <v>2779000</v>
+        <v>2054000</v>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/mitsubishi/pajero-sport-new/suv</t>
+          <t>https://ac-pegas.ru/auto/mitsubishi/outlander-new/suv</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>507</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Pajero Sport New</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>960000</v>
+        <v>2779000</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/moskvich/3/</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>960000</t>
-        </is>
-      </c>
-      <c r="G279" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/moskvich/3/</t>
-        </is>
-      </c>
-      <c r="H279" t="n">
-        <v>1260000</v>
-      </c>
-      <c r="I279" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/moskvich/3/</t>
-        </is>
-      </c>
-      <c r="J279" t="n">
-        <v>1170000</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/moskvich/moskvich3_cuv</t>
+          <t>https://ac-pegas.ru/auto/mitsubishi/pajero-sport-new/suv</t>
         </is>
       </c>
       <c r="L279" t="n">
-        <v>1349000</v>
+        <v>2779000</v>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/moskvich/moskvich3/cuv</t>
+          <t>https://ac-pegas.ru/auto/mitsubishi/pajero-sport-new/suv</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -13801,40 +13767,56 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1629000</v>
+        <v>960000</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/moskvich/3e/suv-1gen</t>
+          <t>https://krd93-auto.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>3147000</t>
+          <t>960000</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/moskvich/3e/</t>
+          <t>https://krd93-auto.ru/auto/moskvich/3/</t>
+        </is>
+      </c>
+      <c r="H280" t="n">
+        <v>1260000</v>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/moskvich/3/</t>
+        </is>
+      </c>
+      <c r="J280" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/moskvich/moskvich3_cuv</t>
         </is>
       </c>
       <c r="L280" t="n">
-        <v>1629000</v>
+        <v>1349000</v>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/moskvich/3e/suv-1gen</t>
+          <t>https://ac-pegas.ru/auto/moskvich/moskvich3/cuv</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -13844,87 +13826,89 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1536000</v>
+        <v>1629000</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/moskvich/moskvich6_liftback-1gen</t>
-        </is>
-      </c>
-      <c r="H281" t="n">
-        <v>1666000</v>
-      </c>
-      <c r="I281" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/moskvich/6/</t>
-        </is>
-      </c>
-      <c r="J281" t="n">
-        <v>1536000</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/moskvich/moskvich6_liftback-1gen</t>
+          <t>https://ac-pegas.ru/auto/moskvich/3e/suv-1gen</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>3147000</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="L281" t="n">
-        <v>1846000</v>
+        <v>1629000</v>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/moskvich/moskvich6/liftback-1gen</t>
+          <t>https://ac-pegas.ru/auto/moskvich/3e/suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>2327000</v>
+        <v>1536000</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-571615590821-nissan-murano</t>
+          <t>https://avangard-yug.ru/auto/moskvich/moskvich6_liftback-1gen</t>
         </is>
       </c>
       <c r="H282" t="n">
-        <v>2890000</v>
+        <v>1666000</v>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/nissan/murano/</t>
-        </is>
-      </c>
-      <c r="N282" t="n">
-        <v>2327000</v>
-      </c>
-      <c r="O282" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-571615590821-nissan-murano</t>
+          <t>https://car-krasnodar.ru/cars/moskvich/6/</t>
+        </is>
+      </c>
+      <c r="J282" t="n">
+        <v>1536000</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/moskvich/moskvich6_liftback-1gen</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1846000</v>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/moskvich/moskvich6/liftback-1gen</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -13934,30 +13918,38 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Murano New</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>2049000</v>
+        <v>2327000</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/nissan/murano-2020/suv</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>2049000</v>
-      </c>
-      <c r="M283" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/nissan/murano-2020/suv</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-571615590821-nissan-murano</t>
+        </is>
+      </c>
+      <c r="H283" t="n">
+        <v>2890000</v>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/nissan/murano/</t>
+        </is>
+      </c>
+      <c r="N283" t="n">
+        <v>2327000</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-571615590821-nissan-murano</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -13967,56 +13959,30 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Murano New</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>790000</v>
+        <v>2049000</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/nissan/qashqai/</t>
-        </is>
-      </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>790000</t>
-        </is>
-      </c>
-      <c r="G284" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/nissan/qashqai/</t>
-        </is>
-      </c>
-      <c r="H284" t="n">
-        <v>1090000</v>
-      </c>
-      <c r="I284" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/nissan/qashqai_new/</t>
-        </is>
-      </c>
-      <c r="J284" t="n">
-        <v>1233000</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/nissan/qashqai</t>
-        </is>
-      </c>
-      <c r="N284" t="n">
-        <v>1233000</v>
-      </c>
-      <c r="O284" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-109622811471-nissan-qashqai</t>
+          <t>https://ac-pegas.ru/auto/nissan/murano-2020/suv</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>2049000</v>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/nissan/murano-2020/suv</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -14026,30 +13992,56 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Qashqai New</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>1127000</v>
+        <v>790000</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1127000</v>
-      </c>
-      <c r="M285" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
+          <t>https://krd93-auto.ru/auto/nissan/qashqai/</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>790000</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/nissan/qashqai/</t>
+        </is>
+      </c>
+      <c r="H285" t="n">
+        <v>1090000</v>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/nissan/qashqai_new/</t>
+        </is>
+      </c>
+      <c r="J285" t="n">
+        <v>1233000</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/nissan/qashqai</t>
+        </is>
+      </c>
+      <c r="N285" t="n">
+        <v>1233000</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-109622811471-nissan-qashqai</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>521</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -14059,48 +14051,30 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Qashqai New</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>619000</v>
+        <v>1127000</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/nissan/terrano/</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>619000</t>
-        </is>
-      </c>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/nissan/terrano/</t>
-        </is>
-      </c>
-      <c r="H286" t="n">
-        <v>990000</v>
-      </c>
-      <c r="I286" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/nissan/terrano/</t>
-        </is>
-      </c>
-      <c r="N286" t="n">
-        <v>959000</v>
-      </c>
-      <c r="O286" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-142879229821-nissan-terrano</t>
+          <t>https://ac-pegas.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1127000</v>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -14110,7 +14084,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Terrano New</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -14118,30 +14092,40 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/nissan/terrano-2020/suv</t>
-        </is>
-      </c>
-      <c r="J287" t="n">
-        <v>1098000</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/nissan/terrano-2020_suv</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>619000</v>
-      </c>
-      <c r="M287" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/nissan/terrano-2020/suv</t>
+          <t>https://krd93-auto.ru/auto/nissan/terrano/</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>619000</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/nissan/terrano/</t>
+        </is>
+      </c>
+      <c r="H287" t="n">
+        <v>990000</v>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/nissan/terrano/</t>
+        </is>
+      </c>
+      <c r="N287" t="n">
+        <v>959000</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-142879229821-nissan-terrano</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -14151,48 +14135,38 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Terrano New</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>855000</v>
+        <v>619000</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/nissan/x-trail/</t>
-        </is>
-      </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>855000</t>
-        </is>
-      </c>
-      <c r="G288" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/nissan/x-trail/</t>
+          <t>https://ac-pegas.ru/auto/nissan/terrano-2020/suv</t>
+        </is>
+      </c>
+      <c r="J288" t="n">
+        <v>1098000</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/nissan/terrano-2020_suv</t>
         </is>
       </c>
       <c r="L288" t="n">
-        <v>1489000</v>
+        <v>619000</v>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/nissan/newxtrail/newxtrail</t>
-        </is>
-      </c>
-      <c r="N288" t="n">
-        <v>1509000</v>
-      </c>
-      <c r="O288" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-934278828771-nissan-x-trail</t>
+          <t>https://ac-pegas.ru/auto/nissan/terrano-2020/suv</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -14202,113 +14176,97 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>X-trail New</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>1155000</v>
+        <v>855000</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/nissan/x_trail/</t>
-        </is>
-      </c>
-      <c r="H289" t="n">
-        <v>1155000</v>
-      </c>
-      <c r="I289" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/nissan/x_trail/</t>
-        </is>
-      </c>
-      <c r="J289" t="n">
-        <v>1501000</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/nissan/x-trail</t>
+          <t>https://krd93-auto.ru/auto/nissan/x-trail/</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>855000</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="L289" t="n">
-        <v>1869000</v>
+        <v>1489000</v>
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/nissan/newxtrail/suv-4gen</t>
+          <t>https://ac-pegas.ru/auto/nissan/newxtrail/newxtrail</t>
+        </is>
+      </c>
+      <c r="N289" t="n">
+        <v>1509000</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-934278828771-nissan-x-trail</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>X-trail New</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>1319900</v>
+        <v>1155000</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/omoda/c5/cuv</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>1319900</t>
-        </is>
-      </c>
-      <c r="G290" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/omoda/c5/</t>
+          <t>https://car-krasnodar.ru/cars/nissan/x_trail/</t>
         </is>
       </c>
       <c r="H290" t="n">
-        <v>1979900</v>
+        <v>1155000</v>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/omoda/c5/</t>
+          <t>https://car-krasnodar.ru/cars/nissan/x_trail/</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>1329900</v>
+        <v>1501000</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/omoda/c5</t>
+          <t>https://avangard-yug.ru/auto/nissan/x-trail</t>
         </is>
       </c>
       <c r="L290" t="n">
-        <v>1319900</v>
+        <v>1869000</v>
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/omoda/c5/cuv</t>
-        </is>
-      </c>
-      <c r="N290" t="n">
-        <v>1894900</v>
-      </c>
-      <c r="O290" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-856411361171-omoda-c5</t>
+          <t>https://ac-pegas.ru/auto/nissan/newxtrail/suv-4gen</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -14318,64 +14276,64 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>1409900</v>
+        <v>1319900</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/omoda/s5/</t>
+          <t>https://ac-pegas.ru/auto/omoda/c5/cuv</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>1409900</t>
+          <t>1319900</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/omoda/s5/</t>
+          <t>https://krd93-auto.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="H291" t="n">
-        <v>1709900</v>
+        <v>1979900</v>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/omoda/s5/</t>
+          <t>https://car-krasnodar.ru/cars/omoda/c5/</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>1459900</v>
+        <v>1329900</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/omoda/omoda-s5</t>
+          <t>https://avangard-yug.ru/auto/omoda/c5</t>
         </is>
       </c>
       <c r="L291" t="n">
-        <v>1469900</v>
+        <v>1319900</v>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/omoda/s5_/SEDAN</t>
+          <t>https://ac-pegas.ru/auto/omoda/c5/cuv</t>
         </is>
       </c>
       <c r="N291" t="n">
-        <v>1859900</v>
+        <v>1894900</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-226703406341-omoda-s5</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-856411361171-omoda-c5</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -14385,79 +14343,113 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>2039900</v>
+        <v>1409900</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/omoda/S5-GT_SEDAN</t>
+          <t>https://krd93-auto.ru/auto/omoda/s5/</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>1409900</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="H292" t="n">
-        <v>2169900</v>
+        <v>1709900</v>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/omoda/s5_gt/</t>
+          <t>https://car-krasnodar.ru/cars/omoda/s5/</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>2039900</v>
+        <v>1459900</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/omoda/S5-GT_SEDAN</t>
+          <t>https://avangard-yug.ru/auto/omoda/omoda-s5</t>
         </is>
       </c>
       <c r="L292" t="n">
-        <v>2839900</v>
+        <v>1469900</v>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/omoda/S5-GT/SEDAN</t>
+          <t>https://ac-pegas.ru/auto/omoda/s5_/SEDAN</t>
+        </is>
+      </c>
+      <c r="N292" t="n">
+        <v>1859900</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-226703406341-omoda-s5</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>2974000</v>
+        <v>2039900</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/oting/paladin/</t>
+          <t>https://avangard-yug.ru/auto/omoda/S5-GT_SEDAN</t>
         </is>
       </c>
       <c r="H293" t="n">
-        <v>2974000</v>
+        <v>2169900</v>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/oting/paladin/</t>
+          <t>https://car-krasnodar.ru/cars/omoda/s5_gt/</t>
+        </is>
+      </c>
+      <c r="J293" t="n">
+        <v>2039900</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/omoda/S5-GT_SEDAN</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>2839900</v>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/omoda/S5-GT/SEDAN</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -14467,63 +14459,63 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Paladin New</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>2549000</v>
+        <v>2974000</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/oting/paladin/suv-1gen</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>2549000</v>
-      </c>
-      <c r="M294" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/oting/paladin/suv-1gen</t>
+          <t>https://car-krasnodar.ru/cars/oting/paladin/</t>
+        </is>
+      </c>
+      <c r="H294" t="n">
+        <v>2974000</v>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/oting/paladin/</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>536</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Gentra</t>
+          <t>Paladin New</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>679000</v>
+        <v>2549000</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/ravon/gentra/</t>
-        </is>
-      </c>
-      <c r="H295" t="n">
-        <v>679000</v>
-      </c>
-      <c r="I295" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/ravon/gentra/</t>
+          <t>https://ac-pegas.ru/auto/oting/paladin/suv-1gen</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>2549000</v>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/oting/paladin/suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -14533,56 +14525,30 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>Gentra</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>339000</v>
+        <v>679000</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/ravon/nexia_r3/</t>
-        </is>
-      </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>339000</t>
-        </is>
-      </c>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/ravon/nexia_r3/</t>
+          <t>https://car-krasnodar.ru/cars/ravon/gentra/</t>
         </is>
       </c>
       <c r="H296" t="n">
-        <v>639000</v>
+        <v>679000</v>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/ravon/nexia_r3/</t>
-        </is>
-      </c>
-      <c r="J296" t="n">
-        <v>507000</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/ravon/nexia-r3</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>459000</v>
-      </c>
-      <c r="M296" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/ravon/nexia/sedan</t>
+          <t>https://car-krasnodar.ru/cars/ravon/gentra/</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -14592,7 +14558,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -14600,7 +14566,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/ravon/r2/</t>
+          <t>https://krd93-auto.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -14610,7 +14576,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/ravon/r2/</t>
+          <t>https://krd93-auto.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="H297" t="n">
@@ -14618,30 +14584,30 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/ravon/r2/</t>
+          <t>https://car-krasnodar.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>519000</v>
+        <v>507000</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/ravon/r2</t>
+          <t>https://avangard-yug.ru/auto/ravon/nexia-r3</t>
         </is>
       </c>
       <c r="L297" t="n">
-        <v>479000</v>
+        <v>459000</v>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/ravon/r2/hatchback</t>
+          <t>https://ac-pegas.ru/auto/ravon/nexia/sedan</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -14651,107 +14617,115 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>389000</v>
+        <v>339000</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/ravon/r4/</t>
+          <t>https://krd93-auto.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>389000</t>
+          <t>339000</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/ravon/r4/</t>
+          <t>https://krd93-auto.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="H298" t="n">
-        <v>689000</v>
+        <v>639000</v>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/ravon/r4/</t>
+          <t>https://car-krasnodar.ru/cars/ravon/r2/</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>570000</v>
+        <v>519000</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/ravon/r4</t>
+          <t>https://avangard-yug.ru/auto/ravon/r2</t>
         </is>
       </c>
       <c r="L298" t="n">
-        <v>513000</v>
+        <v>479000</v>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/ravon/r4/sedan</t>
+          <t>https://ac-pegas.ru/auto/ravon/r2/hatchback</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>690000</v>
+        <v>389000</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/renault/arkana/</t>
+          <t>https://krd93-auto.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>389000</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/renault/arkana/</t>
+          <t>https://krd93-auto.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="H299" t="n">
-        <v>990000</v>
+        <v>689000</v>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/renault/arkana/</t>
-        </is>
-      </c>
-      <c r="N299" t="n">
-        <v>938000</v>
-      </c>
-      <c r="O299" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-887215692741-renault-arkana</t>
+          <t>https://car-krasnodar.ru/cars/ravon/r4/</t>
+        </is>
+      </c>
+      <c r="J299" t="n">
+        <v>570000</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/ravon/r4</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>513000</v>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/ravon/r4/sedan</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -14761,38 +14735,48 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Arkana New</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>1009000</v>
+        <v>690000</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/renault/new-arkana/2019</t>
-        </is>
-      </c>
-      <c r="J300" t="n">
-        <v>1024000</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/renault/arkana</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1009000</v>
-      </c>
-      <c r="M300" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/renault/new-arkana/2019</t>
+          <t>https://krd93-auto.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>690000</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="H300" t="n">
+        <v>990000</v>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="N300" t="n">
+        <v>938000</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-887215692741-renault-arkana</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -14802,30 +14786,38 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Arkana New</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>770000</v>
+        <v>1009000</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-383385312281-renault-duster</t>
-        </is>
-      </c>
-      <c r="N301" t="n">
-        <v>770000</v>
-      </c>
-      <c r="O301" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-383385312281-renault-duster</t>
+          <t>https://ac-pegas.ru/auto/renault/new-arkana/2019</t>
+        </is>
+      </c>
+      <c r="J301" t="n">
+        <v>1024000</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/renault/arkana</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>1009000</v>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/renault/new-arkana/2019</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -14835,64 +14827,30 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>650000</v>
+        <v>770000</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/renault/duster/</t>
-        </is>
-      </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>650000</t>
-        </is>
-      </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/renault/duster/</t>
-        </is>
-      </c>
-      <c r="H302" t="n">
-        <v>950000</v>
-      </c>
-      <c r="I302" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/renault/duster_new/</t>
-        </is>
-      </c>
-      <c r="J302" t="n">
-        <v>765000</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/renault/duster</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>749000</v>
-      </c>
-      <c r="M302" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/renault/duster-new/cuv</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-383385312281-renault-duster</t>
         </is>
       </c>
       <c r="N302" t="n">
-        <v>768000</v>
+        <v>770000</v>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-631442336791-renault-novii-duster</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-383385312281-renault-duster</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -14902,48 +14860,64 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>659000</v>
+        <v>650000</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/renault/kaptur/</t>
+          <t>https://krd93-auto.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/renault/kaptur/</t>
+          <t>https://krd93-auto.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="H303" t="n">
-        <v>970000</v>
+        <v>950000</v>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/renault/kaptur/</t>
+          <t>https://car-krasnodar.ru/cars/renault/duster_new/</t>
+        </is>
+      </c>
+      <c r="J303" t="n">
+        <v>765000</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/renault/duster</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>749000</v>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/renault/duster-new/cuv</t>
         </is>
       </c>
       <c r="N303" t="n">
-        <v>963000</v>
+        <v>768000</v>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-499067990721-renault-kaptur</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-631442336791-renault-novii-duster</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -14953,7 +14927,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Kaptur New</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -14961,30 +14935,40 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/renault/kaptur-new/cuv</t>
-        </is>
-      </c>
-      <c r="J304" t="n">
-        <v>894000</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/renault/kaptur</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>659000</v>
-      </c>
-      <c r="M304" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/renault/kaptur-new/cuv</t>
+          <t>https://krd93-auto.ru/auto/renault/kaptur/</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>659000</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/renault/kaptur/</t>
+        </is>
+      </c>
+      <c r="H304" t="n">
+        <v>970000</v>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/renault/kaptur/</t>
+        </is>
+      </c>
+      <c r="N304" t="n">
+        <v>963000</v>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-499067990721-renault-kaptur</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -14994,48 +14978,38 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Koleos</t>
+          <t>Kaptur New</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1553000</v>
+        <v>659000</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/koleos</t>
-        </is>
-      </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>1553000</t>
-        </is>
-      </c>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/renault/koleos/</t>
+          <t>https://ac-pegas.ru/auto/renault/kaptur-new/cuv</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>1553000</v>
+        <v>894000</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/koleos</t>
-        </is>
-      </c>
-      <c r="N305" t="n">
-        <v>1561000</v>
-      </c>
-      <c r="O305" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-326133296231-renault-koleos</t>
+          <t>https://avangard-yug.ru/auto/renault/kaptur</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>659000</v>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/renault/kaptur-new/cuv</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -15045,48 +15019,48 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Koleos</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>490000</v>
+        <v>1553000</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/renault/logan/</t>
+          <t>https://avangard-yug.ru/auto/renault/koleos</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>490000</t>
+          <t>1553000</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/renault/logan/</t>
-        </is>
-      </c>
-      <c r="H306" t="n">
-        <v>790000</v>
-      </c>
-      <c r="I306" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/renault/logan/</t>
+          <t>https://krd93-auto.ru/auto/renault/koleos/</t>
+        </is>
+      </c>
+      <c r="J306" t="n">
+        <v>1553000</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/renault/koleos</t>
         </is>
       </c>
       <c r="N306" t="n">
-        <v>583000</v>
+        <v>1561000</v>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-833829508301-renault-logan</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-326133296231-renault-koleos</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -15096,38 +15070,48 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Logan New</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>569000</v>
+        <v>490000</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/renault/new-logan/new</t>
-        </is>
-      </c>
-      <c r="J307" t="n">
+          <t>https://krd93-auto.ru/auto/renault/logan/</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>490000</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/renault/logan/</t>
+        </is>
+      </c>
+      <c r="H307" t="n">
+        <v>790000</v>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/renault/logan/</t>
+        </is>
+      </c>
+      <c r="N307" t="n">
         <v>583000</v>
       </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/renault/logan</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>569000</v>
-      </c>
-      <c r="M307" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/renault/new-logan/new</t>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-833829508301-renault-logan</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -15137,64 +15121,38 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan New</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>530000</v>
+        <v>569000</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/renault/logan_stepway/</t>
-        </is>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>530000</t>
-        </is>
-      </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/renault/logan_stepway/</t>
-        </is>
-      </c>
-      <c r="H308" t="n">
-        <v>830000</v>
-      </c>
-      <c r="I308" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/renault/logan_stepway/</t>
+          <t>https://ac-pegas.ru/auto/renault/new-logan/new</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>708000</v>
+        <v>583000</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/logan-stepway</t>
+          <t>https://avangard-yug.ru/auto/renault/logan</t>
         </is>
       </c>
       <c r="L308" t="n">
-        <v>689000</v>
+        <v>569000</v>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/renault/logan-stepway/sedan</t>
-        </is>
-      </c>
-      <c r="N308" t="n">
-        <v>708000</v>
-      </c>
-      <c r="O308" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-237884719901-renault-logan-stepway</t>
+          <t>https://ac-pegas.ru/auto/renault/new-logan/new</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -15204,40 +15162,64 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>715000</v>
+        <v>530000</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://krd93-auto.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>715000</t>
+          <t>530000</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://krd93-auto.ru/auto/renault/logan_stepway/</t>
+        </is>
+      </c>
+      <c r="H309" t="n">
+        <v>830000</v>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/renault/logan_stepway/</t>
+        </is>
+      </c>
+      <c r="J309" t="n">
+        <v>708000</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/renault/logan-stepway</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>689000</v>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/renault/logan-stepway/sedan</t>
         </is>
       </c>
       <c r="N309" t="n">
-        <v>1110000</v>
+        <v>708000</v>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-812699225921-renault-logan-stepway-city</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-237884719901-renault-logan-stepway</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -15247,48 +15229,40 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>520000</v>
+        <v>715000</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/renault/sandero/</t>
+          <t>https://krd93-auto.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>715000</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/renault/sandero/</t>
-        </is>
-      </c>
-      <c r="H310" t="n">
-        <v>820000</v>
-      </c>
-      <c r="I310" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/renault/sandero/</t>
+          <t>https://krd93-auto.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="N310" t="n">
-        <v>593000</v>
+        <v>1110000</v>
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-749822540851-renault-sandero</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-812699225921-renault-logan-stepway-city</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -15298,38 +15272,48 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Sandero New</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>579000</v>
+        <v>520000</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/renault/new-sandero/new</t>
-        </is>
-      </c>
-      <c r="J311" t="n">
+          <t>https://krd93-auto.ru/auto/renault/sandero/</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>520000</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/renault/sandero/</t>
+        </is>
+      </c>
+      <c r="H311" t="n">
+        <v>820000</v>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/renault/sandero/</t>
+        </is>
+      </c>
+      <c r="N311" t="n">
         <v>593000</v>
       </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/renault/sandero</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>579000</v>
-      </c>
-      <c r="M311" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/renault/new-sandero/new</t>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-749822540851-renault-sandero</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -15339,48 +15323,38 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero New</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>550000</v>
+        <v>579000</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/renault/sandero_stepway/</t>
-        </is>
-      </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>550000</t>
-        </is>
-      </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/renault/sandero_stepway/</t>
-        </is>
-      </c>
-      <c r="H312" t="n">
-        <v>850000</v>
-      </c>
-      <c r="I312" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/renault/sandero_stepway/</t>
-        </is>
-      </c>
-      <c r="N312" t="n">
-        <v>753000</v>
-      </c>
-      <c r="O312" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-554863097871-renault-sandero-stepway</t>
+          <t>https://ac-pegas.ru/auto/renault/new-sandero/new</t>
+        </is>
+      </c>
+      <c r="J312" t="n">
+        <v>593000</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/renault/sandero</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>579000</v>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/renault/new-sandero/new</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -15390,38 +15364,48 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Sandero Stepway New</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>739000</v>
+        <v>550000</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/renault/new-sandero-stepway/stepway</t>
-        </is>
-      </c>
-      <c r="J313" t="n">
-        <v>751000</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/renault/sandero-stepway</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>739000</v>
-      </c>
-      <c r="M313" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/renault/new-sandero-stepway/stepway</t>
+          <t>https://krd93-auto.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>550000</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="H313" t="n">
+        <v>850000</v>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="N313" t="n">
+        <v>753000</v>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-554863097871-renault-sandero-stepway</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>564</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -15431,81 +15415,81 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Sandero Stepway New</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>1170000</v>
+        <v>739000</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-839853373971-renault-sandero-stepway-city</t>
-        </is>
-      </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>1170000</t>
-        </is>
-      </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/renault/sandero_stepway_city/</t>
-        </is>
-      </c>
-      <c r="N314" t="n">
-        <v>1170000</v>
-      </c>
-      <c r="O314" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-839853373971-renault-sandero-stepway-city</t>
+          <t>https://ac-pegas.ru/auto/renault/new-sandero-stepway/stepway</t>
+        </is>
+      </c>
+      <c r="J314" t="n">
+        <v>751000</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/renault/sandero-stepway</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>739000</v>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/renault/new-sandero-stepway/stepway</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>1748220</v>
+        <v>1170000</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/swm/g01/suv-1gen</t>
-        </is>
-      </c>
-      <c r="H315" t="n">
-        <v>2043000</v>
-      </c>
-      <c r="I315" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/swm/g01/</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1748220</v>
-      </c>
-      <c r="M315" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/swm/g01/suv-1gen</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-839853373971-renault-sandero-stepway-city</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>1170000</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/renault/sandero_stepway_city/</t>
+        </is>
+      </c>
+      <c r="N315" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-839853373971-renault-sandero-stepway-city</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -15515,38 +15499,38 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>1898340</v>
+        <v>1748220</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/swm/g01f/suv-1gen</t>
+          <t>https://ac-pegas.ru/auto/swm/g01/suv-1gen</t>
         </is>
       </c>
       <c r="H316" t="n">
-        <v>2255000</v>
+        <v>2043000</v>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/swm/g01f/</t>
+          <t>https://car-krasnodar.ru/cars/swm/g01/</t>
         </is>
       </c>
       <c r="L316" t="n">
-        <v>1898340</v>
+        <v>1748220</v>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/swm/g01f/suv-1gen</t>
+          <t>https://ac-pegas.ru/auto/swm/g01/suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -15556,105 +15540,79 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>1935960</v>
+        <v>1898340</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/swm/g05-pro/suv-1gen</t>
+          <t>https://ac-pegas.ru/auto/swm/g01f/suv-1gen</t>
         </is>
       </c>
       <c r="H317" t="n">
-        <v>2284000</v>
+        <v>2255000</v>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/swm/g05_pro/</t>
+          <t>https://car-krasnodar.ru/cars/swm/g01f/</t>
         </is>
       </c>
       <c r="L317" t="n">
-        <v>1935960</v>
+        <v>1898340</v>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/swm/g05-pro/suv-1gen</t>
+          <t>https://ac-pegas.ru/auto/swm/g01f/suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>740000</v>
+        <v>1935960</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/skoda/karoq/</t>
-        </is>
-      </c>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t>740000</t>
-        </is>
-      </c>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/skoda/karoq/</t>
+          <t>https://ac-pegas.ru/auto/swm/g05-pro/suv-1gen</t>
         </is>
       </c>
       <c r="H318" t="n">
-        <v>1040000</v>
+        <v>2284000</v>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/skoda/karoq/</t>
-        </is>
-      </c>
-      <c r="J318" t="n">
-        <v>1557000</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/skoda/karoq</t>
+          <t>https://car-krasnodar.ru/cars/swm/g05_pro/</t>
         </is>
       </c>
       <c r="L318" t="n">
-        <v>1282000</v>
+        <v>1935960</v>
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/skoda/karoq/karoq</t>
-        </is>
-      </c>
-      <c r="N318" t="n">
-        <v>1215000</v>
-      </c>
-      <c r="O318" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-244153322751-skoda-karoq</t>
+          <t>https://ac-pegas.ru/auto/swm/g05-pro/suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -15664,38 +15622,64 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>1230000</v>
+        <v>740000</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/skoda/kodiaq/</t>
+          <t>https://krd93-auto.ru/auto/skoda/karoq/</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>740000</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="H319" t="n">
-        <v>1230000</v>
+        <v>1040000</v>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/skoda/kodiaq/</t>
+          <t>https://car-krasnodar.ru/cars/skoda/karoq/</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>1662000</v>
+        <v>1557000</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/kodiaq-2020</t>
+          <t>https://avangard-yug.ru/auto/skoda/karoq</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1282000</v>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/skoda/karoq/karoq</t>
+        </is>
+      </c>
+      <c r="N319" t="n">
+        <v>1215000</v>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-244153322751-skoda-karoq</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -15705,40 +15689,38 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Kodiaq Hockey Edition</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>1581000</v>
+        <v>1230000</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-841708426781-skoda-kodiaq-hockey-edition</t>
-        </is>
-      </c>
-      <c r="F320" t="inlineStr">
-        <is>
-          <t>1581000</t>
-        </is>
-      </c>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/skoda/kodiaq_hockey_edition/</t>
-        </is>
-      </c>
-      <c r="N320" t="n">
-        <v>1581000</v>
-      </c>
-      <c r="O320" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-841708426781-skoda-kodiaq-hockey-edition</t>
+          <t>https://car-krasnodar.ru/cars/skoda/kodiaq/</t>
+        </is>
+      </c>
+      <c r="H320" t="n">
+        <v>1230000</v>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/skoda/kodiaq/</t>
+        </is>
+      </c>
+      <c r="J320" t="n">
+        <v>1662000</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/skoda/kodiaq-2020</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -15748,32 +15730,40 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Kodiaq Laurin &amp; Klement</t>
+          <t>Kodiaq Hockey Edition</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>3058000</v>
+        <v>1581000</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-841708426781-skoda-kodiaq-hockey-edition</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>3058000</t>
+          <t>1581000</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://krd93-auto.ru/auto/skoda/kodiaq_hockey_edition/</t>
+        </is>
+      </c>
+      <c r="N321" t="n">
+        <v>1581000</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-841708426781-skoda-kodiaq-hockey-edition</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -15783,56 +15773,32 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Kodiaq Laurin &amp; Klement</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>1659000</v>
+        <v>3058000</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-712707404121-skoda-obnovlennii-kodiaq</t>
+          <t>https://krd93-auto.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>3058000</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/skoda/kodiaq/</t>
-        </is>
-      </c>
-      <c r="J322" t="n">
-        <v>1857000</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/skoda/kodiaq</t>
-        </is>
-      </c>
-      <c r="L322" t="n">
-        <v>1659000</v>
-      </c>
-      <c r="M322" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/skoda/new-kodiaq/cuv</t>
-        </is>
-      </c>
-      <c r="N322" t="n">
-        <v>1659000</v>
-      </c>
-      <c r="O322" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-712707404121-skoda-obnovlennii-kodiaq</t>
+          <t>https://krd93-auto.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -15842,40 +15808,56 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Kodiaq Scout</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>3375000</v>
+        <v>1659000</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-676582321101-skoda-kodiaq-scout</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-712707404121-skoda-obnovlennii-kodiaq</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>3375000</t>
+          <t>1659000</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/skoda/kodiaq_scout/</t>
+          <t>https://krd93-auto.ru/auto/skoda/kodiaq/</t>
+        </is>
+      </c>
+      <c r="J323" t="n">
+        <v>1857000</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/skoda/kodiaq</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1659000</v>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/skoda/new-kodiaq/cuv</t>
         </is>
       </c>
       <c r="N323" t="n">
-        <v>3375000</v>
+        <v>1659000</v>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-676582321101-skoda-kodiaq-scout</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-712707404121-skoda-obnovlennii-kodiaq</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -15885,32 +15867,40 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Kodiaq Sportline</t>
+          <t>Kodiaq Scout</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>2989000</v>
+        <v>3375000</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/skoda/kodiaq_sportline/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-676582321101-skoda-kodiaq-scout</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>2989000</t>
+          <t>3375000</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/skoda/kodiaq_sportline/</t>
+          <t>https://krd93-auto.ru/auto/skoda/kodiaq_scout/</t>
+        </is>
+      </c>
+      <c r="N324" t="n">
+        <v>3375000</v>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-676582321101-skoda-kodiaq-scout</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -15920,30 +15910,32 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Kodiaq Sportline</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>1140000</v>
+        <v>2989000</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/skoda/octavia/</t>
-        </is>
-      </c>
-      <c r="H325" t="n">
-        <v>1140000</v>
-      </c>
-      <c r="I325" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/skoda/octavia/</t>
+          <t>https://krd93-auto.ru/auto/skoda/kodiaq_sportline/</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>2989000</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/skoda/kodiaq_sportline/</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -15953,38 +15945,30 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Octavia A8</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>1239000</v>
+        <v>1140000</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/skoda/octavia-a8/2020</t>
-        </is>
-      </c>
-      <c r="J326" t="n">
-        <v>1257000</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/skoda/octavia</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1239000</v>
-      </c>
-      <c r="M326" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/skoda/octavia-a8/2020</t>
+          <t>https://car-krasnodar.ru/cars/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="H326" t="n">
+        <v>1140000</v>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -15994,32 +15978,38 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Octavia Hockey Edition</t>
+          <t>Octavia A8</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>989000</v>
+        <v>1239000</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/skoda/octavia_hockey_edition/</t>
-        </is>
-      </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>989000</t>
-        </is>
-      </c>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/skoda/octavia_hockey_edition/</t>
+          <t>https://ac-pegas.ru/auto/skoda/octavia-a8/2020</t>
+        </is>
+      </c>
+      <c r="J327" t="n">
+        <v>1257000</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/skoda/octavia</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>1239000</v>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/skoda/octavia-a8/2020</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -16029,40 +16019,32 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Octavia Hockey Edition</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>840000</v>
+        <v>989000</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/skoda/octavia/</t>
+          <t>https://krd93-auto.ru/auto/skoda/octavia_hockey_edition/</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>989000</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/skoda/octavia/</t>
-        </is>
-      </c>
-      <c r="N328" t="n">
-        <v>1055000</v>
-      </c>
-      <c r="O328" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-359495984671-skoda-novaya-octavia</t>
+          <t>https://krd93-auto.ru/auto/skoda/octavia_hockey_edition/</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -16072,48 +16054,40 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>520000</v>
+        <v>840000</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/skoda/rapid/</t>
+          <t>https://krd93-auto.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/skoda/rapid/</t>
-        </is>
-      </c>
-      <c r="H329" t="n">
-        <v>820000</v>
-      </c>
-      <c r="I329" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/skoda/rapid/</t>
+          <t>https://krd93-auto.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="N329" t="n">
-        <v>676000</v>
+        <v>1055000</v>
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-238470977211-skoda-rapid</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-359495984671-skoda-novaya-octavia</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -16123,38 +16097,48 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Rapid New</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>679000</v>
+        <v>520000</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/skoda/rapid-new/sedan</t>
-        </is>
-      </c>
-      <c r="J330" t="n">
-        <v>695000</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/skoda/rapid</t>
-        </is>
-      </c>
-      <c r="L330" t="n">
-        <v>679000</v>
-      </c>
-      <c r="M330" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/skoda/rapid-new/sedan</t>
+          <t>https://krd93-auto.ru/auto/skoda/rapid/</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>520000</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/skoda/rapid/</t>
+        </is>
+      </c>
+      <c r="H330" t="n">
+        <v>820000</v>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/skoda/rapid/</t>
+        </is>
+      </c>
+      <c r="N330" t="n">
+        <v>676000</v>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-238470977211-skoda-rapid</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -16164,56 +16148,38 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid New</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>1222000</v>
+        <v>679000</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/skoda/superb/</t>
-        </is>
-      </c>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>1222000</t>
-        </is>
-      </c>
-      <c r="G331" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/skoda/superb/</t>
-        </is>
-      </c>
-      <c r="H331" t="n">
-        <v>1522000</v>
-      </c>
-      <c r="I331" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/skoda/superb/</t>
+          <t>https://ac-pegas.ru/auto/skoda/rapid-new/sedan</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>2265000</v>
+        <v>695000</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/superb_sedan</t>
-        </is>
-      </c>
-      <c r="N331" t="n">
-        <v>1740000</v>
-      </c>
-      <c r="O331" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-375904118311-skoda-superb</t>
+          <t>https://avangard-yug.ru/auto/skoda/rapid</t>
+        </is>
+      </c>
+      <c r="L331" t="n">
+        <v>679000</v>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/skoda/rapid-new/sedan</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -16223,32 +16189,56 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>2089000</v>
+        <v>1222000</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/skoda/superb_combi/</t>
+          <t>https://krd93-auto.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>2089000</t>
+          <t>1222000</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/skoda/superb_combi/</t>
+          <t>https://krd93-auto.ru/auto/skoda/superb/</t>
+        </is>
+      </c>
+      <c r="H332" t="n">
+        <v>1522000</v>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/skoda/superb/</t>
+        </is>
+      </c>
+      <c r="J332" t="n">
+        <v>2265000</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/skoda/superb_sedan</t>
+        </is>
+      </c>
+      <c r="N332" t="n">
+        <v>1740000</v>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-375904118311-skoda-superb</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -16258,30 +16248,32 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Superb Combi New</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>2431000</v>
+        <v>2089000</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/superb-combi</t>
-        </is>
-      </c>
-      <c r="J333" t="n">
-        <v>2431000</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/skoda/superb-combi</t>
+          <t>https://krd93-auto.ru/auto/skoda/superb_combi/</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2089000</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -16291,97 +16283,71 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Superb New</t>
+          <t>Superb Combi New</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>1921000</v>
+        <v>2431000</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/skoda/superb-new/liftback</t>
+          <t>https://avangard-yug.ru/auto/skoda/superb-combi</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>2138000</v>
+        <v>2431000</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/superb</t>
-        </is>
-      </c>
-      <c r="L334" t="n">
-        <v>1921000</v>
-      </c>
-      <c r="M334" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/skoda/superb-new/liftback</t>
+          <t>https://avangard-yug.ru/auto/skoda/superb-combi</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb New</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>1219000</v>
+        <v>1921000</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/solaris/hc/suv-1gen</t>
-        </is>
-      </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>1219000</t>
-        </is>
-      </c>
-      <c r="G335" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/solaris/hc/</t>
-        </is>
-      </c>
-      <c r="H335" t="n">
-        <v>2192000</v>
-      </c>
-      <c r="I335" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/solaris/hc/</t>
+          <t>https://ac-pegas.ru/auto/skoda/superb-new/liftback</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>2170000</v>
+        <v>2138000</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/solaris/hc_suv-1gen</t>
+          <t>https://avangard-yug.ru/auto/skoda/superb</t>
         </is>
       </c>
       <c r="L335" t="n">
-        <v>1219000</v>
+        <v>1921000</v>
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/solaris/hc/suv-1gen</t>
+          <t>https://ac-pegas.ru/auto/skoda/superb-new/liftback</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -16391,56 +16357,56 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>766000</v>
+        <v>1219000</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/solaris/hs/sedan-1gen</t>
+          <t>https://ac-pegas.ru/auto/solaris/hc/suv-1gen</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>766000</t>
+          <t>1219000</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/solaris/hs/</t>
+          <t>https://krd93-auto.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="H336" t="n">
-        <v>1696000</v>
+        <v>2192000</v>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/solaris/hs/</t>
+          <t>https://car-krasnodar.ru/cars/solaris/hc/</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>1510000</v>
+        <v>2170000</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/solaris/hs_sedan-1gen</t>
+          <t>https://avangard-yug.ru/auto/solaris/hc_suv-1gen</t>
         </is>
       </c>
       <c r="L336" t="n">
-        <v>766000</v>
+        <v>1219000</v>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/solaris/hs/sedan-1gen</t>
+          <t>https://ac-pegas.ru/auto/solaris/hc/suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -16450,56 +16416,56 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>729000</v>
+        <v>766000</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/solaris/krs/sedan-1gen</t>
+          <t>https://ac-pegas.ru/auto/solaris/hs/sedan-1gen</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>729000</t>
+          <t>766000</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/solaris/krs/</t>
+          <t>https://krd93-auto.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="H337" t="n">
-        <v>1759000</v>
+        <v>1696000</v>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/solaris/krs/</t>
+          <t>https://car-krasnodar.ru/cars/solaris/hs/</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>1680000</v>
+        <v>1510000</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/solaris/krs_sedan-1gen</t>
+          <t>https://avangard-yug.ru/auto/solaris/hs_sedan-1gen</t>
         </is>
       </c>
       <c r="L337" t="n">
-        <v>729000</v>
+        <v>766000</v>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/solaris/krs/sedan-1gen</t>
+          <t>https://ac-pegas.ru/auto/solaris/hs/sedan-1gen</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -16509,171 +16475,189 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>789000</v>
+        <v>729000</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/solaris/krx/hatchback-1gen</t>
+          <t>https://ac-pegas.ru/auto/solaris/krs/sedan-1gen</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>789000</t>
+          <t>729000</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/solaris/krx/</t>
+          <t>https://krd93-auto.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="H338" t="n">
-        <v>1876000</v>
+        <v>1759000</v>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/solaris/krx/</t>
+          <t>https://car-krasnodar.ru/cars/solaris/krs/</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>2180000</v>
+        <v>1680000</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/solaris/krx_hatchback-1gen</t>
+          <t>https://avangard-yug.ru/auto/solaris/krs_sedan-1gen</t>
         </is>
       </c>
       <c r="L338" t="n">
-        <v>789000</v>
+        <v>729000</v>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/solaris/krx/hatchback-1gen</t>
+          <t>https://ac-pegas.ru/auto/solaris/krs/sedan-1gen</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Soueast</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>DX8S</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>2550000</v>
+        <v>789000</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/soueast/dx8s/dx8s</t>
+          <t>https://ac-pegas.ru/auto/solaris/krx/hatchback-1gen</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>789000</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="H339" t="n">
+        <v>1876000</v>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/solaris/krx/</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>2699900</v>
+        <v>2180000</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/soueast/dx8s_cuv-1gen</t>
+          <t>https://avangard-yug.ru/auto/solaris/krx_hatchback-1gen</t>
         </is>
       </c>
       <c r="L339" t="n">
-        <v>2550000</v>
+        <v>789000</v>
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/soueast/dx8s/dx8s</t>
+          <t>https://ac-pegas.ru/auto/solaris/krx/hatchback-1gen</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>SsangYong</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Actyon</t>
+          <t>DX8S</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>1069000</v>
+        <v>2550000</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/ssangyong/actyon/suv</t>
+          <t>https://ac-pegas.ru/auto/soueast/dx8s/dx8s</t>
+        </is>
+      </c>
+      <c r="J340" t="n">
+        <v>2699900</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/soueast/dx8s_cuv-1gen</t>
         </is>
       </c>
       <c r="L340" t="n">
-        <v>1069000</v>
+        <v>2550000</v>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/ssangyong/actyon/suv</t>
+          <t>https://ac-pegas.ru/auto/soueast/dx8s/dx8s</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>601</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>SsangYong</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Jimny New</t>
+          <t>Actyon</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>1579000</v>
+        <v>1069000</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/suzuki/new%20jimny/new%20jimny</t>
-        </is>
-      </c>
-      <c r="J341" t="n">
-        <v>1587000</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/suzuki/new%20jimny_new%20jimny</t>
+          <t>https://ac-pegas.ru/auto/ssangyong/actyon/suv</t>
         </is>
       </c>
       <c r="L341" t="n">
-        <v>1579000</v>
+        <v>1069000</v>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/suzuki/new%20jimny/new%20jimny</t>
+          <t>https://ac-pegas.ru/auto/ssangyong/actyon/suv</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>606</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -16683,38 +16667,38 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>Jimny New</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>1219000</v>
+        <v>1579000</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/suzuki/sx4/sedan</t>
+          <t>https://ac-pegas.ru/auto/suzuki/new%20jimny/new%20jimny</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>1619000</v>
+        <v>1587000</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/suzuki/sx4_sedan</t>
+          <t>https://avangard-yug.ru/auto/suzuki/new%20jimny_new%20jimny</t>
         </is>
       </c>
       <c r="L342" t="n">
-        <v>1219000</v>
+        <v>1579000</v>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/suzuki/sx4/sedan</t>
+          <t>https://ac-pegas.ru/auto/suzuki/new%20jimny/new%20jimny</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -16724,79 +16708,79 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Vitara</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>1119000</v>
+        <v>1219000</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/suzuki/vitara/vitara</t>
+          <t>https://ac-pegas.ru/auto/suzuki/sx4/sedan</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>1469000</v>
+        <v>1619000</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/suzuki/vitara_vitara</t>
+          <t>https://avangard-yug.ru/auto/suzuki/sx4_sedan</t>
         </is>
       </c>
       <c r="L343" t="n">
-        <v>1119000</v>
+        <v>1219000</v>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/suzuki/vitara/vitara</t>
+          <t>https://ac-pegas.ru/auto/suzuki/sx4/sedan</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Vitara</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>3200000</v>
+        <v>1119000</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/tank/300/</t>
-        </is>
-      </c>
-      <c r="H344" t="n">
-        <v>3200000</v>
-      </c>
-      <c r="I344" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/tank/300/</t>
+          <t>https://ac-pegas.ru/auto/suzuki/vitara/vitara</t>
+        </is>
+      </c>
+      <c r="J344" t="n">
+        <v>1469000</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/suzuki/vitara_vitara</t>
         </is>
       </c>
       <c r="L344" t="n">
-        <v>3609000</v>
+        <v>1119000</v>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/tank/300/SUV_5D</t>
+          <t>https://ac-pegas.ru/auto/suzuki/vitara/vitara</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -16806,71 +16790,79 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>4299000</v>
+        <v>3200000</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/tank/500/</t>
+          <t>https://car-krasnodar.ru/cars/tank/300/</t>
         </is>
       </c>
       <c r="H345" t="n">
-        <v>4299000</v>
+        <v>3200000</v>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/tank/500/</t>
+          <t>https://car-krasnodar.ru/cars/tank/300/</t>
         </is>
       </c>
       <c r="L345" t="n">
-        <v>5809000</v>
+        <v>3609000</v>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/tank/500/SUV_5D</t>
+          <t>https://ac-pegas.ru/auto/tank/300/SUV_5D</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>2165000</v>
+        <v>4299000</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/toyota/c-hr/</t>
+          <t>https://car-krasnodar.ru/cars/tank/500/</t>
         </is>
       </c>
       <c r="H346" t="n">
-        <v>2165000</v>
+        <v>4299000</v>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/toyota/c-hr/</t>
+          <t>https://car-krasnodar.ru/cars/tank/500/</t>
+        </is>
+      </c>
+      <c r="L346" t="n">
+        <v>5809000</v>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/tank/500/SUV_5D</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -16880,38 +16872,30 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>CH-R New</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>1759000</v>
+        <v>2165000</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/toyota/c-hr-new/cuv</t>
-        </is>
-      </c>
-      <c r="J347" t="n">
-        <v>1842000</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/toyota/c-hr</t>
-        </is>
-      </c>
-      <c r="L347" t="n">
-        <v>1759000</v>
-      </c>
-      <c r="M347" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/toyota/c-hr-new/cuv</t>
+          <t>https://car-krasnodar.ru/cars/toyota/c-hr/</t>
+        </is>
+      </c>
+      <c r="H347" t="n">
+        <v>2165000</v>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/toyota/c-hr/</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -16921,30 +16905,38 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>CH-R New</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>2290000</v>
+        <v>1759000</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/toyota/camry/</t>
-        </is>
-      </c>
-      <c r="H348" t="n">
-        <v>2290000</v>
-      </c>
-      <c r="I348" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/toyota/camry/</t>
+          <t>https://ac-pegas.ru/auto/toyota/c-hr-new/cuv</t>
+        </is>
+      </c>
+      <c r="J348" t="n">
+        <v>1842000</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/toyota/c-hr</t>
+        </is>
+      </c>
+      <c r="L348" t="n">
+        <v>1759000</v>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/toyota/c-hr-new/cuv</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -16954,54 +16946,30 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Camry New</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>1579000</v>
+        <v>2290000</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/toyota/camry-new/sed</t>
+          <t>https://car-krasnodar.ru/cars/toyota/camry/</t>
         </is>
       </c>
       <c r="H349" t="n">
-        <v>3513000</v>
+        <v>2290000</v>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/toyota/new_camry/</t>
-        </is>
-      </c>
-      <c r="J349" t="n">
-        <v>1978000</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/toyota/camry</t>
-        </is>
-      </c>
-      <c r="L349" t="n">
-        <v>1579000</v>
-      </c>
-      <c r="M349" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/toyota/camry-new/sed</t>
-        </is>
-      </c>
-      <c r="N349" t="n">
-        <v>1712500</v>
-      </c>
-      <c r="O349" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-182242764921-toyota-camry-new</t>
+          <t>https://car-krasnodar.ru/cars/toyota/camry/</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -17011,38 +16979,54 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>Camry New</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>1550000</v>
+        <v>1579000</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/toyota/corolla/</t>
+          <t>https://ac-pegas.ru/auto/toyota/camry-new/sed</t>
         </is>
       </c>
       <c r="H350" t="n">
-        <v>1550000</v>
+        <v>3513000</v>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/toyota/corolla/</t>
+          <t>https://car-krasnodar.ru/cars/toyota/new_camry/</t>
+        </is>
+      </c>
+      <c r="J350" t="n">
+        <v>1978000</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/toyota/camry</t>
+        </is>
+      </c>
+      <c r="L350" t="n">
+        <v>1579000</v>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/toyota/camry-new/sed</t>
         </is>
       </c>
       <c r="N350" t="n">
-        <v>1562000</v>
+        <v>1712500</v>
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-410306276111-toyota-corolla</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-182242764921-toyota-camry-new</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -17052,38 +17036,38 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Corolla New</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>1139000</v>
+        <v>1550000</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/toyota/new-corolla/2019</t>
-        </is>
-      </c>
-      <c r="J351" t="n">
-        <v>1152000</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/toyota/corolla</t>
-        </is>
-      </c>
-      <c r="L351" t="n">
-        <v>1139000</v>
-      </c>
-      <c r="M351" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/toyota/new-corolla/2019</t>
+          <t>https://car-krasnodar.ru/cars/toyota/corolla/</t>
+        </is>
+      </c>
+      <c r="H351" t="n">
+        <v>1550000</v>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/toyota/corolla/</t>
+        </is>
+      </c>
+      <c r="N351" t="n">
+        <v>1562000</v>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-410306276111-toyota-corolla</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>631</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -17093,30 +17077,38 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Hilux New</t>
+          <t>Corolla New</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>2391000</v>
+        <v>1139000</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/toyota/hilux-new/pickup</t>
+          <t>https://ac-pegas.ru/auto/toyota/new-corolla/2019</t>
+        </is>
+      </c>
+      <c r="J352" t="n">
+        <v>1152000</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/toyota/corolla</t>
         </is>
       </c>
       <c r="L352" t="n">
-        <v>2391000</v>
+        <v>1139000</v>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/toyota/hilux-new/pickup</t>
+          <t>https://ac-pegas.ru/auto/toyota/new-corolla/2019</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>628</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -17126,30 +17118,30 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>Hilux New</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>1790000</v>
+        <v>2391000</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/toyota/rav4/</t>
-        </is>
-      </c>
-      <c r="H353" t="n">
-        <v>1790000</v>
-      </c>
-      <c r="I353" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/toyota/rav4/</t>
+          <t>https://ac-pegas.ru/auto/toyota/hilux-new/pickup</t>
+        </is>
+      </c>
+      <c r="L353" t="n">
+        <v>2391000</v>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/toyota/hilux-new/pickup</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -17159,87 +17151,79 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>RAV4 New</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>1789000</v>
+        <v>1790000</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/toyota/rav4-new/rav4-new</t>
-        </is>
-      </c>
-      <c r="J354" t="n">
-        <v>2061000</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/toyota/rav-4</t>
-        </is>
-      </c>
-      <c r="L354" t="n">
-        <v>1789000</v>
-      </c>
-      <c r="M354" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/toyota/rav4-new/rav4-new</t>
-        </is>
-      </c>
-      <c r="N354" t="n">
-        <v>1859000</v>
-      </c>
-      <c r="O354" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-586328054651-toyota-rav4-new</t>
+          <t>https://car-krasnodar.ru/cars/toyota/rav4/</t>
+        </is>
+      </c>
+      <c r="H354" t="n">
+        <v>1790000</v>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/toyota/rav4/</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>632</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>RAV4 New</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>629000</v>
+        <v>1789000</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/uaz/hunter/suv</t>
+          <t>https://ac-pegas.ru/auto/toyota/rav4-new/rav4-new</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>645000</v>
+        <v>2061000</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/uaz/hunter</t>
+          <t>https://avangard-yug.ru/auto/toyota/rav-4</t>
         </is>
       </c>
       <c r="L355" t="n">
-        <v>629000</v>
+        <v>1789000</v>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/uaz/hunter/suv</t>
+          <t>https://ac-pegas.ru/auto/toyota/rav4-new/rav4-new</t>
+        </is>
+      </c>
+      <c r="N355" t="n">
+        <v>1859000</v>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-586328054651-toyota-rav4-new</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -17249,46 +17233,38 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Patriot New</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>699000</v>
+        <v>629000</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/uaz/patriot-new/suv</t>
-        </is>
-      </c>
-      <c r="H356" t="n">
-        <v>1144000</v>
-      </c>
-      <c r="I356" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/uaz/patriot/</t>
+          <t>https://ac-pegas.ru/auto/uaz/hunter/suv</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>719000</v>
+        <v>645000</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/uaz/patriot</t>
+          <t>https://avangard-yug.ru/auto/uaz/hunter</t>
         </is>
       </c>
       <c r="L356" t="n">
-        <v>699000</v>
+        <v>629000</v>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/uaz/patriot-new/suv</t>
+          <t>https://ac-pegas.ru/auto/uaz/hunter/suv</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -17298,87 +17274,95 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Pickup New</t>
+          <t>Patriot New</t>
         </is>
       </c>
       <c r="D357" t="n">
+        <v>699000</v>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/uaz/patriot-new/suv</t>
+        </is>
+      </c>
+      <c r="H357" t="n">
+        <v>1144000</v>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="J357" t="n">
         <v>719000</v>
       </c>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/uaz/pickup-new/suv</t>
-        </is>
-      </c>
-      <c r="H357" t="n">
-        <v>1109500</v>
-      </c>
-      <c r="I357" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/uaz/pikap/</t>
-        </is>
-      </c>
-      <c r="J357" t="n">
-        <v>737000</v>
-      </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/uaz/patriot-pikap</t>
+          <t>https://avangard-yug.ru/auto/uaz/patriot</t>
         </is>
       </c>
       <c r="L357" t="n">
-        <v>719000</v>
+        <v>699000</v>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/uaz/pickup-new/suv</t>
+          <t>https://ac-pegas.ru/auto/uaz/patriot-new/suv</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Arteon</t>
+          <t>Pickup New</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>1949000</v>
+        <v>719000</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/volkswagen/arteon/liftback-1gen-rest</t>
+          <t>https://ac-pegas.ru/auto/uaz/pickup-new/suv</t>
+        </is>
+      </c>
+      <c r="H358" t="n">
+        <v>1109500</v>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/uaz/pikap/</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>2339000</v>
+        <v>737000</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/arteon_liftback-1gen-rest</t>
+          <t>https://avangard-yug.ru/auto/uaz/patriot-pikap</t>
         </is>
       </c>
       <c r="L358" t="n">
-        <v>1949000</v>
+        <v>719000</v>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/volkswagen/arteon/liftback-1gen-rest</t>
+          <t>https://ac-pegas.ru/auto/uaz/pickup-new/suv</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -17388,30 +17372,38 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Golf New</t>
+          <t>Arteon</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>1789000</v>
+        <v>1949000</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/volkswagen/golf-new/hatch</t>
+          <t>https://ac-pegas.ru/auto/volkswagen/arteon/liftback-1gen-rest</t>
+        </is>
+      </c>
+      <c r="J359" t="n">
+        <v>2339000</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/volkswagen/arteon_liftback-1gen-rest</t>
         </is>
       </c>
       <c r="L359" t="n">
-        <v>1789000</v>
+        <v>1949000</v>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/volkswagen/golf-new/hatch</t>
+          <t>https://ac-pegas.ru/auto/volkswagen/arteon/liftback-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>644</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -17421,48 +17413,30 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Golf New</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>975000</v>
+        <v>1789000</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-863506188431-volkswagen-jetta</t>
-        </is>
-      </c>
-      <c r="F360" t="inlineStr">
-        <is>
-          <t>975000</t>
-        </is>
-      </c>
-      <c r="G360" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="H360" t="n">
-        <v>1585000</v>
-      </c>
-      <c r="I360" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="N360" t="n">
-        <v>975000</v>
-      </c>
-      <c r="O360" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-863506188431-volkswagen-jetta</t>
+          <t>https://ac-pegas.ru/auto/volkswagen/golf-new/hatch</t>
+        </is>
+      </c>
+      <c r="L360" t="n">
+        <v>1789000</v>
+      </c>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/volkswagen/golf-new/hatch</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -17472,38 +17446,48 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Jetta New</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>1449000</v>
+        <v>975000</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/volkswagen/jetta-new/sedan</t>
-        </is>
-      </c>
-      <c r="J361" t="n">
-        <v>1465000</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1449000</v>
-      </c>
-      <c r="M361" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/volkswagen/jetta-new/sedan</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-863506188431-volkswagen-jetta</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>975000</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="H361" t="n">
+        <v>1585000</v>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="N361" t="n">
+        <v>975000</v>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-863506188431-volkswagen-jetta</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>646</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -17513,48 +17497,38 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta New</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>1050000</v>
+        <v>1449000</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>1050000</t>
-        </is>
-      </c>
-      <c r="G362" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="H362" t="n">
-        <v>2738000</v>
-      </c>
-      <c r="I362" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="N362" t="n">
-        <v>1460000</v>
-      </c>
-      <c r="O362" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-266141791761-volkswagen-passat</t>
+          <t>https://ac-pegas.ru/auto/volkswagen/jetta-new/sedan</t>
+        </is>
+      </c>
+      <c r="J362" t="n">
+        <v>1465000</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="L362" t="n">
+        <v>1449000</v>
+      </c>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/volkswagen/jetta-new/sedan</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -17564,30 +17538,48 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Passat New</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>1989000</v>
+        <v>1050000</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/volkswagen/passat-new/sedan</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1989000</v>
-      </c>
-      <c r="M363" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/volkswagen/passat-new/sedan</t>
+          <t>https://krd93-auto.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>1050000</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="H363" t="n">
+        <v>2738000</v>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="N363" t="n">
+        <v>1460000</v>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-266141791761-volkswagen-passat</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -17597,48 +17589,30 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat New</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>730900</v>
+        <v>1989000</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-406016267311-volkswagen-polo</t>
-        </is>
-      </c>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>730900</t>
-        </is>
-      </c>
-      <c r="G364" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="H364" t="n">
-        <v>1290000</v>
-      </c>
-      <c r="I364" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="N364" t="n">
-        <v>730900</v>
-      </c>
-      <c r="O364" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-406016267311-volkswagen-polo</t>
+          <t>https://ac-pegas.ru/auto/volkswagen/passat-new/sedan</t>
+        </is>
+      </c>
+      <c r="L364" t="n">
+        <v>1989000</v>
+      </c>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/volkswagen/passat-new/sedan</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -17648,38 +17622,48 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Polo New</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>749900</v>
+        <v>730900</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/volkswagen/new-polo/sedan</t>
-        </is>
-      </c>
-      <c r="J365" t="n">
-        <v>760900</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/polo</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>749900</v>
-      </c>
-      <c r="M365" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/volkswagen/new-polo/sedan</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-406016267311-volkswagen-polo</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>730900</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="H365" t="n">
+        <v>1290000</v>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="N365" t="n">
+        <v>730900</v>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-406016267311-volkswagen-polo</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -17689,56 +17673,38 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo New</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>1399900</v>
+        <v>749900</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/volkswagen/taos/cuv</t>
-        </is>
-      </c>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>1399900</t>
-        </is>
-      </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/volkswagen/taos/</t>
+          <t>https://ac-pegas.ru/auto/volkswagen/new-polo/sedan</t>
         </is>
       </c>
       <c r="J366" t="n">
-        <v>1426900</v>
+        <v>760900</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/taos</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/polo</t>
         </is>
       </c>
       <c r="L366" t="n">
-        <v>1399900</v>
+        <v>749900</v>
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/volkswagen/taos/cuv</t>
-        </is>
-      </c>
-      <c r="N366" t="n">
-        <v>1475900</v>
-      </c>
-      <c r="O366" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-272168427241-volkswagen-taos</t>
+          <t>https://ac-pegas.ru/auto/volkswagen/new-polo/sedan</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -17748,30 +17714,56 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Teramont</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>2777000</v>
+        <v>1399900</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/volkswagen/teramont/</t>
-        </is>
-      </c>
-      <c r="H367" t="n">
-        <v>2777000</v>
-      </c>
-      <c r="I367" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/volkswagen/teramont/</t>
+          <t>https://ac-pegas.ru/auto/volkswagen/taos/cuv</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>1399900</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="J367" t="n">
+        <v>1426900</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="L367" t="n">
+        <v>1399900</v>
+      </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/volkswagen/taos/cuv</t>
+        </is>
+      </c>
+      <c r="N367" t="n">
+        <v>1475900</v>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-272168427241-volkswagen-taos</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -17781,30 +17773,30 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Teramont New</t>
+          <t>Teramont</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>4006000</v>
+        <v>2777000</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/volkswagen/teramont-new/suv</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>4006000</v>
-      </c>
-      <c r="M368" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/volkswagen/teramont-new/suv</t>
+          <t>https://car-krasnodar.ru/cars/volkswagen/teramont/</t>
+        </is>
+      </c>
+      <c r="H368" t="n">
+        <v>2777000</v>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/volkswagen/teramont/</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>656</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -17814,46 +17806,30 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Teramont New</t>
         </is>
       </c>
       <c r="D369" t="n">
-        <v>1597000</v>
+        <v>4006000</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/tiguan-2019</t>
-        </is>
-      </c>
-      <c r="H369" t="n">
-        <v>2234900</v>
-      </c>
-      <c r="I369" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="J369" t="n">
-        <v>1597000</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/tiguan-2019</t>
-        </is>
-      </c>
-      <c r="N369" t="n">
-        <v>1597900</v>
-      </c>
-      <c r="O369" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-886798314871-volkswagen-tiguan</t>
+          <t>https://ac-pegas.ru/auto/volkswagen/teramont-new/suv</t>
+        </is>
+      </c>
+      <c r="L369" t="n">
+        <v>4006000</v>
+      </c>
+      <c r="M369" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/volkswagen/teramont-new/suv</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -17863,56 +17839,46 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>1579900</v>
+        <v>1597000</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/volkswagen/tiguan-new/cuv</t>
-        </is>
-      </c>
-      <c r="F370" t="inlineStr">
-        <is>
-          <t>1579900</t>
-        </is>
-      </c>
-      <c r="G370" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/volkswagen/tiguan/</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/tiguan-2019</t>
+        </is>
+      </c>
+      <c r="H370" t="n">
+        <v>2234900</v>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>1649900</v>
+        <v>1597000</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/tiguan</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1579900</v>
-      </c>
-      <c r="M370" t="inlineStr">
-        <is>
-          <t>https://ac-pegas.ru/auto/volkswagen/tiguan-new/cuv</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/tiguan-2019</t>
         </is>
       </c>
       <c r="N370" t="n">
-        <v>1657900</v>
+        <v>1597900</v>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-564624040771-volkswagen-novii-tiguan</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-886798314871-volkswagen-tiguan</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -17922,156 +17888,215 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Touareg New</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>5712000</v>
+        <v>1579900</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/volkswagen/touareg-new/suv</t>
+          <t>https://ac-pegas.ru/auto/volkswagen/tiguan-new/cuv</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>1579900</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="J371" t="n">
+        <v>1649900</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/volkswagen/tiguan</t>
         </is>
       </c>
       <c r="L371" t="n">
-        <v>5712000</v>
+        <v>1579900</v>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/volkswagen/touareg-new/suv</t>
+          <t>https://ac-pegas.ru/auto/volkswagen/tiguan-new/cuv</t>
+        </is>
+      </c>
+      <c r="N371" t="n">
+        <v>1657900</v>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-564624040771-volkswagen-novii-tiguan</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>660</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>X-Cross 7 New</t>
+          <t>Touareg New</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>1699000</v>
+        <v>5712000</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/xcite/x-cross-7_suv-1gen</t>
-        </is>
-      </c>
-      <c r="J372" t="n">
-        <v>1699000</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/xcite/x-cross-7_suv-1gen</t>
+          <t>https://ac-pegas.ru/auto/volkswagen/touareg-new/suv</t>
+        </is>
+      </c>
+      <c r="L372" t="n">
+        <v>5712000</v>
+      </c>
+      <c r="M372" t="inlineStr">
+        <is>
+          <t>https://ac-pegas.ru/auto/volkswagen/touareg-new/suv</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>676</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>X-Cross 7 New</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>989600</v>
+        <v>1699000</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/zotye/coupa</t>
-        </is>
-      </c>
-      <c r="F373" t="inlineStr">
-        <is>
-          <t>989600</t>
-        </is>
-      </c>
-      <c r="G373" t="inlineStr">
-        <is>
-          <t>https://krd93-auto.ru/auto/zotye/coupa/</t>
+          <t>https://avangard-yug.ru/auto/xcite/x-cross-7_suv-1gen</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>989600</v>
+        <v>1699000</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/zotye/coupa</t>
-        </is>
-      </c>
-      <c r="N373" t="n">
-        <v>1112600</v>
-      </c>
-      <c r="O373" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-839083447801-zotye-coupa</t>
+          <t>https://avangard-yug.ru/auto/xcite/x-cross-7_suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>989600</v>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>989600</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="J374" t="n">
+        <v>989600</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="N374" t="n">
+        <v>1112600</v>
+      </c>
+      <c r="O374" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-839083447801-zotye-coupa</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B374" t="inlineStr">
+      <c r="B375" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C374" t="inlineStr">
+      <c r="C375" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D374" t="n">
+      <c r="D375" t="n">
         <v>771600</v>
       </c>
-      <c r="E374" t="inlineStr">
+      <c r="E375" t="inlineStr">
         <is>
           <t>https://avangard-yug.ru/auto/zotye/t600</t>
         </is>
       </c>
-      <c r="F374" t="inlineStr">
+      <c r="F375" t="inlineStr">
         <is>
           <t>771600</t>
         </is>
       </c>
-      <c r="G374" t="inlineStr">
+      <c r="G375" t="inlineStr">
         <is>
           <t>https://krd93-auto.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="J374" t="n">
+      <c r="J375" t="n">
         <v>771600</v>
       </c>
-      <c r="K374" t="inlineStr">
+      <c r="K375" t="inlineStr">
         <is>
           <t>https://avangard-yug.ru/auto/zotye/t600</t>
         </is>
       </c>
-      <c r="N374" t="n">
+      <c r="N375" t="n">
         <v>894600</v>
       </c>
-      <c r="O374" t="inlineStr">
+      <c r="O375" t="inlineStr">
         <is>
           <t>https://rostov-avto-1.ru/tproduct/532090534-290403053961-zotye-t600</t>
         </is>

--- a/xlsx/krasnodar.xlsx
+++ b/xlsx/krasnodar.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q375"/>
+  <dimension ref="A1:O376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,16 +497,6 @@
           <t>rostov-avto-1.ru_price</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>loft-autoug.ru</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>loft-autoug.ru_price</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -18099,6 +18089,39 @@
       <c r="O375" t="inlineStr">
         <is>
           <t>https://rostov-avto-1.ru/tproduct/532090534-290403053961-zotye-t600</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Новая машина, необходимо назначить id</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>haval</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>newf72024</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>1939000</v>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/haval/new-f-7_suv-2gen</t>
+        </is>
+      </c>
+      <c r="J376" t="n">
+        <v>1939000</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/haval/new-f-7_suv-2gen</t>
         </is>
       </c>
     </row>

--- a/xlsx/krasnodar.xlsx
+++ b/xlsx/krasnodar.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O376"/>
+  <dimension ref="A1:O375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2677,11 +2677,11 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1870000</v>
+        <v>1247000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/chery/tiggo-7-pro-max_suv-1gen-rest</t>
+          <t>https://car-krasnodar.ru/cars/chery/new_tiggo_7_pro_max/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2692,6 +2692,14 @@
       <c r="G42" t="inlineStr">
         <is>
           <t>https://krd93-auto.ru/auto/chery/tiggo_7_pro_max/</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1247000</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/chery/new_tiggo_7_pro_max/</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -6733,6 +6741,14 @@
           <t>https://car-krasnodar.ru/cars/haval/new_h5/</t>
         </is>
       </c>
+      <c r="J129" t="n">
+        <v>2599000</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/haval/h-5_suv-2gen</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -18089,39 +18105,6 @@
       <c r="O375" t="inlineStr">
         <is>
           <t>https://rostov-avto-1.ru/tproduct/532090534-290403053961-zotye-t600</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>Новая машина, необходимо назначить id</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>haval</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>newf72024</t>
-        </is>
-      </c>
-      <c r="D376" t="n">
-        <v>1939000</v>
-      </c>
-      <c r="E376" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/haval/new-f-7_suv-2gen</t>
-        </is>
-      </c>
-      <c r="J376" t="n">
-        <v>1939000</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/haval/new-f-7_suv-2gen</t>
         </is>
       </c>
     </row>

--- a/xlsx/krasnodar.xlsx
+++ b/xlsx/krasnodar.xlsx
@@ -515,11 +515,11 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3119000</v>
+        <v>3460000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/baic/BJ40</t>
+          <t>https://ac-pegas.ru/auto/baic/suv/suv</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>3119000</v>
+        <v>3590000</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1379000</v>
+        <v>1410000</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/baic/X35</t>
+          <t>https://krd93-auto.ru/auto/baic/x35/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1379000</v>
+        <v>1430000</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -706,16 +706,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1928500</v>
+        <v>1990000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/baic/x55/</t>
+          <t>https://ac-pegas.ru/auto/baic/x55/suv-1gen</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1928500</t>
+          <t>2080000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>2080000</v>
+        <v>2040000</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1990000</v>
+        <v>2019000</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1990000</v>
+        <v>2019000</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1385990</v>
+        <v>1545990</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1129000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1499900</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1599900</v>
+        <v>1705900</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1789900</v>
+        <v>1799900</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1789900</v>
+        <v>1799900</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>3699900</v>
+        <v>3019900</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1409900</t>
+          <t>1400000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1409900</v>
+        <v>1429900</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1827,11 +1827,21 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1989900</v>
+        <v>1889900</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>https://avangard-yug.ru/auto/changan/lamore_sedan</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1989900</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1843,7 +1853,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1989900</v>
+        <v>1889900</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1913,7 +1923,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/changan/uni-k</t>
+          <t>https://krd93-auto.ru/auto/changan/uni-k/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1935,7 +1945,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>2039900</v>
+        <v>2539900</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1983,6 +1993,16 @@
           <t>https://car-krasnodar.ru/cars/changan/uni-t/</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1692000</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/changan/uni-t/</t>
+        </is>
+      </c>
       <c r="H29" t="n">
         <v>1692000</v>
       </c>
@@ -1992,7 +2012,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>2389900</v>
+        <v>2019900</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2059,7 +2079,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>2029900</v>
+        <v>1959900</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2100,16 +2120,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1414000</v>
+        <v>1714000</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/chery/arrizo_8/</t>
+          <t>https://car-krasnodar.ru/cars/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1414000</t>
+          <t>1714000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2126,7 +2146,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1899900</v>
+        <v>1900000</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2309,16 +2329,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>690000</v>
+        <v>869900</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/chery/tiggo_4/</t>
+          <t>https://ac-pegas.ru/auto/chery/tiggo-4/2019</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>869900</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2335,7 +2355,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>877900</v>
+        <v>1199000</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2376,16 +2396,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>740000</v>
+        <v>1040000</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://car-krasnodar.ru/cars/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>1040000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2402,7 +2422,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1089900</v>
+        <v>1312000</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2476,16 +2496,16 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>750000</v>
+        <v>894900</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/chery/tiggo_7/</t>
+          <t>https://ac-pegas.ru/auto/chery/tiggo-7/2019</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>750000</t>
+          <t>894900</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2543,16 +2563,16 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>890000</v>
+        <v>1139900</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://ac-pegas.ru/auto/chery/tiggo-7-pro/cuv</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>1139900</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2569,7 +2589,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1147900</v>
+        <v>1677000</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2610,16 +2630,16 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1090000</v>
+        <v>1390000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://car-krasnodar.ru/cars/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1090000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2636,7 +2656,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1569900</v>
+        <v>1720000</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2703,7 +2723,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1870000</v>
+        <v>1799000</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2754,7 +2774,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1299900</v>
+        <v>1819000</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2854,7 +2874,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1599900</v>
+        <v>2019000</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2962,16 +2982,16 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2189900</v>
+        <v>2388000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://avangard-yug.ru/auto/chery/tiggo-8-pro-max-new_cuv</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2189900</t>
+          <t>2489900</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2988,7 +3008,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>3860000</v>
+        <v>2388000</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -3421,7 +3441,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>809000</v>
+        <v>919900</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3430,7 +3450,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>809000</t>
+          <t>919900</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3464,7 +3484,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>710000</v>
+        <v>899900</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3473,7 +3493,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>710000</t>
+          <t>899900</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3840,11 +3860,11 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1779000</v>
+        <v>1479000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/dongfeng/shine_max/</t>
+          <t>https://avangard-yug.ru/auto/dongfeng/Shine-max_SEDAN</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -3856,7 +3876,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>2190000</v>
+        <v>1479000</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3896,6 +3916,16 @@
           <t>https://ac-pegas.ru/auto/exeed/lx/suv</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1449900</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/exeed/lx/</t>
+        </is>
+      </c>
       <c r="H70" t="n">
         <v>2405000</v>
       </c>
@@ -3905,7 +3935,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1459900</v>
+        <v>2099000</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3994,6 +4024,16 @@
           <t>https://car-krasnodar.ru/cars/cheryexeed/rx/</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3239900</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/exeed/rx/</t>
+        </is>
+      </c>
       <c r="H72" t="n">
         <v>3239900</v>
       </c>
@@ -4003,7 +4043,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>3490000</v>
+        <v>3299000</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -4127,7 +4167,7 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1459900</v>
+        <v>2599000</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -4167,6 +4207,16 @@
           <t>https://ac-pegas.ru/auto/exeed/vx/cuv</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2519900</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/exeed/vx/</t>
+        </is>
+      </c>
       <c r="H75" t="n">
         <v>3329900</v>
       </c>
@@ -4450,16 +4500,16 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1439000</v>
+        <v>1565000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/faw/bestune-t77</t>
+          <t>https://ac-pegas.ru/auto/faw/bestune-t77/cuv</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1439000</t>
+          <t>1565000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4476,7 +4526,7 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1439000</v>
+        <v>1999000</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -5047,7 +5097,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1299000</v>
+        <v>1549000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -5055,7 +5105,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1299000</v>
+        <v>1549000</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -5114,7 +5164,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>965000</v>
+        <v>1459000</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -5206,7 +5256,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1999900</v>
+        <v>2669000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5222,7 +5272,7 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1999900</v>
+        <v>2669000</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -5288,16 +5338,16 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>690000</v>
+        <v>990000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/geely/atlas_1/</t>
+          <t>https://car-krasnodar.ru/cars/geely/atlas/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>990000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -5381,7 +5431,7 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>2044990</v>
+        <v>2129990</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -5414,16 +5464,16 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>790000</v>
+        <v>1090000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/geely/atlas_pro/</t>
+          <t>https://car-krasnodar.ru/cars/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>1090000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -5440,7 +5490,7 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1464990</v>
+        <v>1614990</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -5481,7 +5531,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>676000</v>
+        <v>1349000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5490,7 +5540,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>676000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -5549,11 +5599,11 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>619900</v>
+        <v>619990</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/geely/coolray</t>
+          <t>https://krd93-auto.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5575,7 +5625,7 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>619900</v>
+        <v>1529990</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -5616,16 +5666,16 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1115000</v>
+        <v>1219990</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/geely/coolray/</t>
+          <t>https://ac-pegas.ru/auto/geely/%D1%81oolray-new/suv_5d</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1115000</t>
+          <t>1219990</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5667,7 +5717,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1199990</v>
+        <v>1279990</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5683,7 +5733,7 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1199990</v>
+        <v>1279990</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -5708,7 +5758,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1040000</v>
+        <v>1279990</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5717,7 +5767,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1040000</t>
+          <t>1279990</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5810,16 +5860,16 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>699890</v>
+        <v>717990</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/geely/gs/</t>
+          <t>https://ac-pegas.ru/auto/geely/gs/cuv</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>699890</t>
+          <t>717990</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5994,7 +6044,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1854000</t>
+          <t>2154000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -6036,11 +6086,11 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1400000</v>
+        <v>1710000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/geely/preface_sedan-1gen-rest</t>
+          <t>https://ac-pegas.ru/auto/geely/preface/sedan-1gen-rest</t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -6052,7 +6102,7 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1400000</v>
+        <v>1749990</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -6277,7 +6327,7 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1799000</v>
+        <v>2019000</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -6322,7 +6372,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/haval/dargo-x</t>
+          <t>https://krd93-auto.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6344,7 +6394,7 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1959000</v>
+        <v>2249000</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -6452,7 +6502,7 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1349000</v>
+        <v>1539000</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -6552,7 +6602,7 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1419000</v>
+        <v>1589000</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -6636,7 +6686,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1799000</v>
+        <v>1739000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6652,7 +6702,7 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1799000</v>
+        <v>1739000</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -6867,7 +6917,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>3099000</v>
+        <v>3039000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6875,7 +6925,7 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>3099000</v>
+        <v>3039000</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -6904,7 +6954,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/haval/jolion</t>
+          <t>https://krd93-auto.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6926,7 +6976,7 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>689900</v>
+        <v>1269000</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -6967,7 +7017,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>990000</v>
+        <v>1199000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6976,7 +7026,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>990000</t>
+          <t>1199000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -7022,7 +7072,17 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/haval/m6_WAGON_7D</t>
+          <t>https://krd93-auto.ru/auto/haval/m6/</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1059900</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -7034,7 +7094,7 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1059900</v>
+        <v>1319000</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -7223,16 +7283,16 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>864000</v>
+        <v>959000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/hyundai/creta/</t>
+          <t>https://ac-pegas.ru/auto/hyundai/creta-new/cuv</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>864000</t>
+          <t>959000</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -7249,7 +7309,7 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>989000</v>
+        <v>1699000</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -7646,7 +7706,7 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>629000</v>
+        <v>1309000</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -7679,7 +7739,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1370000</v>
+        <v>1481000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7688,7 +7748,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1370000</t>
+          <t>1481000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -7894,16 +7954,16 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1394000</v>
+        <v>1479000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/hyundai/tucson/</t>
+          <t>https://ac-pegas.ru/auto/hyundai/tucson-new/cuv</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1394000</t>
+          <t>1479000</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -7979,7 +8039,7 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>789000</v>
+        <v>1399000</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -8053,7 +8113,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1049000</v>
+        <v>1249000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -8061,7 +8121,7 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>1049000</v>
+        <v>1249000</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -8094,7 +8154,7 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>897000</v>
+        <v>1429000</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -8127,7 +8187,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1369000</v>
+        <v>1509000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8143,7 +8203,7 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>1369000</v>
+        <v>1509000</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -8286,16 +8346,16 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1209000</v>
+        <v>1219000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/jac/s7/</t>
+          <t>https://ac-pegas.ru/auto/jac/s7/cuv</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1209000</t>
+          <t>1219000</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -8517,11 +8577,21 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>2439900</v>
+        <v>2289900</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
           <t>https://avangard-yug.ru/auto/jaecoo/j-7_SUV_5D</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2439900</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="H168" t="n">
@@ -8533,7 +8603,7 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>2439900</v>
+        <v>2289900</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -8590,7 +8660,7 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>3199000</v>
+        <v>3099000</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -8627,7 +8697,17 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/jetour/Dashing</t>
+          <t>https://krd93-auto.ru/auto/jetour/dashing/</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1399900</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="H170" t="n">
@@ -8639,7 +8719,7 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>1399900</v>
+        <v>1599900</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -8721,7 +8801,7 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>2659000</v>
+        <v>2579000</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -8761,6 +8841,16 @@
           <t>https://rostov-avto-1.ru/tproduct/532090534-190915834581-jetour-x70-plus</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1899900</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/jetour/x70_plus/</t>
+        </is>
+      </c>
       <c r="H173" t="n">
         <v>2109900</v>
       </c>
@@ -8803,11 +8893,21 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>2249900</v>
+        <v>2239900</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
           <t>https://avangard-yug.ru/auto/jetour/X-90-Plus</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2239900</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>https://krd93-auto.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="H174" t="n">
@@ -8819,7 +8919,7 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>2249900</v>
+        <v>2239900</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -8864,7 +8964,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/jetta/va3_va3</t>
+          <t>https://krd93-auto.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -8878,7 +8978,7 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>890000</v>
+        <v>1199000</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -8923,7 +9023,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/jetta/vs5_vs5</t>
+          <t>https://krd93-auto.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -8937,7 +9037,7 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>1190000</v>
+        <v>1499000</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -8982,7 +9082,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/jetta/vs7_vs7</t>
+          <t>https://krd93-auto.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -8996,7 +9096,7 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>1349000</v>
+        <v>1759000</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -9041,7 +9141,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/kaiyi/E5</t>
+          <t>https://krd93-auto.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9063,7 +9163,7 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>1299000</v>
+        <v>1475000</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -9108,7 +9208,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/kaiyi/X3_SUV_5D</t>
+          <t>https://krd93-auto.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9130,7 +9230,7 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>1417650</v>
+        <v>1499000</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -9171,7 +9271,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1790000</v>
+        <v>1599000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -9180,7 +9280,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1790000</t>
+          <t>1599000</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -9197,7 +9297,7 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>1790000</v>
+        <v>1599000</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -9238,7 +9338,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>2197900</v>
+        <v>2029000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -9264,7 +9364,7 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>2197900</v>
+        <v>2029000</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -9346,16 +9446,16 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>713000</v>
+        <v>1013000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/kia/ceed/</t>
+          <t>https://car-krasnodar.ru/cars/kia/new_ceed/</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>713000</t>
+          <t>1013000</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -9430,16 +9530,16 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>723000</v>
+        <v>1023000</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/kia/ceed_sw/</t>
+          <t>https://car-krasnodar.ru/cars/kia/new_ceed_sw/</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>723000</t>
+          <t>1023000</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -9514,7 +9614,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>850000</v>
+        <v>989900</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -9523,7 +9623,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>850000</t>
+          <t>989900</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -9598,16 +9698,16 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1149000</v>
+        <v>1379900</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/kia/k5/</t>
+          <t>https://ac-pegas.ru/auto/kia/k5/sedan</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>1379900</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -9809,7 +9909,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>564000</v>
+        <v>623900</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -9818,7 +9918,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>564000</t>
+          <t>623900</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -9860,7 +9960,7 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>639900</v>
+        <v>1349900</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -9893,16 +9993,16 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>650000</v>
+        <v>759900</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/kia/rio_x/</t>
+          <t>https://ac-pegas.ru/auto/kia/rio-x/hatch</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>759900</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -9919,7 +10019,7 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>857900</v>
+        <v>1399900</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -9952,16 +10052,16 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>557000</v>
+        <v>857000</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/kia/rio_x-line/</t>
+          <t>https://car-krasnodar.ru/cars/kia/rio_x_line/</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>557000</t>
+          <t>857000</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -9995,16 +10095,16 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>790000</v>
+        <v>989900</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/kia/seltos/</t>
+          <t>https://ac-pegas.ru/auto/kia/seltos/seltos</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>989900</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -10169,7 +10269,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>638000</v>
+        <v>879900</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -10178,7 +10278,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>638000</t>
+          <t>879900</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -10652,7 +10752,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>680900</v>
+        <v>780900</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -10660,7 +10760,7 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>680900</v>
+        <v>780900</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -13050,7 +13150,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>1749900</v>
+        <v>1649900</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -13076,7 +13176,7 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>1749900</v>
+        <v>1649900</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -13109,16 +13209,16 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>1186930</v>
+        <v>1129900</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-964446905451-livan-x3-pro</t>
+          <t>https://avangard-yug.ru/auto/livan/x3pro</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>1279900</t>
+          <t>1186930</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -13135,7 +13235,7 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>1279900</v>
+        <v>1129900</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -13176,7 +13276,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1829900</v>
+        <v>1779900</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13202,7 +13302,7 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>1829900</v>
+        <v>1779900</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -13777,16 +13877,16 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>960000</v>
+        <v>1159000</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/moskvich/3/</t>
+          <t>https://avangard-yug.ru/auto/moskvich/moskvich3_cuv</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>960000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -13803,7 +13903,7 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>1170000</v>
+        <v>1159000</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -13879,7 +13979,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>1536000</v>
+        <v>1590000</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -13895,7 +13995,7 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>1536000</v>
+        <v>1590000</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -14002,7 +14102,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>790000</v>
+        <v>880000</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14011,7 +14111,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>790000</t>
+          <t>880000</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -14186,7 +14286,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>855000</v>
+        <v>1155000</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -14195,7 +14295,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>855000</t>
+          <t>1155000</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -14312,7 +14412,7 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>1329900</v>
+        <v>1539900</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -14353,16 +14453,16 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>1409900</v>
+        <v>1319900</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/omoda/s5/</t>
+          <t>https://avangard-yug.ru/auto/omoda/omoda-s5</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>1409900</t>
+          <t>1459900</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -14379,7 +14479,7 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>1459900</v>
+        <v>1319900</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -14420,7 +14520,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>2039900</v>
+        <v>1959900</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14436,7 +14536,7 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>2039900</v>
+        <v>1959900</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -14568,7 +14668,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>339000</v>
+        <v>390000</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14577,7 +14677,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>390000</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -14627,7 +14727,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>339000</v>
+        <v>400000</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14636,7 +14736,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>400000</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -14686,7 +14786,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>389000</v>
+        <v>485000</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14695,7 +14795,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>389000</t>
+          <t>485000</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -14745,16 +14845,16 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>690000</v>
+        <v>938000</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/renault/arkana/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-887215692741-renault-arkana</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>690000</t>
+          <t>938000</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -14804,7 +14904,7 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>1024000</v>
+        <v>1399000</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -14870,16 +14970,16 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>650000</v>
+        <v>749000</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/renault/duster/</t>
+          <t>https://ac-pegas.ru/auto/renault/duster-new/cuv</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>749000</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -14896,7 +14996,7 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>765000</v>
+        <v>1199000</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -14996,7 +15096,7 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>894000</v>
+        <v>1249000</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -15080,7 +15180,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>490000</v>
+        <v>569000</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -15089,7 +15189,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>490000</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -15139,7 +15239,7 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>583000</v>
+        <v>629000</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -15172,16 +15272,16 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>530000</v>
+        <v>689000</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/renault/logan_stepway/</t>
+          <t>https://ac-pegas.ru/auto/renault/logan-stepway/sedan</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>530000</t>
+          <t>689000</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -15198,7 +15298,7 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>708000</v>
+        <v>799000</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -15282,7 +15382,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>520000</v>
+        <v>579000</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -15291,7 +15391,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>579000</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -15341,7 +15441,7 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>593000</v>
+        <v>759000</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -15374,7 +15474,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>550000</v>
+        <v>739000</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15383,7 +15483,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>550000</t>
+          <t>739000</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -15433,7 +15533,7 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>751000</v>
+        <v>849000</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -15632,16 +15732,16 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>740000</v>
+        <v>1040000</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/skoda/karoq/</t>
+          <t>https://car-krasnodar.ru/cars/skoda/karoq/</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>1040000</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -16064,16 +16164,16 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>840000</v>
+        <v>1055000</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/skoda/octavia/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-359495984671-skoda-novaya-octavia</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>1140000</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -16107,16 +16207,16 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>520000</v>
+        <v>676000</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>https://krd93-auto.ru/auto/skoda/rapid/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-238470977211-skoda-rapid</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>679000</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -16199,7 +16299,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>1222000</v>
+        <v>1230000</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -16208,7 +16308,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>1222000</t>
+          <t>1230000</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -16393,7 +16493,7 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>2170000</v>
+        <v>1699000</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -16452,7 +16552,7 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>1510000</v>
+        <v>1309000</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -16511,7 +16611,7 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>1680000</v>
+        <v>1349900</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -16570,7 +16670,7 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>2180000</v>
+        <v>1399900</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>

--- a/xlsx/krasnodar.xlsx
+++ b/xlsx/krasnodar.xlsx
@@ -863,15 +863,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1349000</v>
+        <v>1051000</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://ac-pegas.ru/auto/belgee/x-50/suv_5d</t>
+          <t>https://car-krasnodar.ru/cars/belgee/x50/</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2142000</v>
+        <v>1051000</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -912,11 +912,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1564990</v>
+        <v>1054000</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/belgee/x70_suv-1gen</t>
+          <t>https://car-krasnodar.ru/cars/belgee/x70/</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1054000</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/belgee/x70/</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -11803,7 +11811,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>451710</v>
+        <v>454710</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11835,7 +11843,7 @@
         </is>
       </c>
       <c r="N238" t="n">
-        <v>451710</v>
+        <v>454710</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>

--- a/xlsx/krasnodar.xlsx
+++ b/xlsx/krasnodar.xlsx
@@ -11262,7 +11262,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -11272,63 +11272,63 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>5008 New</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>2939000</v>
+        <v>2729000</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/peugeot/5008/</t>
+          <t>https://car-krasnodar.ru/cars/peugeot/4008/</t>
         </is>
       </c>
       <c r="H275" t="n">
-        <v>2939000</v>
+        <v>2729000</v>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/peugeot/5008/</t>
+          <t>https://car-krasnodar.ru/cars/peugeot/4008/</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Peugeot</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Gentra</t>
+          <t>5008 New</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>679000</v>
+        <v>2939000</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/ravon/gentra/</t>
+          <t>https://car-krasnodar.ru/cars/peugeot/5008/</t>
         </is>
       </c>
       <c r="H276" t="n">
-        <v>679000</v>
+        <v>2939000</v>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/ravon/gentra/</t>
+          <t>https://car-krasnodar.ru/cars/peugeot/5008/</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -11338,38 +11338,30 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>Gentra</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>507000</v>
+        <v>679000</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/ravon/nexia-r3</t>
+          <t>https://car-krasnodar.ru/cars/ravon/gentra/</t>
         </is>
       </c>
       <c r="H277" t="n">
-        <v>639000</v>
+        <v>679000</v>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/ravon/nexia_r3/</t>
-        </is>
-      </c>
-      <c r="J277" t="n">
-        <v>507000</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/ravon/nexia-r3</t>
+          <t>https://car-krasnodar.ru/cars/ravon/gentra/</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -11379,15 +11371,15 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>519000</v>
+        <v>507000</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/ravon/r2</t>
+          <t>https://avangard-yug.ru/auto/ravon/nexia-r3</t>
         </is>
       </c>
       <c r="H278" t="n">
@@ -11395,22 +11387,22 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/ravon/r2/</t>
+          <t>https://car-krasnodar.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>519000</v>
+        <v>507000</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/ravon/r2</t>
+          <t>https://avangard-yug.ru/auto/ravon/nexia-r3</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -11420,79 +11412,79 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>570000</v>
+        <v>519000</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/ravon/r4</t>
+          <t>https://avangard-yug.ru/auto/ravon/r2</t>
         </is>
       </c>
       <c r="H279" t="n">
-        <v>689000</v>
+        <v>639000</v>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/ravon/r4/</t>
+          <t>https://car-krasnodar.ru/cars/ravon/r2/</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>570000</v>
+        <v>519000</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/ravon/r4</t>
+          <t>https://avangard-yug.ru/auto/ravon/r2</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>938000</v>
+        <v>570000</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-887215692741-renault-arkana</t>
+          <t>https://avangard-yug.ru/auto/ravon/r4</t>
         </is>
       </c>
       <c r="H280" t="n">
-        <v>990000</v>
+        <v>689000</v>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/renault/arkana/</t>
-        </is>
-      </c>
-      <c r="N280" t="n">
-        <v>938000</v>
-      </c>
-      <c r="O280" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-887215692741-renault-arkana</t>
+          <t>https://car-krasnodar.ru/cars/ravon/r4/</t>
+        </is>
+      </c>
+      <c r="J280" t="n">
+        <v>570000</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/ravon/r4</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -11502,30 +11494,38 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Arkana New</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1399000</v>
+        <v>938000</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/arkana</t>
-        </is>
-      </c>
-      <c r="J281" t="n">
-        <v>1399000</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/renault/arkana</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-887215692741-renault-arkana</t>
+        </is>
+      </c>
+      <c r="H281" t="n">
+        <v>990000</v>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="N281" t="n">
+        <v>938000</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-887215692741-renault-arkana</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -11535,30 +11535,30 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Arkana New</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>770000</v>
+        <v>1399000</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-383385312281-renault-duster</t>
-        </is>
-      </c>
-      <c r="N282" t="n">
-        <v>770000</v>
-      </c>
-      <c r="O282" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-383385312281-renault-duster</t>
+          <t>https://avangard-yug.ru/auto/renault/arkana</t>
+        </is>
+      </c>
+      <c r="J282" t="n">
+        <v>1399000</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/renault/arkana</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -11568,46 +11568,30 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>768000</v>
+        <v>770000</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-631442336791-renault-novii-duster</t>
-        </is>
-      </c>
-      <c r="H283" t="n">
-        <v>950000</v>
-      </c>
-      <c r="I283" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/renault/duster_new/</t>
-        </is>
-      </c>
-      <c r="J283" t="n">
-        <v>1199000</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/renault/duster</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-383385312281-renault-duster</t>
         </is>
       </c>
       <c r="N283" t="n">
-        <v>768000</v>
+        <v>770000</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-631442336791-renault-novii-duster</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-383385312281-renault-duster</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -11617,38 +11601,46 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>963000</v>
+        <v>768000</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-499067990721-renault-kaptur</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-631442336791-renault-novii-duster</t>
         </is>
       </c>
       <c r="H284" t="n">
-        <v>970000</v>
+        <v>950000</v>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/renault/kaptur/</t>
+          <t>https://car-krasnodar.ru/cars/renault/duster_new/</t>
+        </is>
+      </c>
+      <c r="J284" t="n">
+        <v>1199000</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/renault/duster</t>
         </is>
       </c>
       <c r="N284" t="n">
-        <v>963000</v>
+        <v>768000</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-499067990721-renault-kaptur</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-631442336791-renault-novii-duster</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -11658,30 +11650,38 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Kaptur New</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>1249000</v>
+        <v>963000</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/kaptur</t>
-        </is>
-      </c>
-      <c r="J285" t="n">
-        <v>1249000</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/renault/kaptur</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-499067990721-renault-kaptur</t>
+        </is>
+      </c>
+      <c r="H285" t="n">
+        <v>970000</v>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/renault/kaptur/</t>
+        </is>
+      </c>
+      <c r="N285" t="n">
+        <v>963000</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-499067990721-renault-kaptur</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -11691,38 +11691,30 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Koleos</t>
+          <t>Kaptur New</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>1553000</v>
+        <v>1249000</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/koleos</t>
+          <t>https://avangard-yug.ru/auto/renault/kaptur</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>1553000</v>
+        <v>1249000</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/koleos</t>
-        </is>
-      </c>
-      <c r="N286" t="n">
-        <v>1561000</v>
-      </c>
-      <c r="O286" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-326133296231-renault-koleos</t>
+          <t>https://avangard-yug.ru/auto/renault/kaptur</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -11732,38 +11724,38 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Koleos</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>583000</v>
+        <v>1553000</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-833829508301-renault-logan</t>
-        </is>
-      </c>
-      <c r="H287" t="n">
-        <v>790000</v>
-      </c>
-      <c r="I287" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/renault/logan/</t>
+          <t>https://avangard-yug.ru/auto/renault/koleos</t>
+        </is>
+      </c>
+      <c r="J287" t="n">
+        <v>1553000</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/renault/koleos</t>
         </is>
       </c>
       <c r="N287" t="n">
-        <v>583000</v>
+        <v>1561000</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-833829508301-renault-logan</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-326133296231-renault-koleos</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -11773,30 +11765,38 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Logan New</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>629000</v>
+        <v>583000</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/logan</t>
-        </is>
-      </c>
-      <c r="J288" t="n">
-        <v>629000</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/renault/logan</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-833829508301-renault-logan</t>
+        </is>
+      </c>
+      <c r="H288" t="n">
+        <v>790000</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/renault/logan/</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
+        <v>583000</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-833829508301-renault-logan</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -11806,46 +11806,30 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan New</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>708000</v>
+        <v>629000</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-237884719901-renault-logan-stepway</t>
-        </is>
-      </c>
-      <c r="H289" t="n">
-        <v>830000</v>
-      </c>
-      <c r="I289" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/renault/logan_stepway/</t>
+          <t>https://avangard-yug.ru/auto/renault/logan</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>799000</v>
+        <v>629000</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/logan-stepway</t>
-        </is>
-      </c>
-      <c r="N289" t="n">
-        <v>708000</v>
-      </c>
-      <c r="O289" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-237884719901-renault-logan-stepway</t>
+          <t>https://avangard-yug.ru/auto/renault/logan</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -11855,30 +11839,46 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>1110000</v>
+        <v>708000</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-812699225921-renault-logan-stepway-city</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-237884719901-renault-logan-stepway</t>
+        </is>
+      </c>
+      <c r="H290" t="n">
+        <v>830000</v>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/renault/logan_stepway/</t>
+        </is>
+      </c>
+      <c r="J290" t="n">
+        <v>799000</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/renault/logan-stepway</t>
         </is>
       </c>
       <c r="N290" t="n">
-        <v>1110000</v>
+        <v>708000</v>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-812699225921-renault-logan-stepway-city</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-237884719901-renault-logan-stepway</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -11888,38 +11888,30 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>593000</v>
+        <v>1110000</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-749822540851-renault-sandero</t>
-        </is>
-      </c>
-      <c r="H291" t="n">
-        <v>820000</v>
-      </c>
-      <c r="I291" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/renault/sandero/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-812699225921-renault-logan-stepway-city</t>
         </is>
       </c>
       <c r="N291" t="n">
-        <v>593000</v>
+        <v>1110000</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-749822540851-renault-sandero</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-812699225921-renault-logan-stepway-city</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -11929,30 +11921,38 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Sandero New</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>759000</v>
+        <v>593000</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/sandero</t>
-        </is>
-      </c>
-      <c r="J292" t="n">
-        <v>759000</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/renault/sandero</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-749822540851-renault-sandero</t>
+        </is>
+      </c>
+      <c r="H292" t="n">
+        <v>820000</v>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/renault/sandero/</t>
+        </is>
+      </c>
+      <c r="N292" t="n">
+        <v>593000</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-749822540851-renault-sandero</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -11962,38 +11962,30 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero New</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>753000</v>
+        <v>759000</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-554863097871-renault-sandero-stepway</t>
-        </is>
-      </c>
-      <c r="H293" t="n">
-        <v>850000</v>
-      </c>
-      <c r="I293" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/renault/sandero_stepway/</t>
-        </is>
-      </c>
-      <c r="N293" t="n">
-        <v>753000</v>
-      </c>
-      <c r="O293" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-554863097871-renault-sandero-stepway</t>
+          <t>https://avangard-yug.ru/auto/renault/sandero</t>
+        </is>
+      </c>
+      <c r="J293" t="n">
+        <v>759000</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/renault/sandero</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -12003,30 +11995,38 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Sandero Stepway New</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>849000</v>
+        <v>753000</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/sandero-stepway</t>
-        </is>
-      </c>
-      <c r="J294" t="n">
-        <v>849000</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/renault/sandero-stepway</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-554863097871-renault-sandero-stepway</t>
+        </is>
+      </c>
+      <c r="H294" t="n">
+        <v>850000</v>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="N294" t="n">
+        <v>753000</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-554863097871-renault-sandero-stepway</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>564</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -12036,63 +12036,63 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Sandero Stepway New</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>1170000</v>
+        <v>849000</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-839853373971-renault-sandero-stepway-city</t>
-        </is>
-      </c>
-      <c r="N295" t="n">
-        <v>1170000</v>
-      </c>
-      <c r="O295" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-839853373971-renault-sandero-stepway-city</t>
+          <t>https://avangard-yug.ru/auto/renault/sandero-stepway</t>
+        </is>
+      </c>
+      <c r="J295" t="n">
+        <v>849000</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/renault/sandero-stepway</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>2043000</v>
+        <v>1170000</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/swm/g01/</t>
-        </is>
-      </c>
-      <c r="H296" t="n">
-        <v>2043000</v>
-      </c>
-      <c r="I296" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/swm/g01/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-839853373971-renault-sandero-stepway-city</t>
+        </is>
+      </c>
+      <c r="N296" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-839853373971-renault-sandero-stepway-city</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -12102,30 +12102,30 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2255000</v>
+        <v>2043000</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/swm/g01f/</t>
+          <t>https://car-krasnodar.ru/cars/swm/g01/</t>
         </is>
       </c>
       <c r="H297" t="n">
-        <v>2255000</v>
+        <v>2043000</v>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/swm/g01f/</t>
+          <t>https://car-krasnodar.ru/cars/swm/g01/</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -12135,79 +12135,63 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2284000</v>
+        <v>2255000</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/swm/g05_pro/</t>
+          <t>https://car-krasnodar.ru/cars/swm/g01f/</t>
         </is>
       </c>
       <c r="H298" t="n">
-        <v>2284000</v>
+        <v>2255000</v>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/swm/g05_pro/</t>
+          <t>https://car-krasnodar.ru/cars/swm/g01f/</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1040000</v>
+        <v>2284000</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/skoda/karoq/</t>
+          <t>https://car-krasnodar.ru/cars/swm/g05_pro/</t>
         </is>
       </c>
       <c r="H299" t="n">
-        <v>1040000</v>
+        <v>2284000</v>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/skoda/karoq/</t>
-        </is>
-      </c>
-      <c r="J299" t="n">
-        <v>1557000</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/skoda/karoq</t>
-        </is>
-      </c>
-      <c r="N299" t="n">
-        <v>1215000</v>
-      </c>
-      <c r="O299" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-244153322751-skoda-karoq</t>
+          <t>https://car-krasnodar.ru/cars/swm/g05_pro/</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -12217,38 +12201,46 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>1230000</v>
+        <v>1040000</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/skoda/kodiaq/</t>
+          <t>https://car-krasnodar.ru/cars/skoda/karoq/</t>
         </is>
       </c>
       <c r="H300" t="n">
-        <v>1230000</v>
+        <v>1040000</v>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/skoda/kodiaq/</t>
+          <t>https://car-krasnodar.ru/cars/skoda/karoq/</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>1662000</v>
+        <v>1557000</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/kodiaq-2020</t>
+          <t>https://avangard-yug.ru/auto/skoda/karoq</t>
+        </is>
+      </c>
+      <c r="N300" t="n">
+        <v>1215000</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-244153322751-skoda-karoq</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -12258,30 +12250,38 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Kodiaq Hockey Edition</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1581000</v>
+        <v>1230000</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-841708426781-skoda-kodiaq-hockey-edition</t>
-        </is>
-      </c>
-      <c r="N301" t="n">
-        <v>1581000</v>
-      </c>
-      <c r="O301" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-841708426781-skoda-kodiaq-hockey-edition</t>
+          <t>https://car-krasnodar.ru/cars/skoda/kodiaq/</t>
+        </is>
+      </c>
+      <c r="H301" t="n">
+        <v>1230000</v>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/skoda/kodiaq/</t>
+        </is>
+      </c>
+      <c r="J301" t="n">
+        <v>1662000</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/skoda/kodiaq-2020</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -12291,38 +12291,30 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Kodiaq Hockey Edition</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1659000</v>
+        <v>1581000</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-712707404121-skoda-obnovlennii-kodiaq</t>
-        </is>
-      </c>
-      <c r="J302" t="n">
-        <v>1857000</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/skoda/kodiaq</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-841708426781-skoda-kodiaq-hockey-edition</t>
         </is>
       </c>
       <c r="N302" t="n">
-        <v>1659000</v>
+        <v>1581000</v>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-712707404121-skoda-obnovlennii-kodiaq</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-841708426781-skoda-kodiaq-hockey-edition</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -12332,30 +12324,38 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Kodiaq Scout</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>3375000</v>
+        <v>1659000</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-676582321101-skoda-kodiaq-scout</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-712707404121-skoda-obnovlennii-kodiaq</t>
+        </is>
+      </c>
+      <c r="J303" t="n">
+        <v>1857000</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/skoda/kodiaq</t>
         </is>
       </c>
       <c r="N303" t="n">
-        <v>3375000</v>
+        <v>1659000</v>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-676582321101-skoda-kodiaq-scout</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-712707404121-skoda-obnovlennii-kodiaq</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -12365,30 +12365,30 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Kodiaq Scout</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>1140000</v>
+        <v>3375000</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/skoda/octavia/</t>
-        </is>
-      </c>
-      <c r="H304" t="n">
-        <v>1140000</v>
-      </c>
-      <c r="I304" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/skoda/octavia/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-676582321101-skoda-kodiaq-scout</t>
+        </is>
+      </c>
+      <c r="N304" t="n">
+        <v>3375000</v>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-676582321101-skoda-kodiaq-scout</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -12398,30 +12398,30 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Octavia A8</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1257000</v>
+        <v>1140000</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/octavia</t>
-        </is>
-      </c>
-      <c r="J305" t="n">
-        <v>1257000</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/skoda/octavia</t>
+          <t>https://car-krasnodar.ru/cars/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="H305" t="n">
+        <v>1140000</v>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -12431,30 +12431,30 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Octavia A8</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>1055000</v>
+        <v>1257000</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-359495984671-skoda-novaya-octavia</t>
-        </is>
-      </c>
-      <c r="N306" t="n">
-        <v>1055000</v>
-      </c>
-      <c r="O306" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-359495984671-skoda-novaya-octavia</t>
+          <t>https://avangard-yug.ru/auto/skoda/octavia</t>
+        </is>
+      </c>
+      <c r="J306" t="n">
+        <v>1257000</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/skoda/octavia</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -12464,38 +12464,30 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>676000</v>
+        <v>1055000</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-238470977211-skoda-rapid</t>
-        </is>
-      </c>
-      <c r="H307" t="n">
-        <v>820000</v>
-      </c>
-      <c r="I307" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/skoda/rapid/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-359495984671-skoda-novaya-octavia</t>
         </is>
       </c>
       <c r="N307" t="n">
-        <v>676000</v>
+        <v>1055000</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-238470977211-skoda-rapid</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-359495984671-skoda-novaya-octavia</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -12505,30 +12497,38 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Rapid New</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>695000</v>
+        <v>676000</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/rapid</t>
-        </is>
-      </c>
-      <c r="J308" t="n">
-        <v>695000</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/skoda/rapid</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-238470977211-skoda-rapid</t>
+        </is>
+      </c>
+      <c r="H308" t="n">
+        <v>820000</v>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/skoda/rapid/</t>
+        </is>
+      </c>
+      <c r="N308" t="n">
+        <v>676000</v>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-238470977211-skoda-rapid</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -12538,46 +12538,30 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid New</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>1522000</v>
+        <v>695000</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/skoda/superb/</t>
-        </is>
-      </c>
-      <c r="H309" t="n">
-        <v>1522000</v>
-      </c>
-      <c r="I309" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/skoda/superb/</t>
+          <t>https://avangard-yug.ru/auto/skoda/rapid</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>2265000</v>
+        <v>695000</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/superb_sedan</t>
-        </is>
-      </c>
-      <c r="N309" t="n">
-        <v>1740000</v>
-      </c>
-      <c r="O309" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-375904118311-skoda-superb</t>
+          <t>https://avangard-yug.ru/auto/skoda/rapid</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -12587,30 +12571,46 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Superb Combi New</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>2431000</v>
+        <v>1522000</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/superb-combi</t>
+          <t>https://car-krasnodar.ru/cars/skoda/superb/</t>
+        </is>
+      </c>
+      <c r="H310" t="n">
+        <v>1522000</v>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/skoda/superb/</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>2431000</v>
+        <v>2265000</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/superb-combi</t>
+          <t>https://avangard-yug.ru/auto/skoda/superb_sedan</t>
+        </is>
+      </c>
+      <c r="N310" t="n">
+        <v>1740000</v>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-375904118311-skoda-superb</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -12620,71 +12620,63 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Superb New</t>
+          <t>Superb Combi New</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>2138000</v>
+        <v>2431000</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/superb</t>
+          <t>https://avangard-yug.ru/auto/skoda/superb-combi</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>2138000</v>
+        <v>2431000</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/superb</t>
+          <t>https://avangard-yug.ru/auto/skoda/superb-combi</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb New</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>1699000</v>
+        <v>2138000</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/solaris/hc_suv-1gen</t>
-        </is>
-      </c>
-      <c r="H312" t="n">
-        <v>2192000</v>
-      </c>
-      <c r="I312" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/solaris/hc/</t>
+          <t>https://avangard-yug.ru/auto/skoda/superb</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>1699000</v>
+        <v>2138000</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/solaris/hc_suv-1gen</t>
+          <t>https://avangard-yug.ru/auto/skoda/superb</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -12694,38 +12686,38 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>1309000</v>
+        <v>1699000</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/solaris/hs_sedan-1gen</t>
+          <t>https://avangard-yug.ru/auto/solaris/hc_suv-1gen</t>
         </is>
       </c>
       <c r="H313" t="n">
-        <v>1696000</v>
+        <v>2192000</v>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/solaris/hs/</t>
+          <t>https://car-krasnodar.ru/cars/solaris/hc/</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>1309000</v>
+        <v>1699000</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/solaris/hs_sedan-1gen</t>
+          <t>https://avangard-yug.ru/auto/solaris/hc_suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -12735,38 +12727,38 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>1349900</v>
+        <v>1309000</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/solaris/krs_sedan-1gen</t>
+          <t>https://avangard-yug.ru/auto/solaris/hs_sedan-1gen</t>
         </is>
       </c>
       <c r="H314" t="n">
-        <v>1759000</v>
+        <v>1696000</v>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/solaris/krs/</t>
+          <t>https://car-krasnodar.ru/cars/solaris/hs/</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>1349900</v>
+        <v>1309000</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/solaris/krs_sedan-1gen</t>
+          <t>https://avangard-yug.ru/auto/solaris/hs_sedan-1gen</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -12776,104 +12768,112 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>1399900</v>
+        <v>1349900</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/solaris/krx_hatchback-1gen</t>
+          <t>https://avangard-yug.ru/auto/solaris/krs_sedan-1gen</t>
         </is>
       </c>
       <c r="H315" t="n">
-        <v>1876000</v>
+        <v>1759000</v>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/solaris/krx/</t>
+          <t>https://car-krasnodar.ru/cars/solaris/krs/</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>1399900</v>
+        <v>1349900</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/solaris/krx_hatchback-1gen</t>
+          <t>https://avangard-yug.ru/auto/solaris/krs_sedan-1gen</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Soueast</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>DX8S</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>2699900</v>
+        <v>1399900</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/soueast/dx8s_cuv-1gen</t>
+          <t>https://avangard-yug.ru/auto/solaris/krx_hatchback-1gen</t>
+        </is>
+      </c>
+      <c r="H316" t="n">
+        <v>1876000</v>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/solaris/krx/</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>2699900</v>
+        <v>1399900</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/soueast/dx8s_cuv-1gen</t>
+          <t>https://avangard-yug.ru/auto/solaris/krx_hatchback-1gen</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Jimny New</t>
+          <t>DX8S</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>1587000</v>
+        <v>2699900</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/suzuki/new%20jimny_new%20jimny</t>
+          <t>https://avangard-yug.ru/auto/soueast/dx8s_cuv-1gen</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>1587000</v>
+        <v>2699900</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/suzuki/new%20jimny_new%20jimny</t>
+          <t>https://avangard-yug.ru/auto/soueast/dx8s_cuv-1gen</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>606</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -12883,30 +12883,30 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>Jimny New</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>1619000</v>
+        <v>1587000</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/suzuki/sx4_sedan</t>
+          <t>https://avangard-yug.ru/auto/suzuki/new%20jimny_new%20jimny</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>1619000</v>
+        <v>1587000</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/suzuki/sx4_sedan</t>
+          <t>https://avangard-yug.ru/auto/suzuki/new%20jimny_new%20jimny</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -12916,63 +12916,63 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Vitara</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>1469000</v>
+        <v>1619000</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/suzuki/vitara_vitara</t>
+          <t>https://avangard-yug.ru/auto/suzuki/sx4_sedan</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>1469000</v>
+        <v>1619000</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/suzuki/vitara_vitara</t>
+          <t>https://avangard-yug.ru/auto/suzuki/sx4_sedan</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Vitara</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>3200000</v>
+        <v>1469000</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/tank/300/</t>
-        </is>
-      </c>
-      <c r="H320" t="n">
-        <v>3200000</v>
-      </c>
-      <c r="I320" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/tank/300/</t>
+          <t>https://avangard-yug.ru/auto/suzuki/vitara_vitara</t>
+        </is>
+      </c>
+      <c r="J320" t="n">
+        <v>1469000</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/suzuki/vitara_vitara</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -12982,63 +12982,63 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>4299000</v>
+        <v>3200000</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/tank/500/</t>
+          <t>https://car-krasnodar.ru/cars/tank/300/</t>
         </is>
       </c>
       <c r="H321" t="n">
-        <v>4299000</v>
+        <v>3200000</v>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/tank/500/</t>
+          <t>https://car-krasnodar.ru/cars/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2165000</v>
+        <v>4299000</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/toyota/c-hr/</t>
+          <t>https://car-krasnodar.ru/cars/tank/500/</t>
         </is>
       </c>
       <c r="H322" t="n">
-        <v>2165000</v>
+        <v>4299000</v>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/toyota/c-hr/</t>
+          <t>https://car-krasnodar.ru/cars/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -13048,30 +13048,30 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>CH-R New</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>1842000</v>
+        <v>2165000</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/toyota/c-hr</t>
-        </is>
-      </c>
-      <c r="J323" t="n">
-        <v>1842000</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/toyota/c-hr</t>
+          <t>https://car-krasnodar.ru/cars/toyota/c-hr/</t>
+        </is>
+      </c>
+      <c r="H323" t="n">
+        <v>2165000</v>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/toyota/c-hr/</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -13081,30 +13081,30 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>CH-R New</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>2290000</v>
+        <v>1842000</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/toyota/camry/</t>
-        </is>
-      </c>
-      <c r="H324" t="n">
-        <v>2290000</v>
-      </c>
-      <c r="I324" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/toyota/camry/</t>
+          <t>https://avangard-yug.ru/auto/toyota/c-hr</t>
+        </is>
+      </c>
+      <c r="J324" t="n">
+        <v>1842000</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/toyota/c-hr</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -13114,46 +13114,30 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Camry New</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>1712500</v>
+        <v>2290000</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-182242764921-toyota-camry-new</t>
+          <t>https://car-krasnodar.ru/cars/toyota/camry/</t>
         </is>
       </c>
       <c r="H325" t="n">
-        <v>3513000</v>
+        <v>2290000</v>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/toyota/new_camry/</t>
-        </is>
-      </c>
-      <c r="J325" t="n">
-        <v>1978000</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/toyota/camry</t>
-        </is>
-      </c>
-      <c r="N325" t="n">
-        <v>1712500</v>
-      </c>
-      <c r="O325" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-182242764921-toyota-camry-new</t>
+          <t>https://car-krasnodar.ru/cars/toyota/camry/</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -13163,38 +13147,46 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>Camry New</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>1550000</v>
+        <v>1712500</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/toyota/corolla/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-182242764921-toyota-camry-new</t>
         </is>
       </c>
       <c r="H326" t="n">
-        <v>1550000</v>
+        <v>3513000</v>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/toyota/corolla/</t>
+          <t>https://car-krasnodar.ru/cars/toyota/new_camry/</t>
+        </is>
+      </c>
+      <c r="J326" t="n">
+        <v>1978000</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/toyota/camry</t>
         </is>
       </c>
       <c r="N326" t="n">
-        <v>1562000</v>
+        <v>1712500</v>
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-410306276111-toyota-corolla</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-182242764921-toyota-camry-new</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -13204,30 +13196,38 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Corolla New</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>1152000</v>
+        <v>1550000</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/toyota/corolla</t>
-        </is>
-      </c>
-      <c r="J327" t="n">
-        <v>1152000</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/toyota/corolla</t>
+          <t>https://car-krasnodar.ru/cars/toyota/corolla/</t>
+        </is>
+      </c>
+      <c r="H327" t="n">
+        <v>1550000</v>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/toyota/corolla/</t>
+        </is>
+      </c>
+      <c r="N327" t="n">
+        <v>1562000</v>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-410306276111-toyota-corolla</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>631</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -13237,30 +13237,30 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>Corolla New</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>1790000</v>
+        <v>1152000</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/toyota/rav4/</t>
-        </is>
-      </c>
-      <c r="H328" t="n">
-        <v>1790000</v>
-      </c>
-      <c r="I328" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/toyota/rav4/</t>
+          <t>https://avangard-yug.ru/auto/toyota/corolla</t>
+        </is>
+      </c>
+      <c r="J328" t="n">
+        <v>1152000</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/toyota/corolla</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -13270,71 +13270,71 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>RAV4 New</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>1859000</v>
+        <v>1790000</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-586328054651-toyota-rav4-new</t>
-        </is>
-      </c>
-      <c r="J329" t="n">
-        <v>2061000</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/toyota/rav-4</t>
-        </is>
-      </c>
-      <c r="N329" t="n">
-        <v>1859000</v>
-      </c>
-      <c r="O329" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-586328054651-toyota-rav4-new</t>
+          <t>https://car-krasnodar.ru/cars/toyota/rav4/</t>
+        </is>
+      </c>
+      <c r="H329" t="n">
+        <v>1790000</v>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/toyota/rav4/</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>632</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>RAV4 New</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>645000</v>
+        <v>1859000</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/uaz/hunter</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-586328054651-toyota-rav4-new</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>645000</v>
+        <v>2061000</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/uaz/hunter</t>
+          <t>https://avangard-yug.ru/auto/toyota/rav-4</t>
+        </is>
+      </c>
+      <c r="N330" t="n">
+        <v>1859000</v>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-586328054651-toyota-rav4-new</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -13344,38 +13344,30 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Patriot New</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>719000</v>
+        <v>645000</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/uaz/patriot</t>
-        </is>
-      </c>
-      <c r="H331" t="n">
-        <v>1144000</v>
-      </c>
-      <c r="I331" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/uaz/patriot/</t>
+          <t>https://avangard-yug.ru/auto/uaz/hunter</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>719000</v>
+        <v>645000</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/uaz/patriot</t>
+          <t>https://avangard-yug.ru/auto/uaz/hunter</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -13385,71 +13377,79 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Pickup New</t>
+          <t>Patriot New</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>737000</v>
+        <v>719000</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/uaz/patriot-pikap</t>
+          <t>https://avangard-yug.ru/auto/uaz/patriot</t>
         </is>
       </c>
       <c r="H332" t="n">
-        <v>1109500</v>
+        <v>1144000</v>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/uaz/pikap/</t>
+          <t>https://car-krasnodar.ru/cars/uaz/patriot/</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>737000</v>
+        <v>719000</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/uaz/patriot-pikap</t>
+          <t>https://avangard-yug.ru/auto/uaz/patriot</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Arteon</t>
+          <t>Pickup New</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>2339000</v>
+        <v>737000</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/arteon_liftback-1gen-rest</t>
+          <t>https://avangard-yug.ru/auto/uaz/patriot-pikap</t>
+        </is>
+      </c>
+      <c r="H333" t="n">
+        <v>1109500</v>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/uaz/pikap/</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>2339000</v>
+        <v>737000</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/arteon_liftback-1gen-rest</t>
+          <t>https://avangard-yug.ru/auto/uaz/patriot-pikap</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -13459,38 +13459,30 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Arteon</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>975000</v>
+        <v>2339000</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-863506188431-volkswagen-jetta</t>
-        </is>
-      </c>
-      <c r="H334" t="n">
-        <v>1585000</v>
-      </c>
-      <c r="I334" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="N334" t="n">
-        <v>975000</v>
-      </c>
-      <c r="O334" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-863506188431-volkswagen-jetta</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/arteon_liftback-1gen-rest</t>
+        </is>
+      </c>
+      <c r="J334" t="n">
+        <v>2339000</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/volkswagen/arteon_liftback-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -13500,30 +13492,38 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Jetta New</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>1465000</v>
+        <v>975000</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="J335" t="n">
-        <v>1465000</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/jetta</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-863506188431-volkswagen-jetta</t>
+        </is>
+      </c>
+      <c r="H335" t="n">
+        <v>1585000</v>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="N335" t="n">
+        <v>975000</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-863506188431-volkswagen-jetta</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>646</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -13533,38 +13533,30 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta New</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1460000</v>
+        <v>1465000</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-266141791761-volkswagen-passat</t>
-        </is>
-      </c>
-      <c r="H336" t="n">
-        <v>2738000</v>
-      </c>
-      <c r="I336" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="N336" t="n">
-        <v>1460000</v>
-      </c>
-      <c r="O336" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-266141791761-volkswagen-passat</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="J336" t="n">
+        <v>1465000</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -13574,38 +13566,38 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>730900</v>
+        <v>1460000</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-406016267311-volkswagen-polo</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-266141791761-volkswagen-passat</t>
         </is>
       </c>
       <c r="H337" t="n">
-        <v>1290000</v>
+        <v>2738000</v>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/volkswagen/polo/</t>
+          <t>https://car-krasnodar.ru/cars/volkswagen/passat/</t>
         </is>
       </c>
       <c r="N337" t="n">
-        <v>730900</v>
+        <v>1460000</v>
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-406016267311-volkswagen-polo</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-266141791761-volkswagen-passat</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -13615,30 +13607,38 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Polo New</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>760900</v>
+        <v>730900</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/polo</t>
-        </is>
-      </c>
-      <c r="J338" t="n">
-        <v>760900</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/polo</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-406016267311-volkswagen-polo</t>
+        </is>
+      </c>
+      <c r="H338" t="n">
+        <v>1290000</v>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="N338" t="n">
+        <v>730900</v>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-406016267311-volkswagen-polo</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -13648,38 +13648,30 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo New</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>1426900</v>
+        <v>760900</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/taos</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/polo</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>1426900</v>
+        <v>760900</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="N339" t="n">
-        <v>1475900</v>
-      </c>
-      <c r="O339" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-272168427241-volkswagen-taos</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/polo</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -13689,30 +13681,38 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Teramont</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>2777000</v>
+        <v>1426900</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/volkswagen/teramont/</t>
-        </is>
-      </c>
-      <c r="H340" t="n">
-        <v>2777000</v>
-      </c>
-      <c r="I340" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/volkswagen/teramont/</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="J340" t="n">
+        <v>1426900</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="N340" t="n">
+        <v>1475900</v>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-272168427241-volkswagen-taos</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -13722,46 +13722,30 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Teramont</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>1597000</v>
+        <v>2777000</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/tiguan-2019</t>
+          <t>https://car-krasnodar.ru/cars/volkswagen/teramont/</t>
         </is>
       </c>
       <c r="H341" t="n">
-        <v>2234900</v>
+        <v>2777000</v>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="J341" t="n">
-        <v>1597000</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/tiguan-2019</t>
-        </is>
-      </c>
-      <c r="N341" t="n">
-        <v>1597900</v>
-      </c>
-      <c r="O341" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-886798314871-volkswagen-tiguan</t>
+          <t>https://car-krasnodar.ru/cars/volkswagen/teramont/</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -13771,71 +13755,87 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>1649900</v>
+        <v>1597000</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/tiguan</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/tiguan-2019</t>
+        </is>
+      </c>
+      <c r="H342" t="n">
+        <v>2234900</v>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>1649900</v>
+        <v>1597000</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/tiguan</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/tiguan-2019</t>
         </is>
       </c>
       <c r="N342" t="n">
-        <v>1657900</v>
+        <v>1597900</v>
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-564624040771-volkswagen-novii-tiguan</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-886798314871-volkswagen-tiguan</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>X-Cross 7</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>1750000</v>
+        <v>1649900</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/xcite/x_cross_7/</t>
-        </is>
-      </c>
-      <c r="H343" t="n">
-        <v>1750000</v>
-      </c>
-      <c r="I343" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/xcite/x_cross_7/</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/tiguan</t>
+        </is>
+      </c>
+      <c r="J343" t="n">
+        <v>1649900</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/volkswagen/tiguan</t>
+        </is>
+      </c>
+      <c r="N343" t="n">
+        <v>1657900</v>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-564624040771-volkswagen-novii-tiguan</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -13845,71 +13845,63 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>X-Cross 7 New</t>
+          <t>X-Cross 7</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>1699000</v>
+        <v>1750000</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/xcite/x-cross-7_suv-1gen</t>
-        </is>
-      </c>
-      <c r="J344" t="n">
-        <v>1699000</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/xcite/x-cross-7_suv-1gen</t>
+          <t>https://car-krasnodar.ru/cars/xcite/x_cross_7/</t>
+        </is>
+      </c>
+      <c r="H344" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>https://car-krasnodar.ru/cars/xcite/x_cross_7/</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>676</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>X-Cross 7 New</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>989600</v>
+        <v>1699000</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/zotye/coupa</t>
+          <t>https://avangard-yug.ru/auto/xcite/x-cross-7_suv-1gen</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>989600</v>
+        <v>1699000</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/zotye/coupa</t>
-        </is>
-      </c>
-      <c r="N345" t="n">
-        <v>1112600</v>
-      </c>
-      <c r="O345" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-839083447801-zotye-coupa</t>
+          <t>https://avangard-yug.ru/auto/xcite/x-cross-7_suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -13919,64 +13911,72 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>T600</t>
+          <t>Coupa</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>771600</v>
+        <v>989600</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/zotye/t600</t>
+          <t>https://avangard-yug.ru/auto/zotye/coupa</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>771600</v>
+        <v>989600</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/zotye/t600</t>
+          <t>https://avangard-yug.ru/auto/zotye/coupa</t>
         </is>
       </c>
       <c r="N346" t="n">
-        <v>894600</v>
+        <v>1112600</v>
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-290403053961-zotye-t600</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-839083447801-zotye-coupa</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Новая машина, необходимо назначить id</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>peugeot</t>
+          <t>Zotye</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>4008</t>
+          <t>T600</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>2729000</v>
+        <v>771600</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://car-krasnodar.ru/cars/peugeot/4008/</t>
-        </is>
-      </c>
-      <c r="H347" t="n">
-        <v>2729000</v>
-      </c>
-      <c r="I347" t="inlineStr">
-        <is>
-          <t>https://car-krasnodar.ru/cars/peugeot/4008/</t>
+          <t>https://avangard-yug.ru/auto/zotye/t600</t>
+        </is>
+      </c>
+      <c r="J347" t="n">
+        <v>771600</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/zotye/t600</t>
+        </is>
+      </c>
+      <c r="N347" t="n">
+        <v>894600</v>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-290403053961-zotye-t600</t>
         </is>
       </c>
     </row>

--- a/xlsx/krasnodar.xlsx
+++ b/xlsx/krasnodar.xlsx
@@ -4881,7 +4881,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/haval/h-5_suv-2gen</t>
+          <t>https://krd93-car.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -4890,6 +4890,16 @@
       <c r="I106" t="inlineStr">
         <is>
           <t>https://avangard-yug.ru/auto/haval/h-5_suv-2gen</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>2599000</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/haval/h5/</t>
         </is>
       </c>
     </row>

--- a/xlsx/krasnodar.xlsx
+++ b/xlsx/krasnodar.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O324"/>
+  <dimension ref="A1:O323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9015,7 +9015,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -9025,30 +9025,30 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Granta Sport Sedan</t>
+          <t>Granta Sport Drive Active Liftback</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>949900</v>
+        <v>780900</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
-        </is>
-      </c>
-      <c r="N198" t="n">
-        <v>949900</v>
-      </c>
-      <c r="O198" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
+          <t>https://avangard-yug.ru/auto/lada/granta-sport_liftback</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>780900</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/lada/granta-sport_liftback</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -9058,30 +9058,30 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Granta Sportline</t>
+          <t>Granta Sport Liftback</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>949900</v>
+        <v>989900</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-sport_sedan</t>
+          <t>https://avangard-yug.ru/auto/lada/granta-sport_liftback-</t>
         </is>
       </c>
       <c r="H199" t="n">
-        <v>949900</v>
+        <v>989900</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-sport_sedan</t>
+          <t>https://avangard-yug.ru/auto/lada/granta-sport_liftback-</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -9091,30 +9091,38 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Granta Sportline Drive Active Liftback</t>
+          <t>Granta Sport Sedan</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>780900</v>
+        <v>949900</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-sport_liftback</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>780900</v>
+        <v>949900</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-sport_liftback</t>
+          <t>https://avangard-yug.ru/auto/lada/granta-sport_sedan</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>949900</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -9124,30 +9132,48 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Granta Sportline Liftback</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>989900</v>
+        <v>376800</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-sport_liftback-</t>
-        </is>
-      </c>
-      <c r="H201" t="n">
-        <v>989900</v>
-      </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-sport_liftback-</t>
+          <t>https://krd93-car.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="J201" t="n">
+        <v>382810</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-651754559111-lada-granta-universal</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>376800</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
+        <v>516040</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-wagon-5/</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -9157,48 +9183,30 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Universal New</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>376800</v>
+        <v>384300</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/granta_universal/</t>
-        </is>
-      </c>
-      <c r="J202" t="n">
-        <v>382810</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-651754559111-lada-granta-universal</t>
-        </is>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>376800</t>
-        </is>
-      </c>
-      <c r="M202" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/lada/granta_universal/</t>
-        </is>
-      </c>
-      <c r="N202" t="n">
-        <v>516040</v>
-      </c>
-      <c r="O202" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-wagon-5/</t>
+          <t>https://avangard-yug.ru/auto/lada/granta-universal</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>384300</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/lada/granta-universal</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -9208,30 +9216,38 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Granta Universal New</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>384300</v>
+        <v>504000</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-universal</t>
+          <t>https://avangard-yug.ru/auto/lada/largus_wagon-5</t>
         </is>
       </c>
       <c r="H203" t="n">
-        <v>384300</v>
+        <v>504000</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-universal</t>
+          <t>https://avangard-yug.ru/auto/lada/largus_wagon-5</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
+        <v>640000</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/largus/i-res-wagon-5/</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -9241,38 +9257,30 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Largus 7 мест</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>504000</v>
+        <v>580000</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/largus_wagon-5</t>
+          <t>https://avangard-yug.ru/auto/lada/largus_wagon-7</t>
         </is>
       </c>
       <c r="H204" t="n">
-        <v>504000</v>
+        <v>580000</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/largus_wagon-5</t>
-        </is>
-      </c>
-      <c r="N204" t="n">
-        <v>640000</v>
-      </c>
-      <c r="O204" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/largus/i-res-wagon-5/</t>
+          <t>https://avangard-yug.ru/auto/lada/largus_wagon-7</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -9282,30 +9290,38 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Largus 7 мест</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>580000</v>
+        <v>727000</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/largus_wagon-7</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/largus/i-res-wagon-cross-5/</t>
         </is>
       </c>
       <c r="H205" t="n">
-        <v>580000</v>
+        <v>727000</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/largus_wagon-7</t>
+          <t>https://avangard-yug.ru/auto/lada/largus-cross</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
+        <v>727000</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/largus/i-res-wagon-cross-5/</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -9315,38 +9331,30 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Largus Cross 7 мест</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>727000</v>
+        <v>767000</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/largus/i-res-wagon-cross-5/</t>
+          <t>https://avangard-yug.ru/auto/lada/largus-cross7</t>
         </is>
       </c>
       <c r="H206" t="n">
-        <v>727000</v>
+        <v>767000</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/largus-cross</t>
-        </is>
-      </c>
-      <c r="N206" t="n">
-        <v>727000</v>
-      </c>
-      <c r="O206" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/largus/i-res-wagon-cross-5/</t>
+          <t>https://avangard-yug.ru/auto/lada/largus-cross7</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -9356,30 +9364,40 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Largus Cross 7 мест</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>767000</v>
+        <v>629000</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/largus-cross7</t>
-        </is>
-      </c>
-      <c r="H207" t="n">
-        <v>767000</v>
-      </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/lada/largus-cross7</t>
+          <t>https://krd93-car.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+      <c r="J207" t="n">
+        <v>699310</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-261449813031-lada-novii-largus-cross</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>629000</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -9389,40 +9407,40 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>629000</v>
+        <v>501000</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/largus_cross/</t>
+          <t>https://krd93-car.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>699310</v>
+        <v>540310</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-261449813031-lada-novii-largus-cross</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-921337215121-lada-novii-largus</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>629000</t>
+          <t>501000</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/largus_cross/</t>
+          <t>https://krd93-car.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -9432,40 +9450,38 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>501000</v>
+        <v>790000</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/largus/</t>
-        </is>
-      </c>
-      <c r="J209" t="n">
-        <v>540310</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-921337215121-lada-novii-largus</t>
-        </is>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>501000</t>
-        </is>
-      </c>
-      <c r="M209" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/lada/largus/</t>
+          <t>https://avangard-yug.ru/auto/lada/largus-furgon</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>790000</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/lada/largus-furgon</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
+        <v>1132000</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/largus/i-res-van-5/</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -9475,38 +9491,40 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>790000</v>
+        <v>541610</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/largus-furgon</t>
-        </is>
-      </c>
-      <c r="H210" t="n">
-        <v>790000</v>
-      </c>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/lada/largus-furgon</t>
-        </is>
-      </c>
-      <c r="N210" t="n">
-        <v>1132000</v>
-      </c>
-      <c r="O210" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/largus/i-res-van-5/</t>
+          <t>https://krd93-car.ru/auto/lada/largus_furgon/</t>
+        </is>
+      </c>
+      <c r="J210" t="n">
+        <v>541610</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-296668873651-lada-novii-largus-furgon</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>541610</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -9516,40 +9534,30 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>541610</v>
+        <v>587000</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/largus_furgon/</t>
-        </is>
-      </c>
-      <c r="J211" t="n">
-        <v>541610</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-296668873651-lada-novii-largus-furgon</t>
-        </is>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>541610</t>
-        </is>
-      </c>
-      <c r="M211" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/lada/largus_furgon/</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-4x4</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>587000</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/lada/niva-4x4</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -9559,30 +9567,38 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>587000</v>
+        <v>454710</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-4x4</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-392526322201-lada-niva-legend-3-dv</t>
         </is>
       </c>
       <c r="H212" t="n">
-        <v>587000</v>
+        <v>618900</v>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-4x4</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-legend-3d</t>
+        </is>
+      </c>
+      <c r="J212" t="n">
+        <v>454710</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-392526322201-lada-niva-legend-3-dv</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -9592,38 +9608,46 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>454710</v>
+        <v>490410</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-392526322201-lada-niva-legend-3-dv</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-971159127651-lada-niva-legend-5-dv</t>
         </is>
       </c>
       <c r="H213" t="n">
-        <v>618900</v>
+        <v>688900</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-legend-3d</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-legend-5d</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>454710</v>
+        <v>490410</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-392526322201-lada-niva-legend-3-dv</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-971159127651-lada-niva-legend-5-dv</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
+        <v>688900</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/niva-legend/2021-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -9633,46 +9657,30 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend Bronto</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>490410</v>
+        <v>917900</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-971159127651-lada-niva-legend-5-dv</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-legend_bronto-3d-1gen-rest</t>
         </is>
       </c>
       <c r="H214" t="n">
-        <v>688900</v>
+        <v>917900</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-legend-5d</t>
-        </is>
-      </c>
-      <c r="J214" t="n">
-        <v>490410</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-971159127651-lada-niva-legend-5-dv</t>
-        </is>
-      </c>
-      <c r="N214" t="n">
-        <v>688900</v>
-      </c>
-      <c r="O214" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/niva-legend/2021-allroad-5/</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-legend_bronto-3d-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -9682,30 +9690,30 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Niva Legend Bronto</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>917900</v>
+        <v>669000</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-legend_bronto-3d-1gen-rest</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-offroad</t>
         </is>
       </c>
       <c r="H215" t="n">
-        <v>917900</v>
+        <v>669000</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-legend_bronto-3d-1gen-rest</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-offroad</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -9715,30 +9723,56 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>669000</v>
+        <v>549000</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-offroad</t>
+          <t>https://krd93-car.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="H216" t="n">
-        <v>669000</v>
+        <v>557000</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-offroad</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-travel</t>
+        </is>
+      </c>
+      <c r="J216" t="n">
+        <v>617100</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-806839628991-lada-niva-travel</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>549000</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/lada/niva_travel/</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>557000</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/niva/i-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -9748,56 +9782,38 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Urban 3 двери</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>549000</v>
+        <v>515000</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/niva_travel/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/2121/i-res-2020-allroad-urban-3/</t>
         </is>
       </c>
       <c r="H217" t="n">
-        <v>557000</v>
+        <v>515000</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-travel</t>
-        </is>
-      </c>
-      <c r="J217" t="n">
-        <v>617100</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-806839628991-lada-niva-travel</t>
-        </is>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>549000</t>
-        </is>
-      </c>
-      <c r="M217" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/lada/niva_travel/</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-urban-3d</t>
         </is>
       </c>
       <c r="N217" t="n">
-        <v>557000</v>
+        <v>515000</v>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/niva/i-res-allroad-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/2121/i-res-2020-allroad-urban-3/</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -9807,38 +9823,38 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Niva Urban 3 двери</t>
+          <t>Niva Urban 5 дверей</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>515000</v>
+        <v>553000</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/2121/i-res-2020-allroad-urban-3/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/2131/i-res-2020-allroad-urban-5/</t>
         </is>
       </c>
       <c r="H218" t="n">
-        <v>515000</v>
+        <v>553000</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-urban-3d</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-urban-5d</t>
         </is>
       </c>
       <c r="N218" t="n">
-        <v>515000</v>
+        <v>553000</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/2121/i-res-2020-allroad-urban-3/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/2131/i-res-2020-allroad-urban-5/</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -9848,38 +9864,40 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Niva Urban 5 дверей</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>553000</v>
+        <v>569000</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/2131/i-res-2020-allroad-urban-5/</t>
+          <t>https://krd93-car.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="H219" t="n">
-        <v>553000</v>
+        <v>869900</v>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-urban-5d</t>
-        </is>
-      </c>
-      <c r="N219" t="n">
-        <v>553000</v>
-      </c>
-      <c r="O219" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/2131/i-res-2020-allroad-urban-5/</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-cross</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>569000</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -9889,40 +9907,48 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>569000</v>
+        <v>619000</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://krd93-car.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="H220" t="n">
-        <v>869900</v>
+        <v>1039900</v>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-cross</t>
+          <t>https://avangard-yug.ru/auto/lada/Vesta-new_cross</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://krd93-car.ru/auto/lada/vesta_cross/</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>1039900</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-sedan-cross-4/</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -9932,48 +9958,48 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>619000</v>
+        <v>559000</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/vesta_cross/</t>
+          <t>https://krd93-car.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="H221" t="n">
-        <v>1039900</v>
+        <v>813900</v>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/Vesta-new_cross</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-sw</t>
+        </is>
+      </c>
+      <c r="J221" t="n">
+        <v>597010</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-825520861011-lada-vesta-sw</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>559000</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/vesta_cross/</t>
-        </is>
-      </c>
-      <c r="N221" t="n">
-        <v>1039900</v>
-      </c>
-      <c r="O221" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-sedan-cross-4/</t>
+          <t>https://krd93-car.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -9983,48 +10009,48 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>559000</v>
+        <v>619000</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://krd93-car.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="H222" t="n">
-        <v>813900</v>
+        <v>928900</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-sw</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-sw-cross</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>597010</v>
+        <v>693310</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-825520861011-lada-vesta-sw</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-361210199191-lada-vesta-sw-cross</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>559000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://krd93-car.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -10034,48 +10060,48 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>619000</v>
+        <v>669000</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://krd93-car.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="H223" t="n">
-        <v>928900</v>
+        <v>1069900</v>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-sw-cross</t>
-        </is>
-      </c>
-      <c r="J223" t="n">
-        <v>693310</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-361210199191-lada-vesta-sw-cross</t>
+          <t>https://avangard-yug.ru/auto/lada/vestaswcrossnew_vestaswcrossnew</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>669000</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://krd93-car.ru/auto/lada/vesta_sw_cross/</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>1069900</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-wagon-sw-cross-5/</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -10085,48 +10111,48 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>669000</v>
+        <v>609000</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://krd93-car.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="H224" t="n">
-        <v>1069900</v>
+        <v>999900</v>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vestaswcrossnew_vestaswcrossnew</t>
+          <t>https://avangard-yug.ru/auto/lada/vestaswnew_vestaswnew</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>669000</t>
+          <t>609000</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://krd93-car.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="N224" t="n">
-        <v>1069900</v>
+        <v>999900</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-wagon-sw-cross-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-wagon-sw-5/</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -10136,48 +10162,48 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>609000</v>
+        <v>519000</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/vesta_sw/</t>
+          <t>https://krd93-car.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="H225" t="n">
-        <v>999900</v>
+        <v>721900</v>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vestaswnew_vestaswnew</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta</t>
+        </is>
+      </c>
+      <c r="J225" t="n">
+        <v>524110</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-958313462721-lada-vesta</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>609000</t>
+          <t>519000</t>
         </is>
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/vesta_sw/</t>
-        </is>
-      </c>
-      <c r="N225" t="n">
-        <v>999900</v>
-      </c>
-      <c r="O225" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-wagon-sw-5/</t>
+          <t>https://krd93-car.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -10187,48 +10213,48 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>519000</v>
+        <v>639900</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/vesta_1/</t>
+          <t>https://krd93-car.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="H226" t="n">
-        <v>721900</v>
+        <v>1166900</v>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-cng</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>524110</v>
+        <v>639900</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-958313462721-lada-vesta</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-811977189801-lada-vesta-cng</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>519000</t>
+          <t>639900</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/vesta_1/</t>
+          <t>https://krd93-car.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -10238,48 +10264,48 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>639900</v>
+        <v>569000</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/vesta_cng/</t>
+          <t>https://krd93-car.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="H227" t="n">
-        <v>1166900</v>
+        <v>899900</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-cng</t>
-        </is>
-      </c>
-      <c r="J227" t="n">
-        <v>639900</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-811977189801-lada-vesta-cng</t>
+          <t>https://avangard-yug.ru/auto/lada/Vesta-new_SEDAN</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>639900</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/vesta_cng/</t>
+          <t>https://krd93-car.ru/auto/lada/vesta/</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
+        <v>899900</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -10289,48 +10315,38 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>569000</v>
+        <v>855810</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/vesta/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-696241181211-lada-vesta-sport</t>
         </is>
       </c>
       <c r="H228" t="n">
-        <v>899900</v>
+        <v>1297900</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/Vesta-new_SEDAN</t>
-        </is>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>569000</t>
-        </is>
-      </c>
-      <c r="M228" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/lada/vesta/</t>
-        </is>
-      </c>
-      <c r="N228" t="n">
-        <v>899900</v>
-      </c>
-      <c r="O228" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-sedan-4/</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-sport</t>
+        </is>
+      </c>
+      <c r="J228" t="n">
+        <v>855810</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-696241181211-lada-vesta-sport</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -10340,38 +10356,30 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sportline</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>855810</v>
+        <v>1375900</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-696241181211-lada-vesta-sport</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-sportline</t>
         </is>
       </c>
       <c r="H229" t="n">
-        <v>1297900</v>
+        <v>1375900</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-sport</t>
-        </is>
-      </c>
-      <c r="J229" t="n">
-        <v>855810</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-696241181211-lada-vesta-sport</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-sportline</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -10381,7 +10389,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Vesta Sportline</t>
+          <t>Vesta Sportline New</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -10389,22 +10397,22 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-sportline</t>
-        </is>
-      </c>
-      <c r="H230" t="n">
+          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1375900</v>
       </c>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-sportline</t>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -10414,30 +10422,48 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Vesta Sportline New</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1375900</v>
+        <v>499000</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
-        </is>
-      </c>
-      <c r="N231" t="n">
-        <v>1375900</v>
-      </c>
-      <c r="O231" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
+          <t>https://krd93-car.ru/auto/lada/xray/</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>506900</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/lada/xray</t>
+        </is>
+      </c>
+      <c r="J231" t="n">
+        <v>545900</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-723135507441-lada-xray</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>499000</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -10447,99 +10473,91 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>499000</v>
+        <v>591900</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/xray/</t>
+          <t>https://krd93-car.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="H232" t="n">
-        <v>506900</v>
+        <v>624000</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/xray</t>
+          <t>https://avangard-yug.ru/auto/lada/xray-cross</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>545900</v>
+        <v>591900</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-723135507441-lada-xray</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-598041051631-lada-xray-cross</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>591900</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/xray/</t>
+          <t>https://krd93-car.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>591900</v>
+        <v>430000</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/xray_cross/</t>
+          <t>https://krd93-car.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="H233" t="n">
-        <v>624000</v>
+        <v>622000</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/xray-cross</t>
-        </is>
-      </c>
-      <c r="J233" t="n">
-        <v>591900</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-598041051631-lada-xray-cross</t>
+          <t>https://avangard-yug.ru/auto/lifan/murman</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>591900</t>
+          <t>430000</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lada/xray_cross/</t>
+          <t>https://krd93-car.ru/auto/lifan/murman/</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -10549,40 +10567,40 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>430000</v>
+        <v>685000</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lifan/murman/</t>
+          <t>https://krd93-car.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="H234" t="n">
-        <v>622000</v>
+        <v>685000</v>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/murman</t>
+          <t>https://avangard-yug.ru/auto/lifan/myway</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>430000</t>
+          <t>685000</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lifan/murman/</t>
+          <t>https://krd93-car.ru/auto/lifan/myway/</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -10592,40 +10610,40 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>685000</v>
+        <v>439900</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lifan/myway/</t>
+          <t>https://krd93-car.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="H235" t="n">
-        <v>685000</v>
+        <v>496000</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/myway</t>
+          <t>https://avangard-yug.ru/auto/lifan/solano</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>685000</t>
+          <t>439900</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lifan/myway/</t>
+          <t>https://krd93-car.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -10635,40 +10653,40 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>439900</v>
+        <v>368000</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lifan/solano_ii/</t>
+          <t>https://krd93-car.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="H236" t="n">
-        <v>496000</v>
+        <v>464000</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/solano</t>
+          <t>https://avangard-yug.ru/auto/lifan/x50</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>439900</t>
+          <t>368000</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lifan/solano_ii/</t>
+          <t>https://krd93-car.ru/auto/lifan/x50/</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -10678,40 +10696,40 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>368000</v>
+        <v>479900</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lifan/x50/</t>
+          <t>https://krd93-car.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="H237" t="n">
-        <v>464000</v>
+        <v>654000</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/x50</t>
+          <t>https://avangard-yug.ru/auto/lifan/x60</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>368000</t>
+          <t>479900</t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lifan/x50/</t>
+          <t>https://krd93-car.ru/auto/lifan/x60/</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -10721,83 +10739,91 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>479900</v>
+        <v>737000</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lifan/x60/</t>
+          <t>https://krd93-car.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="H238" t="n">
-        <v>654000</v>
+        <v>737000</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/x60</t>
+          <t>https://avangard-yug.ru/auto/lifan/x70</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>479900</t>
+          <t>737000</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lifan/x60/</t>
+          <t>https://krd93-car.ru/auto/lifan/x70/</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>737000</v>
+        <v>1649900</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lifan/x70/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
         </is>
       </c>
       <c r="H239" t="n">
-        <v>737000</v>
+        <v>1649900</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/x70</t>
+          <t>https://avangard-yug.ru/auto/livan/s6pro_sedan-1gen</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>737000</t>
+          <t>1749900</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/lifan/x70/</t>
+          <t>https://krd93-car.ru/auto/livan/s6pro/</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
+        <v>1649900</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -10807,48 +10833,56 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1649900</v>
+        <v>1129900</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/livan/x3-pro/2022-allroad-5/</t>
         </is>
       </c>
       <c r="H240" t="n">
-        <v>1649900</v>
+        <v>1129900</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/livan/s6pro_sedan-1gen</t>
+          <t>https://avangard-yug.ru/auto/livan/x3pro</t>
+        </is>
+      </c>
+      <c r="J240" t="n">
+        <v>1186930</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-964446905451-livan-x3-pro</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>1749900</t>
+          <t>1186930</t>
         </is>
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/livan/s6pro/</t>
+          <t>https://krd93-car.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="N240" t="n">
-        <v>1649900</v>
+        <v>1129900</v>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/livan/x3-pro/2022-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -10858,107 +10892,81 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1129900</v>
+        <v>1779900</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/livan/x3-pro/2022-allroad-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
         </is>
       </c>
       <c r="H241" t="n">
-        <v>1129900</v>
+        <v>1779900</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/livan/x3pro</t>
-        </is>
-      </c>
-      <c r="J241" t="n">
-        <v>1186930</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-964446905451-livan-x3-pro</t>
+          <t>https://avangard-yug.ru/auto/livan/x6pro_suv-1gen</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>1186930</t>
+          <t>1829900</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/livan/x3pro/</t>
+          <t>https://krd93-car.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="N241" t="n">
-        <v>1129900</v>
+        <v>1779900</v>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/livan/x3-pro/2022-allroad-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1779900</v>
+        <v>1930000</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
+          <t>https://avangard-yug.ru/auto/mg/5_sedan-2gen</t>
         </is>
       </c>
       <c r="H242" t="n">
-        <v>1779900</v>
+        <v>1930000</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/livan/x6pro_suv-1gen</t>
-        </is>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>1829900</t>
-        </is>
-      </c>
-      <c r="M242" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/livan/x6pro/</t>
-        </is>
-      </c>
-      <c r="N242" t="n">
-        <v>1779900</v>
-      </c>
-      <c r="O242" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
+          <t>https://avangard-yug.ru/auto/mg/5_sedan-2gen</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -10968,30 +10976,30 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>1930000</v>
+        <v>1070000</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/mg/5_sedan-2gen</t>
+          <t>https://avangard-yug.ru/auto/mg/6_liftback-2gen-rest</t>
         </is>
       </c>
       <c r="H243" t="n">
-        <v>1930000</v>
+        <v>1070000</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/mg/5_sedan-2gen</t>
+          <t>https://avangard-yug.ru/auto/mg/6_liftback-2gen-rest</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -11001,30 +11009,30 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>1070000</v>
+        <v>2850000</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/mg/6_liftback-2gen-rest</t>
+          <t>https://avangard-yug.ru/auto/mg/hs_suv_5d-1gen</t>
         </is>
       </c>
       <c r="H244" t="n">
-        <v>1070000</v>
+        <v>2850000</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/mg/6_liftback-2gen-rest</t>
+          <t>https://avangard-yug.ru/auto/mg/hs_suv_5d-1gen</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -11034,63 +11042,81 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>2850000</v>
+        <v>1980000</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/mg/hs_suv_5d-1gen</t>
+          <t>https://avangard-yug.ru/auto/mg/zs_cuv-2gen-rest</t>
         </is>
       </c>
       <c r="H245" t="n">
-        <v>2850000</v>
+        <v>1980000</v>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/mg/hs_suv_5d-1gen</t>
+          <t>https://avangard-yug.ru/auto/mg/zs_cuv-2gen-rest</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>1980000</v>
+        <v>1159000</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/mg/zs_cuv-2gen-rest</t>
+          <t>https://maximum-auto-credit.ru/cars-new/moscvich/3/2022-allroad-5/</t>
         </is>
       </c>
       <c r="H246" t="n">
-        <v>1980000</v>
+        <v>1159000</v>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/mg/zs_cuv-2gen-rest</t>
+          <t>https://avangard-yug.ru/auto/moskvich/moskvich3_cuv</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>1170000</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/moskvich/3/</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
+        <v>1159000</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/moscvich/3/2022-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -11100,48 +11126,32 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1159000</v>
+        <v>3147000</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/moscvich/3/2022-allroad-5/</t>
-        </is>
-      </c>
-      <c r="H247" t="n">
-        <v>1159000</v>
-      </c>
-      <c r="I247" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/moskvich/moskvich3_cuv</t>
+          <t>https://krd93-car.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>3147000</t>
         </is>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/moskvich/3/</t>
-        </is>
-      </c>
-      <c r="N247" t="n">
-        <v>1159000</v>
-      </c>
-      <c r="O247" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/moscvich/3/2022-allroad-5/</t>
+          <t>https://krd93-car.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -11151,73 +11161,71 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>3147000</v>
+        <v>1590000</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/moskvich/3e/</t>
-        </is>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>3147000</t>
-        </is>
-      </c>
-      <c r="M248" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/moskvich/3e/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/moscvich/6/2023-liftback-5/</t>
+        </is>
+      </c>
+      <c r="H248" t="n">
+        <v>1590000</v>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/moskvich/moskvich6_liftback-1gen</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
+        <v>1590000</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/moscvich/6/2023-liftback-5/</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>1590000</v>
+        <v>2327000</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/moscvich/6/2023-liftback-5/</t>
-        </is>
-      </c>
-      <c r="H249" t="n">
-        <v>1590000</v>
-      </c>
-      <c r="I249" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/moskvich/moskvich6_liftback-1gen</t>
-        </is>
-      </c>
-      <c r="N249" t="n">
-        <v>1590000</v>
-      </c>
-      <c r="O249" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/moscvich/6/2023-liftback-5/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-571615590821-nissan-murano</t>
+        </is>
+      </c>
+      <c r="J249" t="n">
+        <v>2327000</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-571615590821-nissan-murano</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -11227,30 +11235,48 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2327000</v>
+        <v>880000</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-571615590821-nissan-murano</t>
+          <t>https://krd93-car.ru/auto/nissan/qashqai/</t>
+        </is>
+      </c>
+      <c r="H250" t="n">
+        <v>1233000</v>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/nissan/qashqai</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>2327000</v>
+        <v>1233000</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-571615590821-nissan-murano</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-109622811471-nissan-qashqai</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>880000</t>
+        </is>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -11260,48 +11286,40 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>880000</v>
+        <v>619000</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/nissan/qashqai/</t>
-        </is>
-      </c>
-      <c r="H251" t="n">
-        <v>1233000</v>
-      </c>
-      <c r="I251" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/nissan/qashqai</t>
+          <t>https://krd93-car.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>1233000</v>
+        <v>959000</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-109622811471-nissan-qashqai</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-142879229821-nissan-terrano</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>880000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/nissan/qashqai/</t>
+          <t>https://krd93-car.ru/auto/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -11311,40 +11329,30 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Terrano New</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>619000</v>
+        <v>1098000</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/nissan/terrano/</t>
-        </is>
-      </c>
-      <c r="J252" t="n">
-        <v>959000</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-142879229821-nissan-terrano</t>
-        </is>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>619000</t>
-        </is>
-      </c>
-      <c r="M252" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/nissan/terrano/</t>
+          <t>https://avangard-yug.ru/auto/nissan/terrano-2020_suv</t>
+        </is>
+      </c>
+      <c r="H252" t="n">
+        <v>1098000</v>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/nissan/terrano-2020_suv</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -11354,30 +11362,40 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Terrano New</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>1098000</v>
+        <v>1155000</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/nissan/terrano-2020_suv</t>
-        </is>
-      </c>
-      <c r="H253" t="n">
-        <v>1098000</v>
-      </c>
-      <c r="I253" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/nissan/terrano-2020_suv</t>
+          <t>https://krd93-car.ru/auto/nissan/x-trail/</t>
+        </is>
+      </c>
+      <c r="J253" t="n">
+        <v>1509000</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-934278828771-nissan-x-trail</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>1155000</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -11387,73 +11405,89 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>X-trail New</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>1155000</v>
+        <v>1501000</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/nissan/x-trail/</t>
-        </is>
-      </c>
-      <c r="J254" t="n">
-        <v>1509000</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-934278828771-nissan-x-trail</t>
-        </is>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>1155000</t>
-        </is>
-      </c>
-      <c r="M254" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/nissan/x-trail/</t>
+          <t>https://avangard-yug.ru/auto/nissan/x-trail</t>
+        </is>
+      </c>
+      <c r="H254" t="n">
+        <v>1501000</v>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/nissan/x-trail</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>X-trail New</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>1501000</v>
+        <v>1319900</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/nissan/x-trail</t>
+          <t>https://krd93-car.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="H255" t="n">
-        <v>1501000</v>
+        <v>1539900</v>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/nissan/x-trail</t>
+          <t>https://avangard-yug.ru/auto/omoda/c5</t>
+        </is>
+      </c>
+      <c r="J255" t="n">
+        <v>1894900</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-856411361171-omoda-c5</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>1319900</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/omoda/c5/</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
+        <v>1539900</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/omoda/c5/2022-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -11463,7 +11497,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -11471,48 +11505,48 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/omoda/c5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/omoda/s5/2022-sedan-4/</t>
         </is>
       </c>
       <c r="H256" t="n">
-        <v>1539900</v>
+        <v>1319900</v>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/omoda/c5</t>
+          <t>https://avangard-yug.ru/auto/omoda/omoda-s5</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>1894900</v>
+        <v>1859900</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-856411361171-omoda-c5</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-226703406341-omoda-s5</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>1319900</t>
+          <t>1459900</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/omoda/c5/</t>
+          <t>https://krd93-car.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="N256" t="n">
-        <v>1539900</v>
+        <v>1319900</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/omoda/c5/2022-allroad-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/omoda/s5/2022-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -11522,97 +11556,81 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>1319900</v>
+        <v>1959900</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/omoda/s5/2022-sedan-4/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/omoda/s5-gt/2023-sedan-4/</t>
         </is>
       </c>
       <c r="H257" t="n">
-        <v>1319900</v>
+        <v>1959900</v>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/omoda/omoda-s5</t>
-        </is>
-      </c>
-      <c r="J257" t="n">
-        <v>1859900</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-226703406341-omoda-s5</t>
-        </is>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>1459900</t>
-        </is>
-      </c>
-      <c r="M257" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/omoda/s5/</t>
+          <t>https://avangard-yug.ru/auto/omoda/S5-GT_SEDAN</t>
         </is>
       </c>
       <c r="N257" t="n">
-        <v>1319900</v>
+        <v>1959900</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/omoda/s5/2022-sedan-4/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/omoda/s5-gt/2023-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>1959900</v>
+        <v>390000</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/omoda/s5-gt/2023-sedan-4/</t>
+          <t>https://krd93-car.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="H258" t="n">
-        <v>1959900</v>
+        <v>507000</v>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/omoda/S5-GT_SEDAN</t>
-        </is>
-      </c>
-      <c r="N258" t="n">
-        <v>1959900</v>
-      </c>
-      <c r="O258" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/omoda/s5-gt/2023-sedan-4/</t>
+          <t>https://avangard-yug.ru/auto/ravon/nexia-r3</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>390000</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -11622,40 +11640,40 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>390000</v>
+        <v>400000</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/ravon/nexia_r3/</t>
+          <t>https://krd93-car.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="H259" t="n">
-        <v>507000</v>
+        <v>519000</v>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/ravon/nexia-r3</t>
+          <t>https://avangard-yug.ru/auto/ravon/r2</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>390000</t>
+          <t>400000</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/ravon/nexia_r3/</t>
+          <t>https://krd93-car.ru/auto/ravon/r2/</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -11665,83 +11683,91 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>400000</v>
+        <v>485000</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/ravon/r2/</t>
+          <t>https://krd93-car.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="H260" t="n">
-        <v>519000</v>
+        <v>570000</v>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/ravon/r2</t>
+          <t>https://avangard-yug.ru/auto/ravon/r4</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>400000</t>
+          <t>485000</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/ravon/r2/</t>
+          <t>https://krd93-car.ru/auto/ravon/r4/</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>485000</v>
+        <v>938000</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/ravon/r4/</t>
-        </is>
-      </c>
-      <c r="H261" t="n">
-        <v>570000</v>
-      </c>
-      <c r="I261" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/ravon/r4</t>
+          <t>https://krd93-car.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="J261" t="n">
+        <v>938000</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-887215692741-renault-arkana</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>485000</t>
+          <t>938000</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/ravon/r4/</t>
+          <t>https://krd93-car.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
+        <v>1399000</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/renault/arkana/i-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -11751,48 +11777,30 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Arkana New</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>938000</v>
+        <v>1399000</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/renault/arkana/</t>
-        </is>
-      </c>
-      <c r="J262" t="n">
-        <v>938000</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-887215692741-renault-arkana</t>
-        </is>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>938000</t>
-        </is>
-      </c>
-      <c r="M262" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/renault/arkana/</t>
-        </is>
-      </c>
-      <c r="N262" t="n">
+          <t>https://avangard-yug.ru/auto/renault/arkana</t>
+        </is>
+      </c>
+      <c r="H262" t="n">
         <v>1399000</v>
       </c>
-      <c r="O262" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/renault/arkana/i-allroad-5/</t>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/renault/arkana</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -11802,30 +11810,38 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Arkana New</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>1399000</v>
+        <v>770000</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/arkana</t>
-        </is>
-      </c>
-      <c r="H263" t="n">
-        <v>1399000</v>
-      </c>
-      <c r="I263" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/renault/arkana</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-383385312281-renault-duster</t>
+        </is>
+      </c>
+      <c r="J263" t="n">
+        <v>770000</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-383385312281-renault-duster</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
+        <v>1199000</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/renault/duster/ii-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -11835,38 +11851,48 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>770000</v>
+        <v>749000</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-383385312281-renault-duster</t>
+          <t>https://krd93-car.ru/auto/renault/duster/</t>
+        </is>
+      </c>
+      <c r="H264" t="n">
+        <v>1199000</v>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/renault/duster</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>770000</v>
+        <v>768000</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-383385312281-renault-duster</t>
-        </is>
-      </c>
-      <c r="N264" t="n">
-        <v>1199000</v>
-      </c>
-      <c r="O264" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/renault/duster/ii-allroad-5/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-631442336791-renault-novii-duster</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>749000</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -11876,48 +11902,48 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>749000</v>
+        <v>659000</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/renault/duster/</t>
-        </is>
-      </c>
-      <c r="H265" t="n">
-        <v>1199000</v>
-      </c>
-      <c r="I265" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/renault/duster</t>
+          <t>https://krd93-car.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>768000</v>
+        <v>963000</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-631442336791-renault-novii-duster</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-499067990721-renault-kaptur</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>749000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/renault/duster/</t>
+          <t>https://krd93-car.ru/auto/renault/kaptur/</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
+        <v>1249000</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/renault/kaptur/i-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -11927,48 +11953,30 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Kaptur New</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>659000</v>
+        <v>1249000</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/renault/kaptur/</t>
-        </is>
-      </c>
-      <c r="J266" t="n">
-        <v>963000</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-499067990721-renault-kaptur</t>
-        </is>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>659000</t>
-        </is>
-      </c>
-      <c r="M266" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/renault/kaptur/</t>
-        </is>
-      </c>
-      <c r="N266" t="n">
+          <t>https://avangard-yug.ru/auto/renault/kaptur</t>
+        </is>
+      </c>
+      <c r="H266" t="n">
         <v>1249000</v>
       </c>
-      <c r="O266" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/renault/kaptur/i-res-allroad-5/</t>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/renault/kaptur</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -11978,30 +11986,48 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Kaptur New</t>
+          <t>Koleos</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>1249000</v>
+        <v>1553000</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/kaptur</t>
+          <t>https://krd93-car.ru/auto/renault/koleos/</t>
         </is>
       </c>
       <c r="H267" t="n">
-        <v>1249000</v>
+        <v>1553000</v>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/kaptur</t>
+          <t>https://avangard-yug.ru/auto/renault/koleos</t>
+        </is>
+      </c>
+      <c r="J267" t="n">
+        <v>1561000</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-326133296231-renault-koleos</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>1553000</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/renault/koleos/</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -12011,48 +12037,48 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Koleos</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1553000</v>
+        <v>569000</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/renault/koleos/</t>
-        </is>
-      </c>
-      <c r="H268" t="n">
-        <v>1553000</v>
-      </c>
-      <c r="I268" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/renault/koleos</t>
+          <t>https://krd93-car.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>1561000</v>
+        <v>583000</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-326133296231-renault-koleos</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-833829508301-renault-logan</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>1553000</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/renault/koleos/</t>
+          <t>https://krd93-car.ru/auto/renault/logan/</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
+        <v>629000</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/renault/logan/ii-res-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -12062,48 +12088,30 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Logan New</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>569000</v>
+        <v>629000</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/renault/logan/</t>
-        </is>
-      </c>
-      <c r="J269" t="n">
-        <v>583000</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-833829508301-renault-logan</t>
-        </is>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>569000</t>
-        </is>
-      </c>
-      <c r="M269" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/renault/logan/</t>
-        </is>
-      </c>
-      <c r="N269" t="n">
+          <t>https://avangard-yug.ru/auto/renault/logan</t>
+        </is>
+      </c>
+      <c r="H269" t="n">
         <v>629000</v>
       </c>
-      <c r="O269" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/renault/logan/ii-res-sedan-4/</t>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/renault/logan</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -12113,30 +12121,56 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Logan New</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>629000</v>
+        <v>689000</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/logan</t>
+          <t>https://krd93-car.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="H270" t="n">
-        <v>629000</v>
+        <v>799000</v>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/logan</t>
+          <t>https://avangard-yug.ru/auto/renault/logan-stepway</t>
+        </is>
+      </c>
+      <c r="J270" t="n">
+        <v>708000</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-237884719901-renault-logan-stepway</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>689000</t>
+        </is>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/renault/logan_stepway/</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
+        <v>799000</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/renault/logan/ii-res-sedan-stepway-4/</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -12146,56 +12180,40 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>689000</v>
+        <v>715000</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/renault/logan_stepway/</t>
-        </is>
-      </c>
-      <c r="H271" t="n">
-        <v>799000</v>
-      </c>
-      <c r="I271" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/renault/logan-stepway</t>
+          <t>https://krd93-car.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>708000</v>
+        <v>1110000</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-237884719901-renault-logan-stepway</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-812699225921-renault-logan-stepway-city</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>689000</t>
+          <t>715000</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/renault/logan_stepway/</t>
-        </is>
-      </c>
-      <c r="N271" t="n">
-        <v>799000</v>
-      </c>
-      <c r="O271" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/renault/logan/ii-res-sedan-stepway-4/</t>
+          <t>https://krd93-car.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -12205,40 +12223,48 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>715000</v>
+        <v>579000</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://krd93-car.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>1110000</v>
+        <v>593000</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-812699225921-renault-logan-stepway-city</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-749822540851-renault-sandero</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>715000</t>
+          <t>579000</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://krd93-car.ru/auto/renault/sandero/</t>
+        </is>
+      </c>
+      <c r="N272" t="n">
+        <v>759000</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/renault/sandero/ii-res-hatchback-5/</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -12248,48 +12274,30 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Sandero New</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>579000</v>
+        <v>759000</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/renault/sandero/</t>
-        </is>
-      </c>
-      <c r="J273" t="n">
-        <v>593000</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-749822540851-renault-sandero</t>
-        </is>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>579000</t>
-        </is>
-      </c>
-      <c r="M273" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/renault/sandero/</t>
-        </is>
-      </c>
-      <c r="N273" t="n">
+          <t>https://avangard-yug.ru/auto/renault/sandero</t>
+        </is>
+      </c>
+      <c r="H273" t="n">
         <v>759000</v>
       </c>
-      <c r="O273" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/renault/sandero/ii-res-hatchback-5/</t>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/renault/sandero</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -12299,30 +12307,48 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Sandero New</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>759000</v>
+        <v>739000</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/sandero</t>
-        </is>
-      </c>
-      <c r="H274" t="n">
-        <v>759000</v>
-      </c>
-      <c r="I274" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/renault/sandero</t>
+          <t>https://krd93-car.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="J274" t="n">
+        <v>753000</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-554863097871-renault-sandero-stepway</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>739000</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="N274" t="n">
+        <v>849000</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/renault/sandero/ii-res-hatchback-stepway-5/</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>564</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -12332,48 +12358,30 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero Stepway New</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>739000</v>
+        <v>849000</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/renault/sandero_stepway/</t>
-        </is>
-      </c>
-      <c r="J275" t="n">
-        <v>753000</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-554863097871-renault-sandero-stepway</t>
-        </is>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>739000</t>
-        </is>
-      </c>
-      <c r="M275" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/renault/sandero_stepway/</t>
-        </is>
-      </c>
-      <c r="N275" t="n">
+          <t>https://avangard-yug.ru/auto/renault/sandero-stepway</t>
+        </is>
+      </c>
+      <c r="H275" t="n">
         <v>849000</v>
       </c>
-      <c r="O275" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/renault/sandero/ii-res-hatchback-stepway-5/</t>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/renault/sandero-stepway</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -12383,73 +12391,91 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Sandero Stepway New</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>849000</v>
+        <v>1170000</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/sandero-stepway</t>
-        </is>
-      </c>
-      <c r="H276" t="n">
-        <v>849000</v>
-      </c>
-      <c r="I276" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/renault/sandero-stepway</t>
+          <t>https://krd93-car.ru/auto/renault/sandero_stepway_city/</t>
+        </is>
+      </c>
+      <c r="J276" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-839853373971-renault-sandero-stepway-city</t>
+        </is>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>1170000</t>
+        </is>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>1170000</v>
+        <v>1040000</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://krd93-car.ru/auto/skoda/karoq/</t>
+        </is>
+      </c>
+      <c r="H277" t="n">
+        <v>1557000</v>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/skoda/karoq</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>1170000</v>
+        <v>1215000</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-839853373971-renault-sandero-stepway-city</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-244153322751-skoda-karoq</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>1040000</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://krd93-car.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -12459,48 +12485,30 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>1040000</v>
+        <v>1662000</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/skoda/karoq/</t>
+          <t>https://avangard-yug.ru/auto/skoda/kodiaq-2020</t>
         </is>
       </c>
       <c r="H278" t="n">
-        <v>1557000</v>
+        <v>1662000</v>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/karoq</t>
-        </is>
-      </c>
-      <c r="J278" t="n">
-        <v>1215000</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-244153322751-skoda-karoq</t>
-        </is>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>1040000</t>
-        </is>
-      </c>
-      <c r="M278" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/skoda/karoq/</t>
+          <t>https://avangard-yug.ru/auto/skoda/kodiaq-2020</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -12510,30 +12518,40 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Kodiaq Hockey Edition</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>1662000</v>
+        <v>1581000</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/kodiaq-2020</t>
-        </is>
-      </c>
-      <c r="H279" t="n">
-        <v>1662000</v>
-      </c>
-      <c r="I279" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/skoda/kodiaq-2020</t>
+          <t>https://krd93-car.ru/auto/skoda/kodiaq_hockey_edition/</t>
+        </is>
+      </c>
+      <c r="J279" t="n">
+        <v>1581000</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-841708426781-skoda-kodiaq-hockey-edition</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>1581000</t>
+        </is>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/skoda/kodiaq_hockey_edition/</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -12543,40 +12561,32 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Kodiaq Hockey Edition</t>
+          <t>Kodiaq Laurin &amp; Klement</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1581000</v>
+        <v>3058000</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/skoda/kodiaq_hockey_edition/</t>
-        </is>
-      </c>
-      <c r="J280" t="n">
-        <v>1581000</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-841708426781-skoda-kodiaq-hockey-edition</t>
+          <t>https://krd93-car.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>1581000</t>
+          <t>3058000</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/skoda/kodiaq_hockey_edition/</t>
+          <t>https://krd93-car.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -12586,32 +12596,48 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Kodiaq Laurin &amp; Klement</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>3058000</v>
+        <v>1659000</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://krd93-car.ru/auto/skoda/kodiaq/</t>
+        </is>
+      </c>
+      <c r="H281" t="n">
+        <v>1857000</v>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/skoda/kodiaq</t>
+        </is>
+      </c>
+      <c r="J281" t="n">
+        <v>1659000</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-712707404121-skoda-obnovlennii-kodiaq</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>3058000</t>
+          <t>1659000</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://krd93-car.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -12621,48 +12647,40 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Kodiaq Scout</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>1659000</v>
+        <v>3375000</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/skoda/kodiaq/</t>
-        </is>
-      </c>
-      <c r="H282" t="n">
-        <v>1857000</v>
-      </c>
-      <c r="I282" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/skoda/kodiaq</t>
+          <t>https://krd93-car.ru/auto/skoda/kodiaq_scout/</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>1659000</v>
+        <v>3375000</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-712707404121-skoda-obnovlennii-kodiaq</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-676582321101-skoda-kodiaq-scout</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>3375000</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/skoda/kodiaq/</t>
+          <t>https://krd93-car.ru/auto/skoda/kodiaq_scout/</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -12672,40 +12690,32 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Kodiaq Scout</t>
+          <t>Kodiaq Sportline</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>3375000</v>
+        <v>2989000</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/skoda/kodiaq_scout/</t>
-        </is>
-      </c>
-      <c r="J283" t="n">
-        <v>3375000</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-676582321101-skoda-kodiaq-scout</t>
+          <t>https://krd93-car.ru/auto/skoda/kodiaq_sportline/</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>3375000</t>
+          <t>2989000</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/skoda/kodiaq_scout/</t>
+          <t>https://krd93-car.ru/auto/skoda/kodiaq_sportline/</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -12715,32 +12725,30 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Kodiaq Sportline</t>
+          <t>Octavia A8</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>2989000</v>
+        <v>1257000</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/skoda/kodiaq_sportline/</t>
-        </is>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>2989000</t>
-        </is>
-      </c>
-      <c r="M284" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/skoda/kodiaq_sportline/</t>
+          <t>https://avangard-yug.ru/auto/skoda/octavia</t>
+        </is>
+      </c>
+      <c r="H284" t="n">
+        <v>1257000</v>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/skoda/octavia</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -12750,30 +12758,32 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Octavia A8</t>
+          <t>Octavia Hockey Edition</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>1257000</v>
+        <v>989000</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/octavia</t>
-        </is>
-      </c>
-      <c r="H285" t="n">
-        <v>1257000</v>
-      </c>
-      <c r="I285" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/skoda/octavia</t>
+          <t>https://krd93-car.ru/auto/skoda/octavia_hockey_edition/</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>989000</t>
+        </is>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/skoda/octavia_hockey_edition/</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -12783,32 +12793,40 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Octavia Hockey Edition</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>989000</v>
+        <v>1055000</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/skoda/octavia_hockey_edition/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-359495984671-skoda-novaya-octavia</t>
+        </is>
+      </c>
+      <c r="J286" t="n">
+        <v>1055000</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-359495984671-skoda-novaya-octavia</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>989000</t>
+          <t>1140000</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/skoda/octavia_hockey_edition/</t>
+          <t>https://krd93-car.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -12818,40 +12836,40 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>1055000</v>
+        <v>676000</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-359495984671-skoda-novaya-octavia</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-238470977211-skoda-rapid</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>1055000</v>
+        <v>676000</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-359495984671-skoda-novaya-octavia</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-238470977211-skoda-rapid</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>1140000</t>
+          <t>679000</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/skoda/octavia/</t>
+          <t>https://krd93-car.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -12861,40 +12879,30 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Rapid New</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>676000</v>
+        <v>695000</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-238470977211-skoda-rapid</t>
-        </is>
-      </c>
-      <c r="J288" t="n">
-        <v>676000</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-238470977211-skoda-rapid</t>
-        </is>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>679000</t>
-        </is>
-      </c>
-      <c r="M288" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/skoda/rapid/</t>
+          <t>https://avangard-yug.ru/auto/skoda/rapid</t>
+        </is>
+      </c>
+      <c r="H288" t="n">
+        <v>695000</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/skoda/rapid</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -12904,30 +12912,48 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Rapid New</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>695000</v>
+        <v>1230000</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/rapid</t>
+          <t>https://krd93-car.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="H289" t="n">
-        <v>695000</v>
+        <v>2265000</v>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/rapid</t>
+          <t>https://avangard-yug.ru/auto/skoda/superb_sedan</t>
+        </is>
+      </c>
+      <c r="J289" t="n">
+        <v>1740000</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-375904118311-skoda-superb</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>1230000</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -12937,48 +12963,32 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>1230000</v>
+        <v>2089000</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/skoda/superb/</t>
-        </is>
-      </c>
-      <c r="H290" t="n">
-        <v>2265000</v>
-      </c>
-      <c r="I290" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/skoda/superb_sedan</t>
-        </is>
-      </c>
-      <c r="J290" t="n">
-        <v>1740000</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-375904118311-skoda-superb</t>
+          <t>https://krd93-car.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>1230000</t>
+          <t>2089000</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/skoda/superb/</t>
+          <t>https://krd93-car.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -12988,32 +12998,30 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Superb Combi New</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>2089000</v>
+        <v>2431000</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/skoda/superb_combi/</t>
-        </is>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>2089000</t>
-        </is>
-      </c>
-      <c r="M291" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/skoda/superb_combi/</t>
+          <t>https://avangard-yug.ru/auto/skoda/superb-combi</t>
+        </is>
+      </c>
+      <c r="H291" t="n">
+        <v>2431000</v>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/skoda/superb-combi</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -13023,63 +13031,81 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Superb Combi New</t>
+          <t>Superb New</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>2431000</v>
+        <v>2138000</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/superb-combi</t>
+          <t>https://avangard-yug.ru/auto/skoda/superb</t>
         </is>
       </c>
       <c r="H292" t="n">
-        <v>2431000</v>
+        <v>2138000</v>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/superb-combi</t>
+          <t>https://avangard-yug.ru/auto/skoda/superb</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Superb New</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>2138000</v>
+        <v>1219000</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/superb</t>
+          <t>https://krd93-car.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="H293" t="n">
-        <v>2138000</v>
+        <v>1699000</v>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/superb</t>
+          <t>https://avangard-yug.ru/auto/solaris/hc_suv-1gen</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>1219000</t>
+        </is>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/solaris/hc/</t>
+        </is>
+      </c>
+      <c r="N293" t="n">
+        <v>1699000</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/solaris/hc/2022-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -13089,48 +13115,48 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>1219000</v>
+        <v>766000</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/solaris/hc/</t>
+          <t>https://krd93-car.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="H294" t="n">
-        <v>1699000</v>
+        <v>1309000</v>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/solaris/hc_suv-1gen</t>
+          <t>https://avangard-yug.ru/auto/solaris/hs_sedan-1gen</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>1219000</t>
+          <t>766000</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/solaris/hc/</t>
+          <t>https://krd93-car.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="N294" t="n">
-        <v>1699000</v>
+        <v>1309000</v>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/solaris/hc/2022-allroad-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/solaris/hs/2022-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -13140,48 +13166,48 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>766000</v>
+        <v>729000</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/solaris/hs/</t>
+          <t>https://krd93-car.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="H295" t="n">
-        <v>1309000</v>
+        <v>1349900</v>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/solaris/hs_sedan-1gen</t>
+          <t>https://avangard-yug.ru/auto/solaris/krs_sedan-1gen</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>766000</t>
+          <t>729000</t>
         </is>
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/solaris/hs/</t>
+          <t>https://krd93-car.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="N295" t="n">
-        <v>1309000</v>
+        <v>1349900</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/solaris/hs/2022-sedan-4/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/solaris/krs/2024-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -13191,132 +13217,114 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>729000</v>
+        <v>789000</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/solaris/krs/</t>
+          <t>https://krd93-car.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="H296" t="n">
-        <v>1349900</v>
+        <v>1399900</v>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/solaris/krs_sedan-1gen</t>
+          <t>https://avangard-yug.ru/auto/solaris/krx_hatchback-1gen</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>729000</t>
+          <t>789000</t>
         </is>
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/solaris/krs/</t>
+          <t>https://krd93-car.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="N296" t="n">
-        <v>1349900</v>
+        <v>1399900</v>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/solaris/krs/2024-sedan-4/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/solaris/krx/2024-hatchback-5/</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>DX8S</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>789000</v>
+        <v>2699900</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/solaris/krx/</t>
+          <t>https://avangard-yug.ru/auto/soueast/dx8s_cuv-1gen</t>
         </is>
       </c>
       <c r="H297" t="n">
-        <v>1399900</v>
+        <v>2699900</v>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/solaris/krx_hatchback-1gen</t>
-        </is>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>789000</t>
-        </is>
-      </c>
-      <c r="M297" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
-      <c r="N297" t="n">
-        <v>1399900</v>
-      </c>
-      <c r="O297" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/solaris/krx/2024-hatchback-5/</t>
+          <t>https://avangard-yug.ru/auto/soueast/dx8s_cuv-1gen</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>606</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Soueast</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>DX8S</t>
+          <t>Jimny New</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2699900</v>
+        <v>1587000</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/soueast/dx8s_cuv-1gen</t>
+          <t>https://avangard-yug.ru/auto/suzuki/new%20jimny_new%20jimny</t>
         </is>
       </c>
       <c r="H298" t="n">
-        <v>2699900</v>
+        <v>1587000</v>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/soueast/dx8s_cuv-1gen</t>
+          <t>https://avangard-yug.ru/auto/suzuki/new%20jimny_new%20jimny</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -13326,30 +13334,30 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Jimny New</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1587000</v>
+        <v>1619000</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/suzuki/new%20jimny_new%20jimny</t>
+          <t>https://avangard-yug.ru/auto/suzuki/sx4_sedan</t>
         </is>
       </c>
       <c r="H299" t="n">
-        <v>1587000</v>
+        <v>1619000</v>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/suzuki/new%20jimny_new%20jimny</t>
+          <t>https://avangard-yug.ru/auto/suzuki/sx4_sedan</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -13359,63 +13367,63 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>Vitara</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>1619000</v>
+        <v>1469000</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/suzuki/sx4_sedan</t>
+          <t>https://avangard-yug.ru/auto/suzuki/vitara_vitara</t>
         </is>
       </c>
       <c r="H300" t="n">
-        <v>1619000</v>
+        <v>1469000</v>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/suzuki/sx4_sedan</t>
+          <t>https://avangard-yug.ru/auto/suzuki/vitara_vitara</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Vitara</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1469000</v>
+        <v>2719000</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/suzuki/vitara_vitara</t>
-        </is>
-      </c>
-      <c r="H301" t="n">
-        <v>1469000</v>
-      </c>
-      <c r="I301" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/suzuki/vitara_vitara</t>
+          <t>https://maximum-auto-credit.ru/cars-new/tank/300/2021-allroad-5/</t>
+        </is>
+      </c>
+      <c r="N301" t="n">
+        <v>2719000</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/tank/300/2021-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -13425,63 +13433,63 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>2719000</v>
+        <v>4399000</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/tank/300/2021-allroad-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/tank/500/2021-allroad-5/</t>
         </is>
       </c>
       <c r="N302" t="n">
-        <v>2719000</v>
+        <v>4399000</v>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/tank/300/2021-allroad-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/tank/500/2021-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>CH-R New</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>4399000</v>
+        <v>1842000</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/tank/500/2021-allroad-5/</t>
-        </is>
-      </c>
-      <c r="N303" t="n">
-        <v>4399000</v>
-      </c>
-      <c r="O303" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/tank/500/2021-allroad-5/</t>
+          <t>https://avangard-yug.ru/auto/toyota/c-hr</t>
+        </is>
+      </c>
+      <c r="H303" t="n">
+        <v>1842000</v>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/toyota/c-hr</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -13491,30 +13499,38 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>CH-R New</t>
+          <t>Camry New</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>1842000</v>
+        <v>1712500</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/toyota/c-hr</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-182242764921-toyota-camry-new</t>
         </is>
       </c>
       <c r="H304" t="n">
-        <v>1842000</v>
+        <v>1978000</v>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/toyota/c-hr</t>
+          <t>https://avangard-yug.ru/auto/toyota/camry</t>
+        </is>
+      </c>
+      <c r="J304" t="n">
+        <v>1712500</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-182242764921-toyota-camry-new</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -13524,38 +13540,30 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Camry New</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1712500</v>
+        <v>1562000</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-182242764921-toyota-camry-new</t>
-        </is>
-      </c>
-      <c r="H305" t="n">
-        <v>1978000</v>
-      </c>
-      <c r="I305" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/toyota/camry</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-410306276111-toyota-corolla</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>1712500</v>
+        <v>1562000</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-182242764921-toyota-camry-new</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-410306276111-toyota-corolla</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>631</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -13565,30 +13573,30 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>Corolla New</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>1562000</v>
+        <v>1152000</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-410306276111-toyota-corolla</t>
-        </is>
-      </c>
-      <c r="J306" t="n">
-        <v>1562000</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-410306276111-toyota-corolla</t>
+          <t>https://avangard-yug.ru/auto/toyota/corolla</t>
+        </is>
+      </c>
+      <c r="H306" t="n">
+        <v>1152000</v>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/toyota/corolla</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>632</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -13598,71 +13606,71 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Corolla New</t>
+          <t>RAV4 New</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>1152000</v>
+        <v>1859000</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/toyota/corolla</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-586328054651-toyota-rav4-new</t>
         </is>
       </c>
       <c r="H307" t="n">
-        <v>1152000</v>
+        <v>2061000</v>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/toyota/corolla</t>
+          <t>https://avangard-yug.ru/auto/toyota/rav-4</t>
+        </is>
+      </c>
+      <c r="J307" t="n">
+        <v>1859000</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-586328054651-toyota-rav4-new</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>RAV4 New</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>1859000</v>
+        <v>645000</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-586328054651-toyota-rav4-new</t>
+          <t>https://avangard-yug.ru/auto/uaz/hunter</t>
         </is>
       </c>
       <c r="H308" t="n">
-        <v>2061000</v>
+        <v>645000</v>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/toyota/rav-4</t>
-        </is>
-      </c>
-      <c r="J308" t="n">
-        <v>1859000</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-586328054651-toyota-rav4-new</t>
+          <t>https://avangard-yug.ru/auto/uaz/hunter</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -13672,30 +13680,30 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Patriot New</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>645000</v>
+        <v>719000</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/uaz/hunter</t>
+          <t>https://avangard-yug.ru/auto/uaz/patriot</t>
         </is>
       </c>
       <c r="H309" t="n">
-        <v>645000</v>
+        <v>719000</v>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/uaz/hunter</t>
+          <t>https://avangard-yug.ru/auto/uaz/patriot</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -13705,63 +13713,63 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Patriot New</t>
+          <t>Pickup New</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>719000</v>
+        <v>737000</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/uaz/patriot</t>
+          <t>https://avangard-yug.ru/auto/uaz/patriot-pikap</t>
         </is>
       </c>
       <c r="H310" t="n">
-        <v>719000</v>
+        <v>737000</v>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/uaz/patriot</t>
+          <t>https://avangard-yug.ru/auto/uaz/patriot-pikap</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Pickup New</t>
+          <t>Arteon</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>737000</v>
+        <v>2339000</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/uaz/patriot-pikap</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/arteon_liftback-1gen-rest</t>
         </is>
       </c>
       <c r="H311" t="n">
-        <v>737000</v>
+        <v>2339000</v>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/uaz/patriot-pikap</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/arteon_liftback-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -13771,30 +13779,40 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Arteon</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>2339000</v>
+        <v>975000</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/arteon_liftback-1gen-rest</t>
-        </is>
-      </c>
-      <c r="H312" t="n">
-        <v>2339000</v>
-      </c>
-      <c r="I312" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/arteon_liftback-1gen-rest</t>
+          <t>https://krd93-car.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="J312" t="n">
+        <v>975000</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-863506188431-volkswagen-jetta</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>975000</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>646</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -13804,40 +13822,30 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetta New</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>975000</v>
+        <v>1465000</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="J313" t="n">
-        <v>975000</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-863506188431-volkswagen-jetta</t>
-        </is>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>975000</t>
-        </is>
-      </c>
-      <c r="M313" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/volkswagen/jetta/</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="H313" t="n">
+        <v>1465000</v>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -13847,30 +13855,40 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Jetta New</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>1465000</v>
+        <v>1050000</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="H314" t="n">
-        <v>1465000</v>
-      </c>
-      <c r="I314" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/jetta</t>
+          <t>https://krd93-car.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="J314" t="n">
+        <v>1460000</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-266141791761-volkswagen-passat</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>1050000</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -13880,40 +13898,40 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>1050000</v>
+        <v>730900</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/volkswagen/passat/</t>
+          <t>https://krd93-car.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>1460000</v>
+        <v>730900</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-266141791761-volkswagen-passat</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-406016267311-volkswagen-polo</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>1050000</t>
+          <t>730900</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/volkswagen/passat/</t>
+          <t>https://krd93-car.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -13923,40 +13941,30 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Polo New</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>730900</v>
+        <v>760900</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="J316" t="n">
-        <v>730900</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-406016267311-volkswagen-polo</t>
-        </is>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>730900</t>
-        </is>
-      </c>
-      <c r="M316" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/volkswagen/polo/</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/polo</t>
+        </is>
+      </c>
+      <c r="H316" t="n">
+        <v>760900</v>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/volkswagen/polo</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -13966,30 +13974,48 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Polo New</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>760900</v>
+        <v>1399900</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/polo</t>
+          <t>https://krd93-car.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="H317" t="n">
-        <v>760900</v>
+        <v>1426900</v>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/polo</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="J317" t="n">
+        <v>1475900</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-272168427241-volkswagen-taos</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>1399900</t>
+        </is>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -13999,48 +14025,38 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>1399900</v>
+        <v>1597000</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/volkswagen/taos/</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/tiguan-2019</t>
         </is>
       </c>
       <c r="H318" t="n">
-        <v>1426900</v>
+        <v>1597000</v>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/taos</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/tiguan-2019</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>1475900</v>
+        <v>1597900</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-272168427241-volkswagen-taos</t>
-        </is>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>1399900</t>
-        </is>
-      </c>
-      <c r="M318" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/volkswagen/taos/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-886798314871-volkswagen-tiguan</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -14050,89 +14066,81 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>1597000</v>
+        <v>1579900</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/tiguan-2019</t>
+          <t>https://krd93-car.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="H319" t="n">
-        <v>1597000</v>
+        <v>1649900</v>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/tiguan-2019</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/tiguan</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>1597900</v>
+        <v>1657900</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-886798314871-volkswagen-tiguan</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-564624040771-volkswagen-novii-tiguan</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>1579900</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>X-Cross 7</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>1579900</v>
+        <v>1699000</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="H320" t="n">
-        <v>1649900</v>
-      </c>
-      <c r="I320" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/tiguan</t>
-        </is>
-      </c>
-      <c r="J320" t="n">
-        <v>1657900</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-564624040771-volkswagen-novii-tiguan</t>
-        </is>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>1579900</t>
-        </is>
-      </c>
-      <c r="M320" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/volkswagen/tiguan/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/xcite/x-cross-7/2024-allroad-5/</t>
+        </is>
+      </c>
+      <c r="N320" t="n">
+        <v>1699000</v>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/xcite/x-cross-7/2024-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>676</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -14142,7 +14150,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>X-Cross 7</t>
+          <t>X-Cross 7 New</t>
         </is>
       </c>
       <c r="D321" t="n">
@@ -14150,55 +14158,73 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/xcite/x-cross-7/2024-allroad-5/</t>
-        </is>
-      </c>
-      <c r="N321" t="n">
+          <t>https://avangard-yug.ru/auto/xcite/x-cross-7_suv-1gen</t>
+        </is>
+      </c>
+      <c r="H321" t="n">
         <v>1699000</v>
       </c>
-      <c r="O321" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/xcite/x-cross-7/2024-allroad-5/</t>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/xcite/x-cross-7_suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>Zotye</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>X-Cross 7 New</t>
+          <t>Coupa</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>1699000</v>
+        <v>989600</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/xcite/x-cross-7_suv-1gen</t>
+          <t>https://krd93-car.ru/auto/zotye/coupa/</t>
         </is>
       </c>
       <c r="H322" t="n">
-        <v>1699000</v>
+        <v>989600</v>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/xcite/x-cross-7_suv-1gen</t>
+          <t>https://avangard-yug.ru/auto/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="J322" t="n">
+        <v>1112600</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-839083447801-zotye-coupa</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>989600</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>https://krd93-car.ru/auto/zotye/coupa/</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -14208,90 +14234,39 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>T600</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>989600</v>
+        <v>771600</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/zotye/coupa/</t>
+          <t>https://krd93-car.ru/auto/zotye/t600/</t>
         </is>
       </c>
       <c r="H323" t="n">
-        <v>989600</v>
+        <v>771600</v>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/zotye/coupa</t>
+          <t>https://avangard-yug.ru/auto/zotye/t600</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>1112600</v>
+        <v>894600</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-839083447801-zotye-coupa</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-290403053961-zotye-t600</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>989600</t>
+          <t>771600</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/zotye/coupa/</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>674</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>Zotye</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>T600</t>
-        </is>
-      </c>
-      <c r="D324" t="n">
-        <v>771600</v>
-      </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>https://krd93-car.ru/auto/zotye/t600/</t>
-        </is>
-      </c>
-      <c r="H324" t="n">
-        <v>771600</v>
-      </c>
-      <c r="I324" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/zotye/t600</t>
-        </is>
-      </c>
-      <c r="J324" t="n">
-        <v>894600</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-290403053961-zotye-t600</t>
-        </is>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>771600</t>
-        </is>
-      </c>
-      <c r="M324" t="inlineStr">
         <is>
           <t>https://krd93-car.ru/auto/zotye/t600/</t>
         </is>

--- a/xlsx/krasnodar.xlsx
+++ b/xlsx/krasnodar.xlsx
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3590000</v>
+        <v>3013000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3590000</v>
+        <v>3013000</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -566,15 +566,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1379000</v>
+        <v>1245000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/baic/u5_plus/</t>
+          <t>https://avangard-yug.ru/auto/baic/u5-plus</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1410000</v>
+        <v>1245000</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -617,15 +617,15 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1379000</v>
+        <v>1330000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/baic/x35/</t>
+          <t>https://avangard-yug.ru/auto/baic/X35</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1430000</v>
+        <v>1330000</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2040000</v>
+        <v>1775000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2040000</v>
+        <v>1775000</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2200000</v>
+        <v>1850000</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2200000</v>
+        <v>1850000</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2019000</v>
+        <v>1785000</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2019000</v>
+        <v>1785000</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1545990</v>
+        <v>1380990</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1705900</v>
+        <v>1350000</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1224,15 +1224,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1799900</v>
+        <v>1709900</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/changan/cs75plus/i-res-allroad-5/</t>
+          <t>https://avangard-yug.ru/auto/changan/CS75-plus</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1799900</v>
+        <v>1709900</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3019900</v>
+        <v>2768900</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3019900</v>
+        <v>2768900</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1509,15 +1509,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1400000</v>
+        <v>1299000</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/changan/eado_plus/</t>
+          <t>https://avangard-yug.ru/auto/changan/eado-plus_SEDAN</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1429900</v>
+        <v>1299000</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1601,15 +1601,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1889900</v>
+        <v>1790000</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/changan/lamore/2023-sedan-4/</t>
+          <t>https://avangard-yug.ru/auto/changan/lamore_sedan</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1889900</v>
+        <v>1790000</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>2539900</v>
+        <v>2039900</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>2019900</v>
+        <v>1769900</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1770,15 +1770,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1729900</v>
+        <v>1726900</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/changan/uni-v/</t>
+          <t>https://avangard-yug.ru/auto/changan/uni-v_liftback</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1959900</v>
+        <v>1726900</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1900000</v>
+        <v>1790000</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1199000</v>
+        <v>877900</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1312000</v>
+        <v>1076000</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1677000</v>
+        <v>1147900</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1799000</v>
+        <v>1627000</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1819000</v>
+        <v>1299900</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>2019000</v>
+        <v>1599900</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>3600000</v>
+        <v>3100000</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1949000</v>
+        <v>1619000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1949000</v>
+        <v>1619000</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1479000</v>
+        <v>2099000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1479000</v>
+        <v>2099000</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>2099000</v>
+        <v>1999000</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5500000</v>
+        <v>4608000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>5500000</v>
+        <v>4608000</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3609,15 +3609,15 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1565000</v>
+        <v>1539000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/faw/besturn_t77/</t>
+          <t>https://avangard-yug.ru/auto/faw/bestune-t77</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1999000</v>
+        <v>1539000</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1549000</v>
+        <v>1299000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>1549000</v>
+        <v>1299000</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1459000</v>
+        <v>1259000</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>2129990</v>
+        <v>1999990</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1699990</v>
+        <v>1539990</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/geely/cityray/2024-allroad-5/</t>
+          <t>https://avangard-yug.ru/auto/geely/cityray_suv-1gen</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>1699990</v>
+        <v>1539990</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -4317,15 +4317,15 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>619990</v>
+        <v>619900</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/geely/coolray_1/</t>
+          <t>https://avangard-yug.ru/auto/geely/coolray</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>1529990</v>
+        <v>619900</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -4436,15 +4436,15 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1279990</v>
+        <v>1199990</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/geely/emgrand/ii-sedan-4/</t>
+          <t>https://avangard-yug.ru/auto/geely/Emgrand_sedan-2gen</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>1279990</v>
+        <v>1199990</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -4614,15 +4614,15 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2762494</v>
+        <v>2739990</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/geely/monjaro/</t>
+          <t>https://avangard-yug.ru/auto/geely/monjaro</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>2999990</v>
+        <v>2739990</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>1539000</v>
+        <v>1349000</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>1739000</v>
+        <v>1519000</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>2599000</v>
+        <v>2479000</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>3039000</v>
+        <v>2900000</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>1269000</v>
+        <v>689900</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         </is>
       </c>
       <c r="H125" t="n">
-        <v>1699000</v>
+        <v>1359000</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="H127" t="n">
-        <v>1077000</v>
+        <v>1549000</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1309000</v>
+        <v>1099000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="H130" t="n">
-        <v>1309000</v>
+        <v>1099000</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="H135" t="n">
-        <v>1499000</v>
+        <v>1999000</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         </is>
       </c>
       <c r="H136" t="n">
-        <v>1399000</v>
+        <v>1299000</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1249000</v>
+        <v>1049000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         </is>
       </c>
       <c r="H137" t="n">
-        <v>1249000</v>
+        <v>1049000</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1429000</v>
+        <v>1369000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         </is>
       </c>
       <c r="H138" t="n">
-        <v>1429000</v>
+        <v>1369000</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1509000</v>
+        <v>1499000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         </is>
       </c>
       <c r="H139" t="n">
-        <v>1509000</v>
+        <v>1499000</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2899000</v>
+        <v>2399000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         </is>
       </c>
       <c r="H145" t="n">
-        <v>2899000</v>
+        <v>2399000</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>2289900</v>
+        <v>2099000</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -6850,15 +6850,15 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>3099000</v>
+        <v>2990000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/jaecoo/j8/2024-allroad-5/</t>
+          <t>https://avangard-yug.ru/auto/jaecoo/j8_suv-1gen</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>3099000</v>
+        <v>2990000</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>1599900</v>
+        <v>1499000</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2579000</v>
+        <v>2479000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>2579000</v>
+        <v>2479000</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1340000</v>
+        <v>1299000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/jetour/x50/2024-allroad-5/</t>
+          <t>https://avangard-yug.ru/auto/jetour/x50_cuv-1gen</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>1340000</v>
+        <v>1299000</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1749000</v>
+        <v>1599000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>1749000</v>
+        <v>1599000</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
@@ -7161,15 +7161,15 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2239900</v>
+        <v>2199000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/jetour/x90-plus/2021-allroad-5/</t>
+          <t>https://avangard-yug.ru/auto/jetour/X-90-Plus</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>2239900</v>
+        <v>2199000</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>1199000</v>
+        <v>1090000</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>1499000</v>
+        <v>1449000</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>1759000</v>
+        <v>1539000</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
@@ -7373,15 +7373,15 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1299000</v>
+        <v>1039000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/kaiyi/e5/</t>
+          <t>https://avangard-yug.ru/auto/kaiyi/E5</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>1475000</v>
+        <v>1039000</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
@@ -7424,15 +7424,15 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1417650</v>
+        <v>1399000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/kaiyi/x3/</t>
+          <t>https://avangard-yug.ru/auto/kaiyi/X3_SUV_5D</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>1499000</v>
+        <v>1399000</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>2029000</v>
+        <v>1899000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>2029000</v>
+        <v>1899000</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1179900</v>
+        <v>1449000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         </is>
       </c>
       <c r="H164" t="n">
-        <v>1179900</v>
+        <v>1449000</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1289900</v>
+        <v>1599000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         </is>
       </c>
       <c r="H166" t="n">
-        <v>1289900</v>
+        <v>1599000</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1244900</v>
+        <v>1499000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         </is>
       </c>
       <c r="H168" t="n">
-        <v>1244900</v>
+        <v>1499000</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         </is>
       </c>
       <c r="H169" t="n">
-        <v>1749900</v>
+        <v>1899000</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>749900</v>
+        <v>1049000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="H171" t="n">
-        <v>749900</v>
+        <v>1049000</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1349900</v>
+        <v>1199000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         </is>
       </c>
       <c r="H174" t="n">
-        <v>1349900</v>
+        <v>1199000</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         </is>
       </c>
       <c r="H175" t="n">
-        <v>1399900</v>
+        <v>1319000</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         </is>
       </c>
       <c r="H177" t="n">
-        <v>1239900</v>
+        <v>1449000</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>2489900</v>
+        <v>2999000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         </is>
       </c>
       <c r="H178" t="n">
-        <v>2489900</v>
+        <v>2999000</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1059900</v>
+        <v>1399000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         </is>
       </c>
       <c r="H180" t="n">
-        <v>1059900</v>
+        <v>1399000</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         </is>
       </c>
       <c r="H181" t="n">
-        <v>1839900</v>
+        <v>2299000</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
@@ -8435,15 +8435,15 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>354400</v>
+        <v>426900</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-cross</t>
+          <t>https://krd93-car.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>354400</v>
+        <v>599300</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>422500</v>
+        <v>617900</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         </is>
       </c>
       <c r="H187" t="n">
-        <v>422500</v>
+        <v>617900</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>584000</v>
+        <v>534200</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         </is>
       </c>
       <c r="H190" t="n">
-        <v>584000</v>
+        <v>534200</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>425900</v>
+        <v>559040</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         </is>
       </c>
       <c r="H192" t="n">
-        <v>425900</v>
+        <v>559040</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>372500</v>
+        <v>506640</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="H195" t="n">
-        <v>372500</v>
+        <v>506640</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>384300</v>
+        <v>516040</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         </is>
       </c>
       <c r="H202" t="n">
-        <v>384300</v>
+        <v>516040</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1649900</v>
+        <v>1539000</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="H240" t="n">
-        <v>1649900</v>
+        <v>1539000</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1129900</v>
+        <v>999000</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         </is>
       </c>
       <c r="H241" t="n">
-        <v>1129900</v>
+        <v>999000</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1779900</v>
+        <v>1619000</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="H242" t="n">
-        <v>1779900</v>
+        <v>1619000</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
@@ -10988,15 +10988,15 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1159000</v>
+        <v>999000</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/moscvich/3/2022-allroad-5/</t>
+          <t>https://avangard-yug.ru/auto/moskvich/moskvich3_cuv</t>
         </is>
       </c>
       <c r="H247" t="n">
-        <v>1159000</v>
+        <v>999000</v>
       </c>
       <c r="I247" t="inlineStr">
         <is>
@@ -11074,15 +11074,15 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>1590000</v>
+        <v>1249000</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/moscvich/6/2023-liftback-5/</t>
+          <t>https://avangard-yug.ru/auto/moskvich/moskvich6_liftback-1gen</t>
         </is>
       </c>
       <c r="H249" t="n">
-        <v>1590000</v>
+        <v>1249000</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
@@ -11351,15 +11351,15 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>1319900</v>
+        <v>1319000</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://krd93-car.ru/auto/omoda/c5/</t>
+          <t>https://avangard-yug.ru/auto/omoda/c5</t>
         </is>
       </c>
       <c r="H256" t="n">
-        <v>1539900</v>
+        <v>1319000</v>
       </c>
       <c r="I256" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         </is>
       </c>
       <c r="H258" t="n">
-        <v>1319900</v>
+        <v>1219000</v>
       </c>
       <c r="I258" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         </is>
       </c>
       <c r="H259" t="n">
-        <v>1959900</v>
+        <v>1799000</v>
       </c>
       <c r="I259" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="H295" t="n">
-        <v>1699000</v>
+        <v>1499000</v>
       </c>
       <c r="I295" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="H296" t="n">
-        <v>1309000</v>
+        <v>1199000</v>
       </c>
       <c r="I296" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         </is>
       </c>
       <c r="H297" t="n">
-        <v>1349900</v>
+        <v>1209000</v>
       </c>
       <c r="I297" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         </is>
       </c>
       <c r="H298" t="n">
-        <v>1399900</v>
+        <v>1239000</v>
       </c>
       <c r="I298" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>645000</v>
+        <v>745000</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="H311" t="n">
-        <v>645000</v>
+        <v>745000</v>
       </c>
       <c r="I311" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>719000</v>
+        <v>919000</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         </is>
       </c>
       <c r="H312" t="n">
-        <v>719000</v>
+        <v>919000</v>
       </c>
       <c r="I312" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>737000</v>
+        <v>1009000</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         </is>
       </c>
       <c r="H313" t="n">
-        <v>737000</v>
+        <v>1009000</v>
       </c>
       <c r="I313" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>2339000</v>
+        <v>1249000</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         </is>
       </c>
       <c r="H314" t="n">
-        <v>2339000</v>
+        <v>1249000</v>
       </c>
       <c r="I314" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>1699000</v>
+        <v>1599000</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         </is>
       </c>
       <c r="H323" t="n">
-        <v>1699000</v>
+        <v>1599000</v>
       </c>
       <c r="I323" t="inlineStr">
         <is>

--- a/xlsx/krasnodar.xlsx
+++ b/xlsx/krasnodar.xlsx
@@ -3425,15 +3425,15 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1091000</v>
+        <v>2009000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/exeed/lx_suv-1gen-2rest</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/exeed/lx/1-restyling-2</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1091000</v>
+        <v>2091000</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -13235,6 +13235,14 @@
           <t>https://maximum-auto-credit.ru/cars-new/renault/arkana/i-allroad-5/</t>
         </is>
       </c>
+      <c r="P313" t="n">
+        <v>1412000</v>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/renault/arkana/suv</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -13309,6 +13317,14 @@
           <t>https://maximum-auto-credit.ru/cars-new/renault/duster/ii-allroad-5/</t>
         </is>
       </c>
+      <c r="P315" t="n">
+        <v>1265000</v>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/renault/duster/suv</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -13391,6 +13407,14 @@
           <t>https://maximum-auto-credit.ru/cars-new/renault/kaptur/i-res-allroad-5/</t>
         </is>
       </c>
+      <c r="P317" t="n">
+        <v>1327000</v>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/renault/kaptur/suv</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -13506,6 +13530,14 @@
           <t>https://maximum-auto-credit.ru/cars-new/renault/logan/ii-res-sedan-4/</t>
         </is>
       </c>
+      <c r="P320" t="n">
+        <v>1030000</v>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/renault/logan/sedan</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -13588,6 +13620,14 @@
           <t>https://maximum-auto-credit.ru/cars-new/renault/logan/ii-res-sedan-stepway-4/</t>
         </is>
       </c>
+      <c r="P322" t="n">
+        <v>1079000</v>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/renault/logan-stepway/sedan</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -13662,6 +13702,14 @@
           <t>https://maximum-auto-credit.ru/cars-new/renault/sandero/ii-res-hatchback-5/</t>
         </is>
       </c>
+      <c r="P324" t="n">
+        <v>1049000</v>
+      </c>
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/renault/sandero/hatchback</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -13734,6 +13782,14 @@
       <c r="M326" t="inlineStr">
         <is>
           <t>https://maximum-auto-credit.ru/cars-new/renault/sandero/ii-res-hatchback-stepway-5/</t>
+        </is>
+      </c>
+      <c r="P326" t="n">
+        <v>1118000</v>
+      </c>
+      <c r="Q326" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/renault/sandero-stepway/hatchback</t>
         </is>
       </c>
     </row>

--- a/xlsx/krasnodar.xlsx
+++ b/xlsx/krasnodar.xlsx
@@ -14364,7 +14364,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -14374,7 +14374,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Superb Combi New</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D343" t="n">
@@ -15110,7 +15110,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>3184000</v>
+        <v>4184000</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>3184000</v>
+        <v>4184000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -15637,19 +15637,11 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>1649900</v>
+        <v>1657900</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/tiguan</t>
-        </is>
-      </c>
-      <c r="H378" t="n">
-        <v>1649900</v>
-      </c>
-      <c r="I378" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/tiguan</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-564624040771-volkswagen-novii-tiguan</t>
         </is>
       </c>
       <c r="J378" t="n">

--- a/xlsx/krasnodar.xlsx
+++ b/xlsx/krasnodar.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q348"/>
+  <dimension ref="A1:Q349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8857,7 +8857,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -8867,30 +8867,30 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>Soul New</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>2227000</v>
+        <v>1887000</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/kia/sportage/5</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/kia/soul/3-restyling</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>2227000</v>
+        <v>1887000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/kia/sportage/5</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/kia/soul/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -8900,30 +8900,30 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>2299000</v>
+        <v>2227000</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/kia/sportage-5_suv</t>
-        </is>
-      </c>
-      <c r="H197" t="n">
-        <v>2299000</v>
-      </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/kia/sportage-5_suv</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/kia/sportage/5</t>
+        </is>
+      </c>
+      <c r="P197" t="n">
+        <v>2227000</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/kia/sportage/5</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -8933,7 +8933,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Sportage New</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -8941,22 +8941,22 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/kia/sportage/v-allroad-5/</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
+          <t>https://avangard-yug.ru/auto/kia/sportage-5_suv</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
         <v>2299000</v>
       </c>
-      <c r="M198" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/kia/sportage/v-allroad-5/</t>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/kia/sportage-5_suv</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -8966,104 +8966,96 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Stinger</t>
+          <t>Sportage New</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>3219900</v>
+        <v>2299000</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/kia/stinger</t>
-        </is>
-      </c>
-      <c r="H199" t="n">
-        <v>3219900</v>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/kia/stinger</t>
+          <t>https://maximum-auto-credit.ru/cars-new/kia/sportage/v-allroad-5/</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>2299000</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/kia/sportage/v-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Knewstar</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>Stinger</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>2730000</v>
+        <v>3219900</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/knewstar/001/suv</t>
-        </is>
-      </c>
-      <c r="P200" t="n">
-        <v>2730000</v>
-      </c>
-      <c r="Q200" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/knewstar/001/suv</t>
+          <t>https://avangard-yug.ru/auto/kia/stinger</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>3219900</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/kia/stinger</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Knewstar</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>4x4 Bronto</t>
+          <t>001</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>636900</v>
+        <v>2730000</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-bronto</t>
-        </is>
-      </c>
-      <c r="H201" t="n">
-        <v>636900</v>
-      </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-bronto</t>
-        </is>
-      </c>
-      <c r="J201" t="n">
-        <v>646900</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-628008393181-lada-4x4-bronto</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/knewstar/001/suv</t>
+        </is>
+      </c>
+      <c r="P201" t="n">
+        <v>2730000</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/knewstar/001/suv</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -9073,46 +9065,38 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Aura</t>
+          <t>4x4 Bronto</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1929000</v>
+        <v>636900</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/aura/sedan</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-bronto</t>
         </is>
       </c>
       <c r="H202" t="n">
-        <v>2249000</v>
+        <v>636900</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/aura_sedan-1gen</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>2249000</v>
-      </c>
-      <c r="M202" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/aura/2024-sedan-4/</t>
-        </is>
-      </c>
-      <c r="P202" t="n">
-        <v>1929000</v>
-      </c>
-      <c r="Q202" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/aura/sedan</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-bronto</t>
+        </is>
+      </c>
+      <c r="J202" t="n">
+        <v>646900</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-628008393181-lada-4x4-bronto</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>795</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -9122,54 +9106,46 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Aura</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>462010</v>
+        <v>1929000</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-193342642601-lada-granta-cross</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/aura/sedan</t>
         </is>
       </c>
       <c r="H203" t="n">
-        <v>599300</v>
+        <v>2249000</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-cross</t>
-        </is>
-      </c>
-      <c r="J203" t="n">
-        <v>462010</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-193342642601-lada-granta-cross</t>
+          <t>https://avangard-yug.ru/auto/lada/aura_sedan-1gen</t>
         </is>
       </c>
       <c r="L203" t="n">
-        <v>599300</v>
+        <v>2249000</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-wagon-cross-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/aura/2024-sedan-4/</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>812000</v>
+        <v>1929000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/granta/cross</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/aura/sedan</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -9179,30 +9155,54 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Granta Drive Active</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>617900</v>
+        <v>462010</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-drive-active</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-193342642601-lada-granta-cross</t>
         </is>
       </c>
       <c r="H204" t="n">
-        <v>617900</v>
+        <v>599300</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-drive-active</t>
+          <t>https://avangard-yug.ru/auto/lada/granta-cross</t>
+        </is>
+      </c>
+      <c r="J204" t="n">
+        <v>462010</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-193342642601-lada-granta-cross</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>599300</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-wagon-cross-5/</t>
+        </is>
+      </c>
+      <c r="P204" t="n">
+        <v>812000</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/granta/cross</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -9212,7 +9212,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Granta Drive Active Liftback</t>
+          <t>Granta Drive Active</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -9220,22 +9220,22 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-liftback-drive-activesportline-4/</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
+          <t>https://avangard-yug.ru/auto/lada/granta-drive-active</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
         <v>617900</v>
       </c>
-      <c r="M205" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-liftback-drive-activesportline-4/</t>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/lada/granta-drive-active</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -9245,38 +9245,30 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Drive Active Liftback</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>378810</v>
+        <v>617900</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-524026184201-lada-granta-hatchback</t>
-        </is>
-      </c>
-      <c r="J206" t="n">
-        <v>378810</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-524026184201-lada-granta-hatchback</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-liftback-drive-activesportline-4/</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>534200</v>
+        <v>617900</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-hatchback-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-liftback-drive-activesportline-4/</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -9286,30 +9278,38 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Granta Hatchback New</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D207" t="n">
+        <v>378810</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-524026184201-lada-granta-hatchback</t>
+        </is>
+      </c>
+      <c r="J207" t="n">
+        <v>378810</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-524026184201-lada-granta-hatchback</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
         <v>534200</v>
       </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-hatchback</t>
-        </is>
-      </c>
-      <c r="H207" t="n">
-        <v>534200</v>
-      </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-hatchback</t>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-hatchback-5/</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -9319,46 +9319,30 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Hatchback New</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>375610</v>
+        <v>534200</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-630720861161-lada-granta-liftback</t>
-        </is>
-      </c>
-      <c r="J208" t="n">
-        <v>375610</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-630720861161-lada-granta-liftback</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>559040</v>
-      </c>
-      <c r="M208" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-liftback-5/</t>
-        </is>
-      </c>
-      <c r="P208" t="n">
-        <v>734000</v>
-      </c>
-      <c r="Q208" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/granta/liftback</t>
+          <t>https://avangard-yug.ru/auto/lada/granta-hatchback</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>534200</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/lada/granta-hatchback</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -9368,38 +9352,46 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Granta Liftback New</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D209" t="n">
+        <v>375610</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-630720861161-lada-granta-liftback</t>
+        </is>
+      </c>
+      <c r="J209" t="n">
+        <v>375610</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-630720861161-lada-granta-liftback</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
         <v>559040</v>
       </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-liftback</t>
-        </is>
-      </c>
-      <c r="H209" t="n">
-        <v>559040</v>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-liftback</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>989900</v>
-      </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-liftback-sport-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-liftback-5/</t>
+        </is>
+      </c>
+      <c r="P209" t="n">
+        <v>734000</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/granta/liftback</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -9409,46 +9401,38 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Liftback New</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>358510</v>
+        <v>559040</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-716546860321-lada-granta-sedan</t>
-        </is>
-      </c>
-      <c r="J210" t="n">
-        <v>358510</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-716546860321-lada-granta-sedan</t>
+          <t>https://avangard-yug.ru/auto/lada/granta-liftback</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>559040</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/lada/granta-liftback</t>
         </is>
       </c>
       <c r="L210" t="n">
-        <v>506640</v>
+        <v>989900</v>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-sedan-4/</t>
-        </is>
-      </c>
-      <c r="P210" t="n">
-        <v>645000</v>
-      </c>
-      <c r="Q210" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/granta/sedan</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-liftback-sport-5/</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -9458,38 +9442,46 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>520900</v>
+        <v>358510</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-663237493071-lada-granta-drive-active</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-716546860321-lada-granta-sedan</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>520900</v>
+        <v>358510</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-663237493071-lada-granta-drive-active</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-716546860321-lada-granta-sedan</t>
         </is>
       </c>
       <c r="L211" t="n">
-        <v>780900</v>
+        <v>506640</v>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-sedan-drive-activesportline-4/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-sedan-4/</t>
+        </is>
+      </c>
+      <c r="P211" t="n">
+        <v>645000</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/granta/sedan</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -9499,30 +9491,38 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Granta Sedan New</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>506640</v>
+        <v>520900</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta</t>
-        </is>
-      </c>
-      <c r="H212" t="n">
-        <v>506640</v>
-      </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/lada/granta</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-663237493071-lada-granta-drive-active</t>
+        </is>
+      </c>
+      <c r="J212" t="n">
+        <v>520900</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-663237493071-lada-granta-drive-active</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>780900</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-sedan-drive-activesportline-4/</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -9532,30 +9532,30 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Granta Sport Drive Active Liftback</t>
+          <t>Granta Sedan New</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>780900</v>
+        <v>506640</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-sport_liftback</t>
+          <t>https://avangard-yug.ru/auto/lada/granta</t>
         </is>
       </c>
       <c r="H213" t="n">
-        <v>780900</v>
+        <v>506640</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-sport_liftback</t>
+          <t>https://avangard-yug.ru/auto/lada/granta</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -9565,30 +9565,30 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Granta Sport Liftback</t>
+          <t>Granta Sport Drive Active Liftback</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>989900</v>
+        <v>780900</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-sport_liftback-</t>
+          <t>https://avangard-yug.ru/auto/lada/granta-sport_liftback</t>
         </is>
       </c>
       <c r="H214" t="n">
-        <v>989900</v>
+        <v>780900</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-sport_liftback-</t>
+          <t>https://avangard-yug.ru/auto/lada/granta-sport_liftback</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -9598,38 +9598,30 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Granta Sport Sedan</t>
+          <t>Granta Sport Liftback</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>949900</v>
+        <v>989900</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
+          <t>https://avangard-yug.ru/auto/lada/granta-sport_liftback-</t>
         </is>
       </c>
       <c r="H215" t="n">
-        <v>949900</v>
+        <v>989900</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-sport_sedan</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>949900</v>
-      </c>
-      <c r="M215" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
+          <t>https://avangard-yug.ru/auto/lada/granta-sport_liftback-</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -9639,30 +9631,38 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Granta Sportline</t>
+          <t>Granta Sport Sedan</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>951000</v>
+        <v>949900</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta_sedan-sportline-1gen-rest</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
         </is>
       </c>
       <c r="H216" t="n">
-        <v>951000</v>
+        <v>949900</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta_sedan-sportline-1gen-rest</t>
+          <t>https://avangard-yug.ru/auto/lada/granta-sport_sedan</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>949900</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>723</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -9672,30 +9672,30 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Granta Sportline Liftback</t>
+          <t>Granta Sportline</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>991000</v>
+        <v>951000</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta_liftback-sportline%20-1gen</t>
+          <t>https://avangard-yug.ru/auto/lada/granta_sedan-sportline-1gen-rest</t>
         </is>
       </c>
       <c r="H217" t="n">
-        <v>991000</v>
+        <v>951000</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/granta_liftback-sportline%20-1gen</t>
+          <t>https://avangard-yug.ru/auto/lada/granta_sedan-sportline-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>732</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -9705,38 +9705,30 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sportline Liftback</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>382810</v>
+        <v>991000</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-651754559111-lada-granta-universal</t>
-        </is>
-      </c>
-      <c r="J218" t="n">
-        <v>382810</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-651754559111-lada-granta-universal</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>516040</v>
-      </c>
-      <c r="M218" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-wagon-5/</t>
+          <t>https://avangard-yug.ru/auto/lada/granta_liftback-sportline%20-1gen</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>991000</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/lada/granta_liftback-sportline%20-1gen</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -9746,30 +9738,38 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Granta Universal New</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D219" t="n">
+        <v>382810</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-651754559111-lada-granta-universal</t>
+        </is>
+      </c>
+      <c r="J219" t="n">
+        <v>382810</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-651754559111-lada-granta-universal</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
         <v>516040</v>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-universal</t>
-        </is>
-      </c>
-      <c r="H219" t="n">
-        <v>516040</v>
-      </c>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/lada/granta-universal</t>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/granta/i-res-wagon-5/</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -9779,46 +9779,30 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Universal New</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>504000</v>
+        <v>516040</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/largus_wagon-5</t>
+          <t>https://avangard-yug.ru/auto/lada/granta-universal</t>
         </is>
       </c>
       <c r="H220" t="n">
-        <v>504000</v>
+        <v>516040</v>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/largus_wagon-5</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>640000</v>
-      </c>
-      <c r="M220" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/largus/i-res-wagon-5/</t>
-        </is>
-      </c>
-      <c r="P220" t="n">
-        <v>1394000</v>
-      </c>
-      <c r="Q220" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/largus/universal</t>
+          <t>https://avangard-yug.ru/auto/lada/granta-universal</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -9828,30 +9812,46 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Largus 7 мест</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>580000</v>
+        <v>504000</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/largus_wagon-7</t>
+          <t>https://avangard-yug.ru/auto/lada/largus_wagon-5</t>
         </is>
       </c>
       <c r="H221" t="n">
-        <v>580000</v>
+        <v>504000</v>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/largus_wagon-7</t>
+          <t>https://avangard-yug.ru/auto/lada/largus_wagon-5</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>640000</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/largus/i-res-wagon-5/</t>
+        </is>
+      </c>
+      <c r="P221" t="n">
+        <v>1394000</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/largus/universal</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -9861,38 +9861,30 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Largus 7 мест</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>727000</v>
+        <v>580000</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/largus/i-res-wagon-cross-5/</t>
+          <t>https://avangard-yug.ru/auto/lada/largus_wagon-7</t>
         </is>
       </c>
       <c r="H222" t="n">
-        <v>727000</v>
+        <v>580000</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/largus-cross</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>727000</v>
-      </c>
-      <c r="M222" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/largus/i-res-wagon-cross-5/</t>
+          <t>https://avangard-yug.ru/auto/lada/largus_wagon-7</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -9902,30 +9894,38 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Largus Cross 7 мест</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>767000</v>
+        <v>727000</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/largus-cross7</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/largus/i-res-wagon-cross-5/</t>
         </is>
       </c>
       <c r="H223" t="n">
-        <v>767000</v>
+        <v>727000</v>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/largus-cross7</t>
+          <t>https://avangard-yug.ru/auto/lada/largus-cross</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>727000</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/largus/i-res-wagon-cross-5/</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -9935,30 +9935,30 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Largus Cross 7 мест</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>699310</v>
+        <v>767000</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-261449813031-lada-novii-largus-cross</t>
-        </is>
-      </c>
-      <c r="J224" t="n">
-        <v>699310</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-261449813031-lada-novii-largus-cross</t>
+          <t>https://avangard-yug.ru/auto/lada/largus-cross7</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>767000</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/lada/largus-cross7</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -9968,30 +9968,30 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>540310</v>
+        <v>699310</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-921337215121-lada-novii-largus</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-261449813031-lada-novii-largus-cross</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>540310</v>
+        <v>699310</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-921337215121-lada-novii-largus</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-261449813031-lada-novii-largus-cross</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -10001,46 +10001,30 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>790000</v>
+        <v>540310</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/largus-furgon</t>
-        </is>
-      </c>
-      <c r="H226" t="n">
-        <v>790000</v>
-      </c>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/lada/largus-furgon</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1132000</v>
-      </c>
-      <c r="M226" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/largus/i-res-van-5/</t>
-        </is>
-      </c>
-      <c r="P226" t="n">
-        <v>1236000</v>
-      </c>
-      <c r="Q226" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/largus/furgon</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-921337215121-lada-novii-largus</t>
+        </is>
+      </c>
+      <c r="J226" t="n">
+        <v>540310</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-921337215121-lada-novii-largus</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -10050,30 +10034,46 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>541610</v>
+        <v>790000</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-296668873651-lada-novii-largus-furgon</t>
-        </is>
-      </c>
-      <c r="J227" t="n">
-        <v>541610</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-296668873651-lada-novii-largus-furgon</t>
+          <t>https://avangard-yug.ru/auto/lada/largus-furgon</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>790000</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/lada/largus-furgon</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1132000</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/largus/i-res-van-5/</t>
+        </is>
+      </c>
+      <c r="P227" t="n">
+        <v>1236000</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/largus/furgon</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -10083,30 +10083,30 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>587000</v>
+        <v>541610</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-4x4</t>
-        </is>
-      </c>
-      <c r="H228" t="n">
-        <v>587000</v>
-      </c>
-      <c r="I228" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-4x4</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-296668873651-lada-novii-largus-furgon</t>
+        </is>
+      </c>
+      <c r="J228" t="n">
+        <v>541610</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-296668873651-lada-novii-largus-furgon</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -10116,46 +10116,30 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>454710</v>
+        <v>587000</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-392526322201-lada-niva-legend-3-dv</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-4x4</t>
         </is>
       </c>
       <c r="H229" t="n">
-        <v>618900</v>
+        <v>587000</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-legend-3d</t>
-        </is>
-      </c>
-      <c r="J229" t="n">
-        <v>454710</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-392526322201-lada-niva-legend-3-dv</t>
-        </is>
-      </c>
-      <c r="P229" t="n">
-        <v>685000</v>
-      </c>
-      <c r="Q229" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/4x4/suv-3d</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-4x4</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -10165,38 +10149,46 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>490410</v>
+        <v>454710</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-971159127651-lada-niva-legend-5-dv</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-392526322201-lada-niva-legend-3-dv</t>
         </is>
       </c>
       <c r="H230" t="n">
-        <v>688900</v>
+        <v>618900</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-legend-5d</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-legend-3d</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>490410</v>
+        <v>454710</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-971159127651-lada-niva-legend-5-dv</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-392526322201-lada-niva-legend-3-dv</t>
+        </is>
+      </c>
+      <c r="P230" t="n">
+        <v>685000</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/4x4/suv-3d</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -10206,38 +10198,38 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Niva Legend Bronto</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>917900</v>
+        <v>490410</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-legend_bronto-3d-1gen-rest</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-971159127651-lada-niva-legend-5-dv</t>
         </is>
       </c>
       <c r="H231" t="n">
-        <v>917900</v>
+        <v>688900</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-legend_bronto-3d-1gen-rest</t>
-        </is>
-      </c>
-      <c r="P231" t="n">
-        <v>1048000</v>
-      </c>
-      <c r="Q231" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/4x4/bronto</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-legend-5d</t>
+        </is>
+      </c>
+      <c r="J231" t="n">
+        <v>490410</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-971159127651-lada-niva-legend-5-dv</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -10247,30 +10239,38 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend Bronto</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>669000</v>
+        <v>917900</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-offroad</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-legend_bronto-3d-1gen-rest</t>
         </is>
       </c>
       <c r="H232" t="n">
-        <v>669000</v>
+        <v>917900</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-offroad</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-legend_bronto-3d-1gen-rest</t>
+        </is>
+      </c>
+      <c r="P232" t="n">
+        <v>1048000</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/4x4/bronto</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -10280,54 +10280,30 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>557000</v>
+        <v>669000</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/niva/i-res-allroad-5/</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-offroad</t>
         </is>
       </c>
       <c r="H233" t="n">
-        <v>557000</v>
+        <v>669000</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/niva-travel</t>
-        </is>
-      </c>
-      <c r="J233" t="n">
-        <v>617100</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-806839628991-lada-niva-travel</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>557000</v>
-      </c>
-      <c r="M233" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/niva/i-res-allroad-5/</t>
-        </is>
-      </c>
-      <c r="P233" t="n">
-        <v>951000</v>
-      </c>
-      <c r="Q233" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/2123-travel/suv</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-offroad</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -10337,30 +10313,54 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Niva Urban 3 двери</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>515000</v>
+        <v>557000</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-urban-3d</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/niva/i-res-allroad-5/</t>
         </is>
       </c>
       <c r="H234" t="n">
-        <v>515000</v>
+        <v>557000</v>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-urban-3d</t>
+          <t>https://avangard-yug.ru/auto/lada/niva-travel</t>
+        </is>
+      </c>
+      <c r="J234" t="n">
+        <v>617100</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-806839628991-lada-niva-travel</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>557000</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/niva/i-res-allroad-5/</t>
+        </is>
+      </c>
+      <c r="P234" t="n">
+        <v>951000</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/2123-travel/suv</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -10370,30 +10370,30 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Niva Urban 5 дверей</t>
+          <t>Niva Urban 3 двери</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>553000</v>
+        <v>515000</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-urban-5d</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-urban-3d</t>
         </is>
       </c>
       <c r="H235" t="n">
-        <v>553000</v>
+        <v>515000</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/4x4-urban-5d</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-urban-3d</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -10403,38 +10403,30 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Urban 5 дверей</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>869900</v>
+        <v>553000</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-cross</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-urban-5d</t>
         </is>
       </c>
       <c r="H236" t="n">
-        <v>869900</v>
+        <v>553000</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-cross</t>
-        </is>
-      </c>
-      <c r="P236" t="n">
-        <v>1297000</v>
-      </c>
-      <c r="Q236" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/vesta/cross</t>
+          <t>https://avangard-yug.ru/auto/lada/4x4-urban-5d</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -10444,38 +10436,38 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>1039900</v>
+        <v>869900</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-sedan-cross-4/</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-cross</t>
         </is>
       </c>
       <c r="H237" t="n">
-        <v>1039900</v>
+        <v>869900</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/Vesta-new_cross</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1039900</v>
-      </c>
-      <c r="M237" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-sedan-cross-4/</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-cross</t>
+        </is>
+      </c>
+      <c r="P237" t="n">
+        <v>1297000</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/vesta/cross</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -10485,46 +10477,38 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>597010</v>
+        <v>1039900</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-825520861011-lada-vesta-sw</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-sedan-cross-4/</t>
         </is>
       </c>
       <c r="H238" t="n">
-        <v>813900</v>
+        <v>1039900</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-sw</t>
-        </is>
-      </c>
-      <c r="J238" t="n">
-        <v>597010</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-825520861011-lada-vesta-sw</t>
-        </is>
-      </c>
-      <c r="P238" t="n">
-        <v>1215000</v>
-      </c>
-      <c r="Q238" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/vesta/sw</t>
+          <t>https://avangard-yug.ru/auto/lada/Vesta-new_cross</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1039900</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-sedan-cross-4/</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -10534,46 +10518,46 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>693310</v>
+        <v>597010</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-361210199191-lada-vesta-sw-cross</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-825520861011-lada-vesta-sw</t>
         </is>
       </c>
       <c r="H239" t="n">
-        <v>928900</v>
+        <v>813900</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-sw-cross</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-sw</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>693310</v>
+        <v>597010</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-361210199191-lada-vesta-sw-cross</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-825520861011-lada-vesta-sw</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>1393000</v>
+        <v>1215000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/vesta/sw-cross</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/vesta/sw</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -10583,38 +10567,46 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1069900</v>
+        <v>693310</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-wagon-sw-cross-5/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-361210199191-lada-vesta-sw-cross</t>
         </is>
       </c>
       <c r="H240" t="n">
-        <v>1069900</v>
+        <v>928900</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vestaswcrossnew_vestaswcrossnew</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1069900</v>
-      </c>
-      <c r="M240" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-wagon-sw-cross-5/</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-sw-cross</t>
+        </is>
+      </c>
+      <c r="J240" t="n">
+        <v>693310</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-361210199191-lada-vesta-sw-cross</t>
+        </is>
+      </c>
+      <c r="P240" t="n">
+        <v>1393000</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/vesta/sw-cross</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -10624,38 +10616,38 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>999900</v>
+        <v>1069900</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-wagon-sw-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-wagon-sw-cross-5/</t>
         </is>
       </c>
       <c r="H241" t="n">
-        <v>999900</v>
+        <v>1069900</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vestaswnew_vestaswnew</t>
+          <t>https://avangard-yug.ru/auto/lada/vestaswcrossnew_vestaswcrossnew</t>
         </is>
       </c>
       <c r="L241" t="n">
-        <v>999900</v>
+        <v>1069900</v>
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-wagon-sw-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-wagon-sw-cross-5/</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -10665,38 +10657,38 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Vesta SW Sportline New</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>2093000</v>
+        <v>999900</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-wagon-sw-sportline-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-wagon-sw-5/</t>
         </is>
       </c>
       <c r="H242" t="n">
-        <v>2093000</v>
+        <v>999900</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta_wagon-sportline-1gen-rest</t>
+          <t>https://avangard-yug.ru/auto/lada/vestaswnew_vestaswnew</t>
         </is>
       </c>
       <c r="L242" t="n">
-        <v>2093000</v>
+        <v>999900</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-wagon-sw-sportline-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-wagon-sw-5/</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -10706,46 +10698,38 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW Sportline New</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>524110</v>
+        <v>2093000</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-958313462721-lada-vesta</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-wagon-sw-sportline-5/</t>
         </is>
       </c>
       <c r="H243" t="n">
-        <v>721900</v>
+        <v>2093000</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta</t>
-        </is>
-      </c>
-      <c r="J243" t="n">
-        <v>524110</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-958313462721-lada-vesta</t>
-        </is>
-      </c>
-      <c r="P243" t="n">
-        <v>1108000</v>
-      </c>
-      <c r="Q243" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/vesta/sedan</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta_wagon-sportline-1gen-rest</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>2093000</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-wagon-sw-sportline-5/</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -10755,38 +10739,46 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>639900</v>
+        <v>524110</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-811977189801-lada-vesta-cng</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-958313462721-lada-vesta</t>
         </is>
       </c>
       <c r="H244" t="n">
-        <v>1166900</v>
+        <v>721900</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-cng</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>639900</v>
+        <v>524110</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-811977189801-lada-vesta-cng</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-958313462721-lada-vesta</t>
+        </is>
+      </c>
+      <c r="P244" t="n">
+        <v>1108000</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/lada/vesta/sedan</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -10796,38 +10788,38 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>899900</v>
+        <v>639900</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-sedan-4/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-811977189801-lada-vesta-cng</t>
         </is>
       </c>
       <c r="H245" t="n">
-        <v>899900</v>
+        <v>1166900</v>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/Vesta-new_SEDAN</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>899900</v>
-      </c>
-      <c r="M245" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-sedan-4/</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-cng</t>
+        </is>
+      </c>
+      <c r="J245" t="n">
+        <v>639900</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-811977189801-lada-vesta-cng</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -10837,38 +10829,38 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>855810</v>
+        <v>899900</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-696241181211-lada-vesta-sport</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-sedan-4/</t>
         </is>
       </c>
       <c r="H246" t="n">
-        <v>1297900</v>
+        <v>899900</v>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-sport</t>
-        </is>
-      </c>
-      <c r="J246" t="n">
-        <v>855810</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-696241181211-lada-vesta-sport</t>
+          <t>https://avangard-yug.ru/auto/lada/Vesta-new_SEDAN</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>899900</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -10878,30 +10870,38 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Vesta Sportline</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1375900</v>
+        <v>855810</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-sportline</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-696241181211-lada-vesta-sport</t>
         </is>
       </c>
       <c r="H247" t="n">
-        <v>1375900</v>
+        <v>1297900</v>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/vesta-sportline</t>
+          <t>https://avangard-yug.ru/auto/lada/vesta-sport</t>
+        </is>
+      </c>
+      <c r="J247" t="n">
+        <v>855810</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-696241181211-lada-vesta-sport</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -10911,7 +10911,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Vesta Sportline New</t>
+          <t>Vesta Sportline</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -10919,22 +10919,22 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
+          <t>https://avangard-yug.ru/auto/lada/vesta-sportline</t>
+        </is>
+      </c>
+      <c r="H248" t="n">
         <v>1375900</v>
       </c>
-      <c r="M248" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/lada/vesta-sportline</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -10944,38 +10944,30 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sportline New</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>506900</v>
+        <v>1375900</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/xray</t>
-        </is>
-      </c>
-      <c r="H249" t="n">
-        <v>506900</v>
-      </c>
-      <c r="I249" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/lada/xray</t>
-        </is>
-      </c>
-      <c r="J249" t="n">
-        <v>545900</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-723135507441-lada-xray</t>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1375900</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -10985,71 +10977,79 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>591900</v>
+        <v>506900</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-598041051631-lada-xray-cross</t>
+          <t>https://avangard-yug.ru/auto/lada/xray</t>
         </is>
       </c>
       <c r="H250" t="n">
-        <v>624000</v>
+        <v>506900</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lada/xray-cross</t>
+          <t>https://avangard-yug.ru/auto/lada/xray</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>591900</v>
+        <v>545900</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-598041051631-lada-xray-cross</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-723135507441-lada-xray</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>622000</v>
+        <v>591900</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/murman</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-598041051631-lada-xray-cross</t>
         </is>
       </c>
       <c r="H251" t="n">
-        <v>622000</v>
+        <v>624000</v>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/murman</t>
+          <t>https://avangard-yug.ru/auto/lada/xray-cross</t>
+        </is>
+      </c>
+      <c r="J251" t="n">
+        <v>591900</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-598041051631-lada-xray-cross</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -11059,30 +11059,30 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>685000</v>
+        <v>622000</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/myway</t>
+          <t>https://avangard-yug.ru/auto/lifan/murman</t>
         </is>
       </c>
       <c r="H252" t="n">
-        <v>685000</v>
+        <v>622000</v>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/myway</t>
+          <t>https://avangard-yug.ru/auto/lifan/murman</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -11092,30 +11092,30 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>496000</v>
+        <v>685000</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/solano</t>
+          <t>https://avangard-yug.ru/auto/lifan/myway</t>
         </is>
       </c>
       <c r="H253" t="n">
-        <v>496000</v>
+        <v>685000</v>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/solano</t>
+          <t>https://avangard-yug.ru/auto/lifan/myway</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -11125,30 +11125,30 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>464000</v>
+        <v>496000</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/x50</t>
+          <t>https://avangard-yug.ru/auto/lifan/solano</t>
         </is>
       </c>
       <c r="H254" t="n">
-        <v>464000</v>
+        <v>496000</v>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/x50</t>
+          <t>https://avangard-yug.ru/auto/lifan/solano</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -11158,30 +11158,30 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>654000</v>
+        <v>464000</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/x60</t>
+          <t>https://avangard-yug.ru/auto/lifan/x50</t>
         </is>
       </c>
       <c r="H255" t="n">
-        <v>654000</v>
+        <v>464000</v>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/x60</t>
+          <t>https://avangard-yug.ru/auto/lifan/x50</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -11191,71 +11191,63 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>737000</v>
+        <v>654000</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/x70</t>
+          <t>https://avangard-yug.ru/auto/lifan/x60</t>
         </is>
       </c>
       <c r="H256" t="n">
-        <v>737000</v>
+        <v>654000</v>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/lifan/x70</t>
+          <t>https://avangard-yug.ru/auto/lifan/x60</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>1539000</v>
+        <v>737000</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
+          <t>https://avangard-yug.ru/auto/lifan/x70</t>
         </is>
       </c>
       <c r="H257" t="n">
-        <v>1539000</v>
+        <v>737000</v>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/livan/s6pro_sedan-1gen</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1539000</v>
-      </c>
-      <c r="M257" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
+          <t>https://avangard-yug.ru/auto/lifan/x70</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -11265,54 +11257,38 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>999000</v>
+        <v>1539000</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/livan/x3-pro/2022-allroad-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
         </is>
       </c>
       <c r="H258" t="n">
-        <v>999000</v>
+        <v>1539000</v>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/livan/x3pro</t>
-        </is>
-      </c>
-      <c r="J258" t="n">
-        <v>1186930</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-964446905451-livan-x3-pro</t>
+          <t>https://avangard-yug.ru/auto/livan/s6pro_sedan-1gen</t>
         </is>
       </c>
       <c r="L258" t="n">
-        <v>999000</v>
+        <v>1539000</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/livan/x3-pro/2022-allroad-5/</t>
-        </is>
-      </c>
-      <c r="P258" t="n">
-        <v>1087000</v>
-      </c>
-      <c r="Q258" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/livan/x3pro/suv</t>
+          <t>https://maximum-auto-credit.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -11322,79 +11298,103 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>1619000</v>
+        <v>999000</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/livan/x3-pro/2022-allroad-5/</t>
         </is>
       </c>
       <c r="H259" t="n">
-        <v>1619000</v>
+        <v>999000</v>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/livan/x6pro_suv-1gen</t>
+          <t>https://avangard-yug.ru/auto/livan/x3pro</t>
+        </is>
+      </c>
+      <c r="J259" t="n">
+        <v>1186930</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-964446905451-livan-x3-pro</t>
         </is>
       </c>
       <c r="L259" t="n">
-        <v>1619000</v>
+        <v>999000</v>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/livan/x3-pro/2022-allroad-5/</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1709000</v>
+        <v>1087000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/livan/x6pro/suv</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/livan/x3pro/suv</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>4 EV</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>3445000</v>
+        <v>1619000</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/4_ev/1</t>
+          <t>https://maximum-auto-credit.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
+        </is>
+      </c>
+      <c r="H260" t="n">
+        <v>1619000</v>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/livan/x6pro_suv-1gen</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1619000</v>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>3445000</v>
+        <v>1709000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/4_ev/1</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/livan/x6pro/suv</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -11404,38 +11404,30 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4 EV</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1481000</v>
+        <v>3445000</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/5/sedan</t>
-        </is>
-      </c>
-      <c r="H261" t="n">
-        <v>1930000</v>
-      </c>
-      <c r="I261" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/mg/5_sedan-2gen</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/4_ev/1</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>1481000</v>
+        <v>3445000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/5/sedan</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/4_ev/1</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -11445,38 +11437,38 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>1070000</v>
+        <v>1481000</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/mg/6_liftback-2gen-rest</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/5/sedan</t>
         </is>
       </c>
       <c r="H262" t="n">
-        <v>1070000</v>
+        <v>1930000</v>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/mg/6_liftback-2gen-rest</t>
+          <t>https://avangard-yug.ru/auto/mg/5_sedan-2gen</t>
         </is>
       </c>
       <c r="P262" t="n">
-        <v>1884000</v>
+        <v>1481000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/6/2-liftback</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/5/sedan</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -11486,30 +11478,38 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>2405000</v>
+        <v>1070000</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/7/1</t>
+          <t>https://avangard-yug.ru/auto/mg/6_liftback-2gen-rest</t>
+        </is>
+      </c>
+      <c r="H263" t="n">
+        <v>1070000</v>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/mg/6_liftback-2gen-rest</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>2405000</v>
+        <v>1884000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/7/1</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/6/2-liftback</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -11519,30 +11519,30 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Cyberstar</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>3984000</v>
+        <v>2405000</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/cyberster/roadster</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/7/1</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>3984000</v>
+        <v>2405000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/cyberster/roadster</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/7/1</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>776</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -11552,38 +11552,30 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>Cyberstar</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1949000</v>
+        <v>3984000</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/hs/2</t>
-        </is>
-      </c>
-      <c r="H265" t="n">
-        <v>2850000</v>
-      </c>
-      <c r="I265" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/mg/hs_suv_5d-1gen</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/cyberster/roadster</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>1949000</v>
+        <v>3984000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/hs/2</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/cyberster/roadster</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -11593,30 +11585,38 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>RX 5</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>1820000</v>
+        <v>1949000</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/rx_5/2</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/hs/2</t>
+        </is>
+      </c>
+      <c r="H266" t="n">
+        <v>2850000</v>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/mg/hs_suv_5d-1gen</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>1820000</v>
+        <v>1949000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/rx_5/2</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/hs/2</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>834</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -11626,30 +11626,30 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>RX 8</t>
+          <t>RX 5</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>2724000</v>
+        <v>1820000</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/rx_8/1</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/rx_5/2</t>
         </is>
       </c>
       <c r="P267" t="n">
-        <v>2724000</v>
+        <v>1820000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/rx_8/1</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/rx_5/2</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>842</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -11659,30 +11659,30 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>RX 9</t>
+          <t>RX 8</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>3185000</v>
+        <v>2724000</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/rx_9/1</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/rx_8/1</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>3185000</v>
+        <v>2724000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/rx_9/1</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/rx_8/1</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>841</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -11692,104 +11692,104 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>RX 9</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>1754000</v>
+        <v>3185000</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/zs/2-sedan</t>
-        </is>
-      </c>
-      <c r="H269" t="n">
-        <v>1980000</v>
-      </c>
-      <c r="I269" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/mg/zs_cuv-2gen-rest</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/rx_9/1</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>1754000</v>
+        <v>3185000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/zs/2-sedan</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/rx_9/1</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Maxus</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Territory</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>4133000</v>
+        <v>1754000</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/maxus/territory/suv</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/zs/2-sedan</t>
+        </is>
+      </c>
+      <c r="H270" t="n">
+        <v>1980000</v>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/mg/zs_cuv-2gen-rest</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>4133000</v>
+        <v>1754000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/maxus/territory/suv</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mg/zs/2-sedan</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>791</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>Maxus</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Territory</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>2088000</v>
+        <v>4133000</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mazda/6/sedan</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/maxus/territory/suv</t>
         </is>
       </c>
       <c r="P271" t="n">
-        <v>2088000</v>
+        <v>4133000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mazda/6/sedan</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/maxus/territory/suv</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -11799,30 +11799,30 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>CX-30</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2333000</v>
+        <v>2088000</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mazda/cx-30/suv</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mazda/6/sedan</t>
         </is>
       </c>
       <c r="P272" t="n">
-        <v>2333000</v>
+        <v>2088000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mazda/cx-30/suv</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mazda/6/sedan</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -11832,63 +11832,63 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>CX-5</t>
+          <t>CX-30</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>2183000</v>
+        <v>2333000</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mazda/cx5/suv</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mazda/cx-30/suv</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>2183000</v>
+        <v>2333000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mazda/cx5/suv</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mazda/cx-30/suv</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>CX-5</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>2374000</v>
+        <v>2183000</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mitsubishi/asx/suv</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mazda/cx5/suv</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>2374000</v>
+        <v>2183000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mitsubishi/asx/suv</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mazda/cx5/suv</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -11898,30 +11898,30 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>ASX</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>2489000</v>
+        <v>2374000</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mitsubishi/asx/suv</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>2489000</v>
+        <v>2374000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mitsubishi/outlander/suv</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mitsubishi/asx/suv</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -11931,30 +11931,30 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Outlander New</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>2593000</v>
+        <v>2489000</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mitsubishi/outlander/4-restyling</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>2593000</v>
+        <v>2489000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mitsubishi/outlander/4-restyling</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -11964,79 +11964,63 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Pajero Sport</t>
+          <t>Outlander New</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>2723000</v>
+        <v>2593000</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mitsubishi/outlander/4-restyling</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>2723000</v>
+        <v>2593000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mitsubishi/outlander/4-restyling</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Pajero Sport</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>999000</v>
+        <v>2723000</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/moscvich/3/2022-allroad-5/</t>
-        </is>
-      </c>
-      <c r="H278" t="n">
-        <v>999000</v>
-      </c>
-      <c r="I278" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/moskvich/moskvich3_cuv</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>999000</v>
-      </c>
-      <c r="M278" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/moscvich/3/2022-allroad-5/</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>1099000</v>
+        <v>2723000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/moskvich/3/suv</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -12046,79 +12030,95 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>1249000</v>
+        <v>999000</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/moscvich/6/2023-liftback-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/moscvich/3/2022-allroad-5/</t>
         </is>
       </c>
       <c r="H279" t="n">
-        <v>1249000</v>
+        <v>999000</v>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/moskvich/moskvich6_liftback-1gen</t>
+          <t>https://avangard-yug.ru/auto/moskvich/moskvich3_cuv</t>
         </is>
       </c>
       <c r="L279" t="n">
-        <v>1249000</v>
+        <v>999000</v>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/moscvich/6/2023-liftback-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/moscvich/3/2022-allroad-5/</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>1430000</v>
+        <v>1099000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/moskvich/6/liftback</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/moskvich/3/suv</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>2327000</v>
+        <v>1249000</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-571615590821-nissan-murano</t>
-        </is>
-      </c>
-      <c r="J280" t="n">
-        <v>2327000</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-571615590821-nissan-murano</t>
+          <t>https://maximum-auto-credit.ru/cars-new/moscvich/6/2023-liftback-5/</t>
+        </is>
+      </c>
+      <c r="H280" t="n">
+        <v>1249000</v>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/moskvich/moskvich6_liftback-1gen</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1249000</v>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/moscvich/6/2023-liftback-5/</t>
+        </is>
+      </c>
+      <c r="P280" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/moskvich/6/liftback</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -12128,38 +12128,30 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1233000</v>
+        <v>2327000</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-109622811471-nissan-qashqai</t>
-        </is>
-      </c>
-      <c r="H281" t="n">
-        <v>1233000</v>
-      </c>
-      <c r="I281" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/nissan/qashqai</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-571615590821-nissan-murano</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>1233000</v>
+        <v>2327000</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-109622811471-nissan-qashqai</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-571615590821-nissan-murano</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -12169,38 +12161,38 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>959000</v>
+        <v>1233000</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-142879229821-nissan-terrano</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-109622811471-nissan-qashqai</t>
         </is>
       </c>
       <c r="H282" t="n">
-        <v>1098000</v>
+        <v>1233000</v>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/nissan/terrano-2020_suv</t>
+          <t>https://avangard-yug.ru/auto/nissan/qashqai</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>959000</v>
+        <v>1233000</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-142879229821-nissan-terrano</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-109622811471-nissan-qashqai</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -12210,95 +12202,79 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>1501000</v>
+        <v>959000</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/nissan/x-trail</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-142879229821-nissan-terrano</t>
         </is>
       </c>
       <c r="H283" t="n">
-        <v>1501000</v>
+        <v>1098000</v>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/nissan/x-trail</t>
+          <t>https://avangard-yug.ru/auto/nissan/terrano-2020_suv</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>1509000</v>
+        <v>959000</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-934278828771-nissan-x-trail</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-142879229821-nissan-terrano</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>1319000</v>
+        <v>1501000</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/omoda/c5/2022-allroad-5/</t>
+          <t>https://avangard-yug.ru/auto/nissan/x-trail</t>
         </is>
       </c>
       <c r="H284" t="n">
-        <v>1319000</v>
+        <v>1501000</v>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/omoda/c5</t>
+          <t>https://avangard-yug.ru/auto/nissan/x-trail</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>1894900</v>
+        <v>1509000</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-856411361171-omoda-c5</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1319000</v>
-      </c>
-      <c r="M284" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/omoda/c5/2022-allroad-5/</t>
-        </is>
-      </c>
-      <c r="P284" t="n">
-        <v>1449000</v>
-      </c>
-      <c r="Q284" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/omoda/c5/suv</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-934278828771-nissan-x-trail</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -12308,30 +12284,54 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>C5 New</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>1519000</v>
+        <v>1319000</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/omoda/c5/i-res-allroad-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/omoda/c5/2022-allroad-5/</t>
+        </is>
+      </c>
+      <c r="H285" t="n">
+        <v>1319000</v>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/omoda/c5</t>
+        </is>
+      </c>
+      <c r="J285" t="n">
+        <v>1894900</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-856411361171-omoda-c5</t>
         </is>
       </c>
       <c r="L285" t="n">
-        <v>1519000</v>
+        <v>1319000</v>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/omoda/c5/i-res-allroad-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/omoda/c5/2022-allroad-5/</t>
+        </is>
+      </c>
+      <c r="P285" t="n">
+        <v>1449000</v>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/omoda/c5/suv</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -12341,54 +12341,30 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5 New</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>1219000</v>
+        <v>1519000</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/omoda/s5/2022-sedan-4/</t>
-        </is>
-      </c>
-      <c r="H286" t="n">
-        <v>1219000</v>
-      </c>
-      <c r="I286" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/omoda/omoda-s5</t>
-        </is>
-      </c>
-      <c r="J286" t="n">
-        <v>1859900</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-226703406341-omoda-s5</t>
+          <t>https://maximum-auto-credit.ru/cars-new/omoda/c5/i-res-allroad-5/</t>
         </is>
       </c>
       <c r="L286" t="n">
-        <v>1219000</v>
+        <v>1519000</v>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/omoda/s5/2022-sedan-4/</t>
-        </is>
-      </c>
-      <c r="P286" t="n">
-        <v>1299000</v>
-      </c>
-      <c r="Q286" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/omoda/omoda_s5/suv</t>
+          <t>https://maximum-auto-credit.ru/cars-new/omoda/c5/i-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -12398,112 +12374,136 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>1579000</v>
+        <v>1219000</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/omoda/s5_gt/sedan</t>
+          <t>https://maximum-auto-credit.ru/cars-new/omoda/s5/2022-sedan-4/</t>
         </is>
       </c>
       <c r="H287" t="n">
-        <v>1799000</v>
+        <v>1219000</v>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/omoda/S5-GT_SEDAN</t>
+          <t>https://avangard-yug.ru/auto/omoda/omoda-s5</t>
+        </is>
+      </c>
+      <c r="J287" t="n">
+        <v>1859900</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-226703406341-omoda-s5</t>
         </is>
       </c>
       <c r="L287" t="n">
-        <v>1799000</v>
+        <v>1219000</v>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/omoda/s5-gt/2023-sedan-4/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/omoda/s5/2022-sedan-4/</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>1579000</v>
+        <v>1299000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/omoda/s5_gt/sedan</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/omoda/omoda_s5/suv</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>2469000</v>
+        <v>1579000</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/oting/paladin/1</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/omoda/s5_gt/sedan</t>
+        </is>
+      </c>
+      <c r="H288" t="n">
+        <v>1799000</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/omoda/S5-GT_SEDAN</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1799000</v>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/omoda/s5-gt/2023-sedan-4/</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>2469000</v>
+        <v>1579000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/oting/paladin/1</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/omoda/s5_gt/sedan</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>507000</v>
+        <v>2469000</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/ravon/nexia-r3</t>
-        </is>
-      </c>
-      <c r="H289" t="n">
-        <v>507000</v>
-      </c>
-      <c r="I289" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/ravon/nexia-r3</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/oting/paladin/1</t>
+        </is>
+      </c>
+      <c r="P289" t="n">
+        <v>2469000</v>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -12513,30 +12513,30 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>519000</v>
+        <v>507000</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/ravon/r2</t>
+          <t>https://avangard-yug.ru/auto/ravon/nexia-r3</t>
         </is>
       </c>
       <c r="H290" t="n">
-        <v>519000</v>
+        <v>507000</v>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/ravon/r2</t>
+          <t>https://avangard-yug.ru/auto/ravon/nexia-r3</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -12546,87 +12546,63 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>570000</v>
+        <v>519000</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/ravon/r4</t>
+          <t>https://avangard-yug.ru/auto/ravon/r2</t>
         </is>
       </c>
       <c r="H291" t="n">
-        <v>570000</v>
+        <v>519000</v>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/ravon/r4</t>
+          <t>https://avangard-yug.ru/auto/ravon/r2</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>938000</v>
+        <v>570000</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-887215692741-renault-arkana</t>
+          <t>https://avangard-yug.ru/auto/ravon/r4</t>
         </is>
       </c>
       <c r="H292" t="n">
-        <v>1399000</v>
+        <v>570000</v>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/arkana</t>
-        </is>
-      </c>
-      <c r="J292" t="n">
-        <v>938000</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-887215692741-renault-arkana</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1399000</v>
-      </c>
-      <c r="M292" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/renault/arkana/i-allroad-5/</t>
-        </is>
-      </c>
-      <c r="P292" t="n">
-        <v>1412000</v>
-      </c>
-      <c r="Q292" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/renault/arkana/suv</t>
+          <t>https://avangard-yug.ru/auto/ravon/r4</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -12636,54 +12612,54 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>770000</v>
+        <v>938000</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-383385312281-renault-duster</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-887215692741-renault-arkana</t>
         </is>
       </c>
       <c r="H293" t="n">
-        <v>1199000</v>
+        <v>1399000</v>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/duster</t>
+          <t>https://avangard-yug.ru/auto/renault/arkana</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>770000</v>
+        <v>938000</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-383385312281-renault-duster</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-887215692741-renault-arkana</t>
         </is>
       </c>
       <c r="L293" t="n">
-        <v>1199000</v>
+        <v>1399000</v>
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/renault/duster/ii-allroad-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/renault/arkana/i-allroad-5/</t>
         </is>
       </c>
       <c r="P293" t="n">
-        <v>1265000</v>
+        <v>1412000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/renault/duster/suv</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/renault/arkana/suv</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -12693,30 +12669,54 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>768000</v>
+        <v>770000</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-631442336791-renault-novii-duster</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-383385312281-renault-duster</t>
+        </is>
+      </c>
+      <c r="H294" t="n">
+        <v>1199000</v>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/renault/duster</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>768000</v>
+        <v>770000</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-631442336791-renault-novii-duster</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-383385312281-renault-duster</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>1199000</v>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/renault/duster/ii-allroad-5/</t>
+        </is>
+      </c>
+      <c r="P294" t="n">
+        <v>1265000</v>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/renault/duster/suv</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -12726,54 +12726,30 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>963000</v>
+        <v>768000</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-499067990721-renault-kaptur</t>
-        </is>
-      </c>
-      <c r="H295" t="n">
-        <v>1249000</v>
-      </c>
-      <c r="I295" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/renault/kaptur</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-631442336791-renault-novii-duster</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>963000</v>
+        <v>768000</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-499067990721-renault-kaptur</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1249000</v>
-      </c>
-      <c r="M295" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/renault/kaptur/i-res-allroad-5/</t>
-        </is>
-      </c>
-      <c r="P295" t="n">
-        <v>1327000</v>
-      </c>
-      <c r="Q295" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/renault/kaptur/suv</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-631442336791-renault-novii-duster</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -12783,38 +12759,54 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Koleos</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>1553000</v>
+        <v>963000</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/koleos</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-499067990721-renault-kaptur</t>
         </is>
       </c>
       <c r="H296" t="n">
-        <v>1553000</v>
+        <v>1249000</v>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/koleos</t>
+          <t>https://avangard-yug.ru/auto/renault/kaptur</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>1561000</v>
+        <v>963000</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-326133296231-renault-koleos</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-499067990721-renault-kaptur</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>1249000</v>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/renault/kaptur/i-res-allroad-5/</t>
+        </is>
+      </c>
+      <c r="P296" t="n">
+        <v>1327000</v>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/renault/kaptur/suv</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -12824,54 +12816,38 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Koleos</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>583000</v>
+        <v>1553000</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-833829508301-renault-logan</t>
+          <t>https://avangard-yug.ru/auto/renault/koleos</t>
         </is>
       </c>
       <c r="H297" t="n">
-        <v>629000</v>
+        <v>1553000</v>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/logan</t>
+          <t>https://avangard-yug.ru/auto/renault/koleos</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>583000</v>
+        <v>1561000</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-833829508301-renault-logan</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>629000</v>
-      </c>
-      <c r="M297" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/renault/logan/ii-res-sedan-4/</t>
-        </is>
-      </c>
-      <c r="P297" t="n">
-        <v>1030000</v>
-      </c>
-      <c r="Q297" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/renault/logan/sedan</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-326133296231-renault-koleos</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -12881,54 +12857,54 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>708000</v>
+        <v>583000</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-237884719901-renault-logan-stepway</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-833829508301-renault-logan</t>
         </is>
       </c>
       <c r="H298" t="n">
-        <v>799000</v>
+        <v>629000</v>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/logan-stepway</t>
+          <t>https://avangard-yug.ru/auto/renault/logan</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>708000</v>
+        <v>583000</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-237884719901-renault-logan-stepway</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-833829508301-renault-logan</t>
         </is>
       </c>
       <c r="L298" t="n">
-        <v>799000</v>
+        <v>629000</v>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/renault/logan/ii-res-sedan-stepway-4/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/renault/logan/ii-res-sedan-4/</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>1079000</v>
+        <v>1030000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/renault/logan-stepway/sedan</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/renault/logan/sedan</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -12938,30 +12914,54 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1110000</v>
+        <v>708000</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-812699225921-renault-logan-stepway-city</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-237884719901-renault-logan-stepway</t>
+        </is>
+      </c>
+      <c r="H299" t="n">
+        <v>799000</v>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/renault/logan-stepway</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>1110000</v>
+        <v>708000</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-812699225921-renault-logan-stepway-city</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-237884719901-renault-logan-stepway</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>799000</v>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/renault/logan/ii-res-sedan-stepway-4/</t>
+        </is>
+      </c>
+      <c r="P299" t="n">
+        <v>1079000</v>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/renault/logan-stepway/sedan</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -12971,54 +12971,30 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>593000</v>
+        <v>1110000</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-749822540851-renault-sandero</t>
-        </is>
-      </c>
-      <c r="H300" t="n">
-        <v>759000</v>
-      </c>
-      <c r="I300" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/renault/sandero</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-812699225921-renault-logan-stepway-city</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>593000</v>
+        <v>1110000</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-749822540851-renault-sandero</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>759000</v>
-      </c>
-      <c r="M300" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/renault/sandero/ii-res-hatchback-5/</t>
-        </is>
-      </c>
-      <c r="P300" t="n">
-        <v>1049000</v>
-      </c>
-      <c r="Q300" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/renault/sandero/hatchback</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-812699225921-renault-logan-stepway-city</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -13028,54 +13004,54 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>753000</v>
+        <v>593000</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-554863097871-renault-sandero-stepway</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-749822540851-renault-sandero</t>
         </is>
       </c>
       <c r="H301" t="n">
-        <v>849000</v>
+        <v>759000</v>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/renault/sandero-stepway</t>
+          <t>https://avangard-yug.ru/auto/renault/sandero</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>753000</v>
+        <v>593000</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-554863097871-renault-sandero-stepway</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-749822540851-renault-sandero</t>
         </is>
       </c>
       <c r="L301" t="n">
-        <v>849000</v>
+        <v>759000</v>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/renault/sandero/ii-res-hatchback-stepway-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/renault/sandero/ii-res-hatchback-5/</t>
         </is>
       </c>
       <c r="P301" t="n">
-        <v>1118000</v>
+        <v>1049000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/renault/sandero-stepway/hatchback</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/renault/sandero/hatchback</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -13085,63 +13061,87 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1170000</v>
+        <v>753000</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-839853373971-renault-sandero-stepway-city</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-554863097871-renault-sandero-stepway</t>
+        </is>
+      </c>
+      <c r="H302" t="n">
+        <v>849000</v>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/renault/sandero-stepway</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>1170000</v>
+        <v>753000</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-839853373971-renault-sandero-stepway-city</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-554863097871-renault-sandero-stepway</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>849000</v>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/renault/sandero/ii-res-hatchback-stepway-5/</t>
+        </is>
+      </c>
+      <c r="P302" t="n">
+        <v>1118000</v>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/renault/sandero-stepway/hatchback</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>1548000</v>
+        <v>1170000</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/swm/g01/1</t>
-        </is>
-      </c>
-      <c r="P303" t="n">
-        <v>1548000</v>
-      </c>
-      <c r="Q303" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/swm/g01/1</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-839853373971-renault-sandero-stepway-city</t>
+        </is>
+      </c>
+      <c r="J303" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-839853373971-renault-sandero-stepway-city</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -13151,30 +13151,30 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>1480000</v>
+        <v>1548000</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/swm/g01f/1</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/swm/g01/1</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>1480000</v>
+        <v>1548000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/swm/g01f/1</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/swm/g01/1</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -13184,79 +13184,63 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1579000</v>
+        <v>1480000</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/swm/g05pro/1</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>1579000</v>
+        <v>1480000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/swm/g05pro/1</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/swm/g01f/1</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>1215000</v>
+        <v>1579000</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-244153322751-skoda-karoq</t>
-        </is>
-      </c>
-      <c r="H306" t="n">
-        <v>1557000</v>
-      </c>
-      <c r="I306" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/skoda/karoq</t>
-        </is>
-      </c>
-      <c r="J306" t="n">
-        <v>1215000</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-244153322751-skoda-karoq</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
       <c r="P306" t="n">
-        <v>2529000</v>
+        <v>1579000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/skoda/karoq/1-restyling</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/swm/g05pro/1</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -13266,30 +13250,46 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>1662000</v>
+        <v>1215000</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/kodiaq-2020</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-244153322751-skoda-karoq</t>
         </is>
       </c>
       <c r="H307" t="n">
-        <v>1662000</v>
+        <v>1557000</v>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/kodiaq-2020</t>
+          <t>https://avangard-yug.ru/auto/skoda/karoq</t>
+        </is>
+      </c>
+      <c r="J307" t="n">
+        <v>1215000</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-244153322751-skoda-karoq</t>
+        </is>
+      </c>
+      <c r="P307" t="n">
+        <v>2529000</v>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/skoda/karoq/1-restyling</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -13299,30 +13299,30 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Kodiaq Hockey Edition</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>1581000</v>
+        <v>1662000</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-841708426781-skoda-kodiaq-hockey-edition</t>
-        </is>
-      </c>
-      <c r="J308" t="n">
-        <v>1581000</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-841708426781-skoda-kodiaq-hockey-edition</t>
+          <t>https://avangard-yug.ru/auto/skoda/kodiaq-2020</t>
+        </is>
+      </c>
+      <c r="H308" t="n">
+        <v>1662000</v>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/skoda/kodiaq-2020</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -13332,38 +13332,30 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Kodiaq Hockey Edition</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>1659000</v>
+        <v>1581000</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-712707404121-skoda-obnovlennii-kodiaq</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-841708426781-skoda-kodiaq-hockey-edition</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>1659000</v>
+        <v>1581000</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-712707404121-skoda-obnovlennii-kodiaq</t>
-        </is>
-      </c>
-      <c r="P309" t="n">
-        <v>2853000</v>
-      </c>
-      <c r="Q309" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/skoda/kodiaq/2021</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-841708426781-skoda-kodiaq-hockey-edition</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -13373,30 +13365,38 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Kodiaq Scout</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>3375000</v>
+        <v>1659000</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-676582321101-skoda-kodiaq-scout</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-712707404121-skoda-obnovlennii-kodiaq</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>3375000</v>
+        <v>1659000</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-676582321101-skoda-kodiaq-scout</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-712707404121-skoda-obnovlennii-kodiaq</t>
+        </is>
+      </c>
+      <c r="P310" t="n">
+        <v>2853000</v>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/skoda/kodiaq/2021</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -13406,30 +13406,30 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Kodiaq Scout</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>2372000</v>
+        <v>3375000</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/skoda/octavia/liftback</t>
-        </is>
-      </c>
-      <c r="P311" t="n">
-        <v>2372000</v>
-      </c>
-      <c r="Q311" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/skoda/octavia/liftback</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-676582321101-skoda-kodiaq-scout</t>
+        </is>
+      </c>
+      <c r="J311" t="n">
+        <v>3375000</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-676582321101-skoda-kodiaq-scout</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -13439,30 +13439,30 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Octavia A8</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>1257000</v>
+        <v>2372000</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/octavia</t>
-        </is>
-      </c>
-      <c r="H312" t="n">
-        <v>1257000</v>
-      </c>
-      <c r="I312" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/skoda/octavia</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/skoda/octavia/liftback</t>
+        </is>
+      </c>
+      <c r="P312" t="n">
+        <v>2372000</v>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/skoda/octavia/liftback</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -13472,30 +13472,30 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Octavia A8</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>1055000</v>
+        <v>1257000</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-359495984671-skoda-novaya-octavia</t>
-        </is>
-      </c>
-      <c r="J313" t="n">
-        <v>1055000</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-359495984671-skoda-novaya-octavia</t>
+          <t>https://avangard-yug.ru/auto/skoda/octavia</t>
+        </is>
+      </c>
+      <c r="H313" t="n">
+        <v>1257000</v>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/skoda/octavia</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -13505,38 +13505,30 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>676000</v>
+        <v>1055000</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-238470977211-skoda-rapid</t>
-        </is>
-      </c>
-      <c r="H314" t="n">
-        <v>695000</v>
-      </c>
-      <c r="I314" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/skoda/rapid</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-359495984671-skoda-novaya-octavia</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>676000</v>
+        <v>1055000</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-238470977211-skoda-rapid</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-359495984671-skoda-novaya-octavia</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -13546,38 +13538,38 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>1740000</v>
+        <v>676000</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-375904118311-skoda-superb</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-238470977211-skoda-rapid</t>
         </is>
       </c>
       <c r="H315" t="n">
-        <v>2265000</v>
+        <v>695000</v>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/superb_sedan</t>
+          <t>https://avangard-yug.ru/auto/skoda/rapid</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>1740000</v>
+        <v>676000</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-375904118311-skoda-superb</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-238470977211-skoda-rapid</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -13587,71 +13579,71 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>2431000</v>
+        <v>1740000</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/superb-combi</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-375904118311-skoda-superb</t>
         </is>
       </c>
       <c r="H316" t="n">
-        <v>2431000</v>
+        <v>2265000</v>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/skoda/superb-combi</t>
+          <t>https://avangard-yug.ru/auto/skoda/superb_sedan</t>
+        </is>
+      </c>
+      <c r="J316" t="n">
+        <v>1740000</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-375904118311-skoda-superb</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>1499000</v>
+        <v>2431000</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/solaris/hc/2022-allroad-5/</t>
+          <t>https://avangard-yug.ru/auto/skoda/superb-combi</t>
         </is>
       </c>
       <c r="H317" t="n">
-        <v>1499000</v>
+        <v>2431000</v>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/solaris/hc_suv-1gen</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1499000</v>
-      </c>
-      <c r="M317" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/solaris/hc/2022-allroad-5/</t>
+          <t>https://avangard-yug.ru/auto/skoda/superb-combi</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -13661,38 +13653,38 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>1199000</v>
+        <v>1499000</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/solaris/hs/2022-sedan-4/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/solaris/hc/2022-allroad-5/</t>
         </is>
       </c>
       <c r="H318" t="n">
-        <v>1199000</v>
+        <v>1499000</v>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/solaris/hs_sedan-1gen</t>
+          <t>https://avangard-yug.ru/auto/solaris/hc_suv-1gen</t>
         </is>
       </c>
       <c r="L318" t="n">
-        <v>1199000</v>
+        <v>1499000</v>
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/solaris/hs/2022-sedan-4/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/solaris/hc/2022-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -13702,38 +13694,38 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>1209000</v>
+        <v>1199000</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/solaris/krs/2024-sedan-4/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/solaris/hs/2022-sedan-4/</t>
         </is>
       </c>
       <c r="H319" t="n">
-        <v>1209000</v>
+        <v>1199000</v>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/solaris/krs_sedan-1gen</t>
+          <t>https://avangard-yug.ru/auto/solaris/hs_sedan-1gen</t>
         </is>
       </c>
       <c r="L319" t="n">
-        <v>1209000</v>
+        <v>1199000</v>
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/solaris/krs/2024-sedan-4/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/solaris/hs/2022-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -13743,112 +13735,112 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>1239000</v>
+        <v>1209000</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/solaris/krx/2024-hatchback-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/solaris/krs/2024-sedan-4/</t>
         </is>
       </c>
       <c r="H320" t="n">
-        <v>1239000</v>
+        <v>1209000</v>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/solaris/krx_hatchback-1gen</t>
+          <t>https://avangard-yug.ru/auto/solaris/krs_sedan-1gen</t>
         </is>
       </c>
       <c r="L320" t="n">
-        <v>1239000</v>
+        <v>1209000</v>
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/solaris/krx/2024-hatchback-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/solaris/krs/2024-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Soueast</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>DX8S</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>2699900</v>
+        <v>1239000</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/soueast/dx8s_cuv-1gen</t>
+          <t>https://maximum-auto-credit.ru/cars-new/solaris/krx/2024-hatchback-5/</t>
         </is>
       </c>
       <c r="H321" t="n">
-        <v>2699900</v>
+        <v>1239000</v>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/soueast/dx8s_cuv-1gen</t>
+          <t>https://avangard-yug.ru/auto/solaris/krx_hatchback-1gen</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1239000</v>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/solaris/krx/2024-hatchback-5/</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Jimny</t>
+          <t>DX8S</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>1587000</v>
+        <v>2699900</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/suzuki/new%20jimny_new%20jimny</t>
+          <t>https://avangard-yug.ru/auto/soueast/dx8s_cuv-1gen</t>
         </is>
       </c>
       <c r="H322" t="n">
-        <v>1587000</v>
+        <v>2699900</v>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/suzuki/new%20jimny_new%20jimny</t>
-        </is>
-      </c>
-      <c r="P322" t="n">
-        <v>1702000</v>
-      </c>
-      <c r="Q322" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/suzuki/jimny/suv</t>
+          <t>https://avangard-yug.ru/auto/soueast/dx8s_cuv-1gen</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -13858,30 +13850,38 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>Jimny</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>1619000</v>
+        <v>1587000</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/suzuki/sx4_sedan</t>
+          <t>https://avangard-yug.ru/auto/suzuki/new%20jimny_new%20jimny</t>
         </is>
       </c>
       <c r="H323" t="n">
-        <v>1619000</v>
+        <v>1587000</v>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/suzuki/sx4_sedan</t>
+          <t>https://avangard-yug.ru/auto/suzuki/new%20jimny_new%20jimny</t>
+        </is>
+      </c>
+      <c r="P323" t="n">
+        <v>1702000</v>
+      </c>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/suzuki/jimny/suv</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -13891,79 +13891,71 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Vitara</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>1410000</v>
+        <v>1619000</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/suzuki/vitara/2020</t>
+          <t>https://avangard-yug.ru/auto/suzuki/sx4_sedan</t>
         </is>
       </c>
       <c r="H324" t="n">
-        <v>1469000</v>
+        <v>1619000</v>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/suzuki/vitara_vitara</t>
-        </is>
-      </c>
-      <c r="P324" t="n">
-        <v>1410000</v>
-      </c>
-      <c r="Q324" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/suzuki/vitara/2020</t>
+          <t>https://avangard-yug.ru/auto/suzuki/sx4_sedan</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Vitara</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2719000</v>
+        <v>1410000</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/tank/300/2021-allroad-5/</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>2719000</v>
-      </c>
-      <c r="M325" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/tank/300/2021-allroad-5/</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/suzuki/vitara/2020</t>
+        </is>
+      </c>
+      <c r="H325" t="n">
+        <v>1469000</v>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/suzuki/vitara_vitara</t>
         </is>
       </c>
       <c r="P325" t="n">
-        <v>2729000</v>
+        <v>1410000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/tank/300/suv</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/suzuki/vitara/2020</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -13973,38 +13965,38 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>4192000</v>
+        <v>2719000</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/tank/500/suv</t>
+          <t>https://maximum-auto-credit.ru/cars-new/tank/300/2021-allroad-5/</t>
         </is>
       </c>
       <c r="L326" t="n">
-        <v>4399000</v>
+        <v>2719000</v>
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/tank/500/2021-allroad-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/tank/300/2021-allroad-5/</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>4192000</v>
+        <v>2729000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/tank/500/suv</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/tank/300/suv</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -14014,63 +14006,71 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>6174000</v>
+        <v>4192000</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/tank/700/1</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/tank/500/suv</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>4399000</v>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/tank/500/2021-allroad-5/</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>6174000</v>
+        <v>4192000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/tank/700/1</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/tank/500/suv</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>1842000</v>
+        <v>6174000</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/toyota/c-hr</t>
-        </is>
-      </c>
-      <c r="H328" t="n">
-        <v>1842000</v>
-      </c>
-      <c r="I328" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/toyota/c-hr</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/tank/700/1</t>
+        </is>
+      </c>
+      <c r="P328" t="n">
+        <v>6174000</v>
+      </c>
+      <c r="Q328" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/tank/700/1</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -14080,30 +14080,30 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>1978000</v>
+        <v>1842000</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/toyota/camry</t>
+          <t>https://avangard-yug.ru/auto/toyota/c-hr</t>
         </is>
       </c>
       <c r="H329" t="n">
-        <v>1978000</v>
+        <v>1842000</v>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/toyota/camry</t>
+          <t>https://avangard-yug.ru/auto/toyota/c-hr</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -14113,38 +14113,30 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Camry New</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>1712500</v>
+        <v>1978000</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-182242764921-toyota-camry-new</t>
-        </is>
-      </c>
-      <c r="J330" t="n">
-        <v>1712500</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-182242764921-toyota-camry-new</t>
-        </is>
-      </c>
-      <c r="P330" t="n">
-        <v>3054000</v>
-      </c>
-      <c r="Q330" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/toyota/camry/9-sedan</t>
+          <t>https://avangard-yug.ru/auto/toyota/camry</t>
+        </is>
+      </c>
+      <c r="H330" t="n">
+        <v>1978000</v>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/toyota/camry</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -14154,38 +14146,38 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>Camry New</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>1152000</v>
+        <v>1712500</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/toyota/corolla</t>
-        </is>
-      </c>
-      <c r="H331" t="n">
-        <v>1152000</v>
-      </c>
-      <c r="I331" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/toyota/corolla</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-182242764921-toyota-camry-new</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>1562000</v>
+        <v>1712500</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-410306276111-toyota-corolla</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-182242764921-toyota-camry-new</t>
+        </is>
+      </c>
+      <c r="P331" t="n">
+        <v>3054000</v>
+      </c>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/toyota/camry/9-sedan</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -14195,30 +14187,38 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>3623000</v>
+        <v>1152000</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/toyota/fortuner/suv</t>
-        </is>
-      </c>
-      <c r="P332" t="n">
-        <v>3623000</v>
-      </c>
-      <c r="Q332" t="inlineStr">
-        <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/toyota/fortuner/suv</t>
+          <t>https://avangard-yug.ru/auto/toyota/corolla</t>
+        </is>
+      </c>
+      <c r="H332" t="n">
+        <v>1152000</v>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/toyota/corolla</t>
+        </is>
+      </c>
+      <c r="J332" t="n">
+        <v>1562000</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-410306276111-toyota-corolla</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -14228,38 +14228,30 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>Fortuner</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>2061000</v>
+        <v>3623000</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/toyota/rav-4</t>
-        </is>
-      </c>
-      <c r="H333" t="n">
-        <v>2061000</v>
-      </c>
-      <c r="I333" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/toyota/rav-4</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>4184000</v>
+        <v>3623000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/toyota/rav4/suv</t>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -14269,71 +14261,71 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>RAV4 New</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>1859000</v>
+        <v>2061000</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-586328054651-toyota-rav4-new</t>
-        </is>
-      </c>
-      <c r="J334" t="n">
-        <v>1859000</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-586328054651-toyota-rav4-new</t>
+          <t>https://avangard-yug.ru/auto/toyota/rav-4</t>
+        </is>
+      </c>
+      <c r="H334" t="n">
+        <v>2061000</v>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/toyota/rav-4</t>
+        </is>
+      </c>
+      <c r="P334" t="n">
+        <v>4184000</v>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>https://avtosvoboda-krd.ruhttp://avtosvoboda-krd.ru/katalog/toyota/rav4/suv</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>632</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>RAV4 New</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>745000</v>
+        <v>1859000</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/uaz/hunter/2003-allroad-5/</t>
-        </is>
-      </c>
-      <c r="H335" t="n">
-        <v>745000</v>
-      </c>
-      <c r="I335" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/uaz/hunter</t>
-        </is>
-      </c>
-      <c r="L335" t="n">
-        <v>745000</v>
-      </c>
-      <c r="M335" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/uaz/hunter/2003-allroad-5/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-586328054651-toyota-rav4-new</t>
+        </is>
+      </c>
+      <c r="J335" t="n">
+        <v>1859000</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-586328054651-toyota-rav4-new</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -14343,38 +14335,38 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>919000</v>
+        <v>745000</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/uaz/3163/i-res-3-allroad-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/uaz/hunter/2003-allroad-5/</t>
         </is>
       </c>
       <c r="H336" t="n">
-        <v>919000</v>
+        <v>745000</v>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/uaz/patriot</t>
+          <t>https://avangard-yug.ru/auto/uaz/hunter</t>
         </is>
       </c>
       <c r="L336" t="n">
-        <v>919000</v>
+        <v>745000</v>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/uaz/3163/i-res-3-allroad-5/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/uaz/hunter/2003-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -14384,71 +14376,79 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>984500</v>
+        <v>919000</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/uaz/pickup/i-res-2-pickup-two-4/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/uaz/3163/i-res-3-allroad-5/</t>
         </is>
       </c>
       <c r="H337" t="n">
-        <v>1009000</v>
+        <v>919000</v>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/uaz/patriot-pikap</t>
+          <t>https://avangard-yug.ru/auto/uaz/patriot</t>
         </is>
       </c>
       <c r="L337" t="n">
-        <v>984500</v>
+        <v>919000</v>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/uaz/pickup/i-res-2-pickup-two-4/</t>
+          <t>https://maximum-auto-credit.ru/cars-new/uaz/3163/i-res-3-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Arteon</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>1249000</v>
+        <v>984500</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/arteon_liftback-1gen-rest</t>
+          <t>https://maximum-auto-credit.ru/cars-new/uaz/pickup/i-res-2-pickup-two-4/</t>
         </is>
       </c>
       <c r="H338" t="n">
-        <v>1249000</v>
+        <v>1009000</v>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/arteon_liftback-1gen-rest</t>
+          <t>https://avangard-yug.ru/auto/uaz/patriot-pikap</t>
+        </is>
+      </c>
+      <c r="L338" t="n">
+        <v>984500</v>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/uaz/pickup/i-res-2-pickup-two-4/</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -14458,38 +14458,30 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Arteon</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>975000</v>
+        <v>1249000</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-863506188431-volkswagen-jetta</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/arteon_liftback-1gen-rest</t>
         </is>
       </c>
       <c r="H339" t="n">
-        <v>1465000</v>
+        <v>1249000</v>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="J339" t="n">
-        <v>975000</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-863506188431-volkswagen-jetta</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/arteon_liftback-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -14499,30 +14491,38 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>1460000</v>
+        <v>975000</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-266141791761-volkswagen-passat</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-863506188431-volkswagen-jetta</t>
+        </is>
+      </c>
+      <c r="H340" t="n">
+        <v>1465000</v>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/volkswagen/jetta</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>1460000</v>
+        <v>975000</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-266141791761-volkswagen-passat</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-863506188431-volkswagen-jetta</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -14532,38 +14532,30 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>730900</v>
+        <v>1460000</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-406016267311-volkswagen-polo</t>
-        </is>
-      </c>
-      <c r="H341" t="n">
-        <v>760900</v>
-      </c>
-      <c r="I341" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/polo</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-266141791761-volkswagen-passat</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>730900</v>
+        <v>1460000</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-406016267311-volkswagen-polo</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-266141791761-volkswagen-passat</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -14573,38 +14565,38 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>1426900</v>
+        <v>730900</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/taos</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-406016267311-volkswagen-polo</t>
         </is>
       </c>
       <c r="H342" t="n">
-        <v>1426900</v>
+        <v>760900</v>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/taos</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/polo</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>1475900</v>
+        <v>730900</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-272168427241-volkswagen-taos</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-406016267311-volkswagen-polo</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -14614,38 +14606,38 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>1597000</v>
+        <v>1426900</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/tiguan-2019</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/taos</t>
         </is>
       </c>
       <c r="H343" t="n">
-        <v>1597000</v>
+        <v>1426900</v>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/volkswagen/tiguan-2019</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/taos</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>1597900</v>
+        <v>1475900</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-886798314871-volkswagen-tiguan</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-272168427241-volkswagen-taos</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -14655,63 +14647,71 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>1657900</v>
+        <v>1597000</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-564624040771-volkswagen-novii-tiguan</t>
+          <t>https://avangard-yug.ru/auto/volkswagen/tiguan-2019</t>
+        </is>
+      </c>
+      <c r="H344" t="n">
+        <v>1597000</v>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/volkswagen/tiguan-2019</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>1657900</v>
+        <v>1597900</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-564624040771-volkswagen-novii-tiguan</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-886798314871-volkswagen-tiguan</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>X-Cross 7</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>1599000</v>
+        <v>1657900</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>https://maximum-auto-credit.ru/cars-new/xcite/x-cross-7/2024-allroad-5/</t>
-        </is>
-      </c>
-      <c r="L345" t="n">
-        <v>1599000</v>
-      </c>
-      <c r="M345" t="inlineStr">
-        <is>
-          <t>https://maximum-auto-credit.ru/cars-new/xcite/x-cross-7/2024-allroad-5/</t>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-564624040771-volkswagen-novii-tiguan</t>
+        </is>
+      </c>
+      <c r="J345" t="n">
+        <v>1657900</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-564624040771-volkswagen-novii-tiguan</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>X-Cross 7 New</t>
+          <t>X-Cross 7</t>
         </is>
       </c>
       <c r="D346" t="n">
@@ -14729,95 +14729,128 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/xcite/x-cross-7_suv-1gen</t>
-        </is>
-      </c>
-      <c r="H346" t="n">
+          <t>https://maximum-auto-credit.ru/cars-new/xcite/x-cross-7/2024-allroad-5/</t>
+        </is>
+      </c>
+      <c r="L346" t="n">
         <v>1599000</v>
       </c>
-      <c r="I346" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/xcite/x-cross-7_suv-1gen</t>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>https://maximum-auto-credit.ru/cars-new/xcite/x-cross-7/2024-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>676</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>X-Cross 7 New</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>989600</v>
+        <v>1599000</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/zotye/coupa</t>
+          <t>https://avangard-yug.ru/auto/xcite/x-cross-7_suv-1gen</t>
         </is>
       </c>
       <c r="H347" t="n">
-        <v>989600</v>
+        <v>1599000</v>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://avangard-yug.ru/auto/zotye/coupa</t>
-        </is>
-      </c>
-      <c r="J347" t="n">
-        <v>1112600</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>https://rostov-avto-1.ru/tproduct/532090534-839083447801-zotye-coupa</t>
+          <t>https://avangard-yug.ru/auto/xcite/x-cross-7_suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>989600</v>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="H348" t="n">
+        <v>989600</v>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>https://avangard-yug.ru/auto/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="J348" t="n">
+        <v>1112600</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>https://rostov-avto-1.ru/tproduct/532090534-839083447801-zotye-coupa</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B348" t="inlineStr">
+      <c r="B349" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C348" t="inlineStr">
+      <c r="C349" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D348" t="n">
+      <c r="D349" t="n">
         <v>771600</v>
       </c>
-      <c r="E348" t="inlineStr">
+      <c r="E349" t="inlineStr">
         <is>
           <t>https://avangard-yug.ru/auto/zotye/t600</t>
         </is>
       </c>
-      <c r="H348" t="n">
+      <c r="H349" t="n">
         <v>771600</v>
       </c>
-      <c r="I348" t="inlineStr">
+      <c r="I349" t="inlineStr">
         <is>
           <t>https://avangard-yug.ru/auto/zotye/t600</t>
         </is>
       </c>
-      <c r="J348" t="n">
+      <c r="J349" t="n">
         <v>894600</v>
       </c>
-      <c r="K348" t="inlineStr">
+      <c r="K349" t="inlineStr">
         <is>
           <t>https://rostov-avto-1.ru/tproduct/532090534-290403053961-zotye-t600</t>
         </is>

--- a/xlsx/krasnodar.xlsx
+++ b/xlsx/krasnodar.xlsx
@@ -542,14 +542,6 @@
           <t>https://kc-klassavto.ru/auto/baic/bj40/</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>3013000</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>https://avangard-yug.ru/auto/baic/BJ40</t>
-        </is>
-      </c>
       <c r="J2" t="n">
         <v>3750000</v>
       </c>
@@ -11595,7 +11587,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Vesta SW Sportline New</t>
+          <t>Vesta SW Sportline</t>
         </is>
       </c>
       <c r="D246" t="n">
